--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -655,10 +655,10 @@
     <t>['85', '86']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['45+6', '63']</t>
   </si>
   <si>
-    <t>['45+6', '63']</t>
+    <t>['45+3']</t>
   </si>
   <si>
     <t>['59', '83']</t>
@@ -6459,7 +6459,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7465038</v>
+        <v>7469674</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6474,190 +6474,190 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="Q27">
+        <v>1.83</v>
+      </c>
+      <c r="R27">
         <v>2.3</v>
       </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
       <c r="S27">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="T27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U27">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="V27">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.08</v>
+      </c>
+      <c r="Z27">
+        <v>1.45</v>
+      </c>
+      <c r="AA27">
+        <v>4.42</v>
+      </c>
+      <c r="AB27">
+        <v>7.3</v>
+      </c>
+      <c r="AC27">
+        <v>1.05</v>
+      </c>
+      <c r="AD27">
+        <v>9.5</v>
+      </c>
+      <c r="AE27">
         <v>1.28</v>
       </c>
-      <c r="X27">
+      <c r="AF27">
+        <v>3.55</v>
+      </c>
+      <c r="AG27">
+        <v>1.98</v>
+      </c>
+      <c r="AH27">
+        <v>1.82</v>
+      </c>
+      <c r="AI27">
+        <v>2.2</v>
+      </c>
+      <c r="AJ27">
+        <v>1.6</v>
+      </c>
+      <c r="AK27">
+        <v>1.06</v>
+      </c>
+      <c r="AL27">
+        <v>1.14</v>
+      </c>
+      <c r="AM27">
+        <v>3.1</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27">
+        <v>0.17</v>
+      </c>
+      <c r="AR27">
+        <v>1.31</v>
+      </c>
+      <c r="AS27">
+        <v>0.95</v>
+      </c>
+      <c r="AT27">
+        <v>2.26</v>
+      </c>
+      <c r="AU27">
         <v>8</v>
       </c>
-      <c r="Y27">
-        <v>1.05</v>
-      </c>
-      <c r="Z27">
-        <v>1.67</v>
-      </c>
-      <c r="AA27">
-        <v>3.6</v>
-      </c>
-      <c r="AB27">
-        <v>5.65</v>
-      </c>
-      <c r="AC27">
-        <v>1.08</v>
-      </c>
-      <c r="AD27">
-        <v>7.5</v>
-      </c>
-      <c r="AE27">
-        <v>1.45</v>
-      </c>
-      <c r="AF27">
-        <v>2.7</v>
-      </c>
-      <c r="AG27">
-        <v>2.47</v>
-      </c>
-      <c r="AH27">
-        <v>1.54</v>
-      </c>
-      <c r="AI27">
-        <v>2.25</v>
-      </c>
-      <c r="AJ27">
-        <v>1.57</v>
-      </c>
-      <c r="AK27">
-        <v>1.14</v>
-      </c>
-      <c r="AL27">
-        <v>1.22</v>
-      </c>
-      <c r="AM27">
-        <v>2.15</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27">
-        <v>0.43</v>
-      </c>
-      <c r="AR27">
-        <v>1.36</v>
-      </c>
-      <c r="AS27">
-        <v>0.99</v>
-      </c>
-      <c r="AT27">
-        <v>2.35</v>
-      </c>
-      <c r="AU27">
-        <v>2</v>
-      </c>
       <c r="AV27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AZ27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD27">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="BE27">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF27">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="BG27">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH27">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI27">
+        <v>1.47</v>
+      </c>
+      <c r="BJ27">
+        <v>2.5</v>
+      </c>
+      <c r="BK27">
+        <v>1.85</v>
+      </c>
+      <c r="BL27">
+        <v>1.85</v>
+      </c>
+      <c r="BM27">
+        <v>2.37</v>
+      </c>
+      <c r="BN27">
         <v>1.51</v>
       </c>
-      <c r="BJ27">
-        <v>2.37</v>
-      </c>
-      <c r="BK27">
-        <v>1.9</v>
-      </c>
-      <c r="BL27">
-        <v>1.8</v>
-      </c>
-      <c r="BM27">
-        <v>2.47</v>
-      </c>
-      <c r="BN27">
-        <v>1.48</v>
-      </c>
       <c r="BO27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP27">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6665,7 +6665,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7469674</v>
+        <v>7465038</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6680,190 +6680,190 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="Q28">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="R28">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S28">
+        <v>5.5</v>
+      </c>
+      <c r="T28">
+        <v>1.5</v>
+      </c>
+      <c r="U28">
+        <v>2.4</v>
+      </c>
+      <c r="V28">
+        <v>3.4</v>
+      </c>
+      <c r="W28">
+        <v>1.28</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>1.05</v>
+      </c>
+      <c r="Z28">
+        <v>1.67</v>
+      </c>
+      <c r="AA28">
+        <v>3.6</v>
+      </c>
+      <c r="AB28">
+        <v>5.65</v>
+      </c>
+      <c r="AC28">
+        <v>1.08</v>
+      </c>
+      <c r="AD28">
         <v>7.5</v>
       </c>
-      <c r="T28">
+      <c r="AE28">
+        <v>1.45</v>
+      </c>
+      <c r="AF28">
+        <v>2.7</v>
+      </c>
+      <c r="AG28">
+        <v>2.47</v>
+      </c>
+      <c r="AH28">
+        <v>1.54</v>
+      </c>
+      <c r="AI28">
+        <v>2.25</v>
+      </c>
+      <c r="AJ28">
+        <v>1.57</v>
+      </c>
+      <c r="AK28">
+        <v>1.14</v>
+      </c>
+      <c r="AL28">
+        <v>1.22</v>
+      </c>
+      <c r="AM28">
+        <v>2.15</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>0.43</v>
+      </c>
+      <c r="AR28">
         <v>1.36</v>
       </c>
-      <c r="U28">
-        <v>2.88</v>
-      </c>
-      <c r="V28">
-        <v>2.75</v>
-      </c>
-      <c r="W28">
-        <v>1.4</v>
-      </c>
-      <c r="X28">
-        <v>6.5</v>
-      </c>
-      <c r="Y28">
-        <v>1.08</v>
-      </c>
-      <c r="Z28">
-        <v>1.45</v>
-      </c>
-      <c r="AA28">
-        <v>4.42</v>
-      </c>
-      <c r="AB28">
-        <v>7.3</v>
-      </c>
-      <c r="AC28">
-        <v>1.05</v>
-      </c>
-      <c r="AD28">
-        <v>9.5</v>
-      </c>
-      <c r="AE28">
-        <v>1.28</v>
-      </c>
-      <c r="AF28">
-        <v>3.55</v>
-      </c>
-      <c r="AG28">
-        <v>1.98</v>
-      </c>
-      <c r="AH28">
-        <v>1.82</v>
-      </c>
-      <c r="AI28">
-        <v>2.2</v>
-      </c>
-      <c r="AJ28">
-        <v>1.6</v>
-      </c>
-      <c r="AK28">
-        <v>1.06</v>
-      </c>
-      <c r="AL28">
-        <v>1.14</v>
-      </c>
-      <c r="AM28">
-        <v>3.1</v>
-      </c>
-      <c r="AN28">
-        <v>3</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>2.33</v>
-      </c>
-      <c r="AQ28">
-        <v>0.17</v>
-      </c>
-      <c r="AR28">
-        <v>1.31</v>
-      </c>
       <c r="AS28">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AT28">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="AU28">
+        <v>2</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
         <v>8</v>
       </c>
-      <c r="AV28">
-        <v>2</v>
-      </c>
-      <c r="AW28">
-        <v>10</v>
-      </c>
-      <c r="AX28">
-        <v>7</v>
-      </c>
       <c r="AY28">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AZ28">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD28">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="BE28">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF28">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="BG28">
+        <v>1.36</v>
+      </c>
+      <c r="BH28">
+        <v>2.9</v>
+      </c>
+      <c r="BI28">
+        <v>1.51</v>
+      </c>
+      <c r="BJ28">
+        <v>2.37</v>
+      </c>
+      <c r="BK28">
+        <v>1.9</v>
+      </c>
+      <c r="BL28">
+        <v>1.8</v>
+      </c>
+      <c r="BM28">
+        <v>2.47</v>
+      </c>
+      <c r="BN28">
+        <v>1.48</v>
+      </c>
+      <c r="BO28">
+        <v>3.3</v>
+      </c>
+      <c r="BP28">
         <v>1.29</v>
-      </c>
-      <c r="BH28">
-        <v>3.3</v>
-      </c>
-      <c r="BI28">
-        <v>1.47</v>
-      </c>
-      <c r="BJ28">
-        <v>2.5</v>
-      </c>
-      <c r="BK28">
-        <v>1.85</v>
-      </c>
-      <c r="BL28">
-        <v>1.85</v>
-      </c>
-      <c r="BM28">
-        <v>2.37</v>
-      </c>
-      <c r="BN28">
-        <v>1.51</v>
-      </c>
-      <c r="BO28">
-        <v>3.2</v>
-      </c>
-      <c r="BP28">
-        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -14081,7 +14081,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7465070</v>
+        <v>7465074</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14096,190 +14096,190 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="Q64">
+        <v>2.88</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4.33</v>
+      </c>
+      <c r="T64">
+        <v>1.53</v>
+      </c>
+      <c r="U64">
         <v>2.38</v>
       </c>
-      <c r="R64">
-        <v>2.2</v>
-      </c>
-      <c r="S64">
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>1.29</v>
+      </c>
+      <c r="X64">
+        <v>11</v>
+      </c>
+      <c r="Y64">
+        <v>1.05</v>
+      </c>
+      <c r="Z64">
+        <v>2.1</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>3.7</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>6.55</v>
+      </c>
+      <c r="AE64">
+        <v>1.46</v>
+      </c>
+      <c r="AF64">
+        <v>2.77</v>
+      </c>
+      <c r="AG64">
+        <v>2.3</v>
+      </c>
+      <c r="AH64">
+        <v>1.55</v>
+      </c>
+      <c r="AI64">
+        <v>2.05</v>
+      </c>
+      <c r="AJ64">
+        <v>1.7</v>
+      </c>
+      <c r="AK64">
+        <v>1.28</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>0.83</v>
+      </c>
+      <c r="AR64">
+        <v>1.24</v>
+      </c>
+      <c r="AS64">
+        <v>0.55</v>
+      </c>
+      <c r="AT64">
+        <v>1.79</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>3</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>10</v>
+      </c>
+      <c r="BB64">
         <v>5</v>
       </c>
-      <c r="T64">
+      <c r="BC64">
+        <v>15</v>
+      </c>
+      <c r="BD64">
+        <v>1.72</v>
+      </c>
+      <c r="BE64">
+        <v>6.4</v>
+      </c>
+      <c r="BF64">
+        <v>2.38</v>
+      </c>
+      <c r="BG64">
+        <v>1.41</v>
+      </c>
+      <c r="BH64">
+        <v>2.63</v>
+      </c>
+      <c r="BI64">
+        <v>1.71</v>
+      </c>
+      <c r="BJ64">
+        <v>2</v>
+      </c>
+      <c r="BK64">
+        <v>2.12</v>
+      </c>
+      <c r="BL64">
+        <v>1.63</v>
+      </c>
+      <c r="BM64">
+        <v>2.7</v>
+      </c>
+      <c r="BN64">
         <v>1.4</v>
       </c>
-      <c r="U64">
-        <v>2.75</v>
-      </c>
-      <c r="V64">
-        <v>3</v>
-      </c>
-      <c r="W64">
-        <v>1.36</v>
-      </c>
-      <c r="X64">
-        <v>8</v>
-      </c>
-      <c r="Y64">
-        <v>1.08</v>
-      </c>
-      <c r="Z64">
-        <v>1.75</v>
-      </c>
-      <c r="AA64">
-        <v>3.7</v>
-      </c>
-      <c r="AB64">
-        <v>4.6</v>
-      </c>
-      <c r="AC64">
-        <v>1.05</v>
-      </c>
-      <c r="AD64">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE64">
-        <v>1.31</v>
-      </c>
-      <c r="AF64">
-        <v>3.42</v>
-      </c>
-      <c r="AG64">
-        <v>1.91</v>
-      </c>
-      <c r="AH64">
-        <v>1.8</v>
-      </c>
-      <c r="AI64">
-        <v>1.91</v>
-      </c>
-      <c r="AJ64">
-        <v>1.91</v>
-      </c>
-      <c r="AK64">
-        <v>1.2</v>
-      </c>
-      <c r="AL64">
-        <v>1.24</v>
-      </c>
-      <c r="AM64">
-        <v>2.1</v>
-      </c>
-      <c r="AN64">
-        <v>1</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>1.5</v>
-      </c>
-      <c r="AQ64">
-        <v>0.5</v>
-      </c>
-      <c r="AR64">
-        <v>1.56</v>
-      </c>
-      <c r="AS64">
-        <v>0.74</v>
-      </c>
-      <c r="AT64">
-        <v>2.3</v>
-      </c>
-      <c r="AU64">
-        <v>6</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>6</v>
-      </c>
-      <c r="AX64">
-        <v>3</v>
-      </c>
-      <c r="AY64">
-        <v>23</v>
-      </c>
-      <c r="AZ64">
-        <v>9</v>
-      </c>
-      <c r="BA64">
-        <v>6</v>
-      </c>
-      <c r="BB64">
-        <v>4</v>
-      </c>
-      <c r="BC64">
-        <v>10</v>
-      </c>
-      <c r="BD64">
-        <v>1.49</v>
-      </c>
-      <c r="BE64">
-        <v>6.75</v>
-      </c>
-      <c r="BF64">
-        <v>2.9</v>
-      </c>
-      <c r="BG64">
-        <v>1.33</v>
-      </c>
-      <c r="BH64">
-        <v>2.95</v>
-      </c>
-      <c r="BI64">
-        <v>1.57</v>
-      </c>
-      <c r="BJ64">
-        <v>2.23</v>
-      </c>
-      <c r="BK64">
-        <v>1.94</v>
-      </c>
-      <c r="BL64">
-        <v>1.76</v>
-      </c>
-      <c r="BM64">
-        <v>2.43</v>
-      </c>
-      <c r="BN64">
-        <v>1.47</v>
-      </c>
       <c r="BO64">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BP64">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14287,7 +14287,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7465074</v>
+        <v>7465070</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14302,190 +14302,190 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="Q65">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S65">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T65">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U65">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>8</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>1.75</v>
+      </c>
+      <c r="AA65">
+        <v>3.7</v>
+      </c>
+      <c r="AB65">
+        <v>4.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE65">
+        <v>1.31</v>
+      </c>
+      <c r="AF65">
+        <v>3.42</v>
+      </c>
+      <c r="AG65">
+        <v>1.91</v>
+      </c>
+      <c r="AH65">
+        <v>1.8</v>
+      </c>
+      <c r="AI65">
+        <v>1.91</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>1.2</v>
+      </c>
+      <c r="AL65">
+        <v>1.24</v>
+      </c>
+      <c r="AM65">
+        <v>2.1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>1.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0.5</v>
+      </c>
+      <c r="AR65">
+        <v>1.56</v>
+      </c>
+      <c r="AS65">
+        <v>0.74</v>
+      </c>
+      <c r="AT65">
+        <v>2.3</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>3</v>
+      </c>
+      <c r="AY65">
+        <v>23</v>
+      </c>
+      <c r="AZ65">
+        <v>9</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>10</v>
+      </c>
+      <c r="BD65">
+        <v>1.49</v>
+      </c>
+      <c r="BE65">
+        <v>6.75</v>
+      </c>
+      <c r="BF65">
+        <v>2.9</v>
+      </c>
+      <c r="BG65">
+        <v>1.33</v>
+      </c>
+      <c r="BH65">
+        <v>2.95</v>
+      </c>
+      <c r="BI65">
+        <v>1.57</v>
+      </c>
+      <c r="BJ65">
+        <v>2.23</v>
+      </c>
+      <c r="BK65">
+        <v>1.94</v>
+      </c>
+      <c r="BL65">
+        <v>1.76</v>
+      </c>
+      <c r="BM65">
+        <v>2.43</v>
+      </c>
+      <c r="BN65">
+        <v>1.47</v>
+      </c>
+      <c r="BO65">
+        <v>3.15</v>
+      </c>
+      <c r="BP65">
         <v>1.29</v>
-      </c>
-      <c r="X65">
-        <v>11</v>
-      </c>
-      <c r="Y65">
-        <v>1.05</v>
-      </c>
-      <c r="Z65">
-        <v>2.1</v>
-      </c>
-      <c r="AA65">
-        <v>3.2</v>
-      </c>
-      <c r="AB65">
-        <v>3.7</v>
-      </c>
-      <c r="AC65">
-        <v>1.04</v>
-      </c>
-      <c r="AD65">
-        <v>6.55</v>
-      </c>
-      <c r="AE65">
-        <v>1.46</v>
-      </c>
-      <c r="AF65">
-        <v>2.77</v>
-      </c>
-      <c r="AG65">
-        <v>2.3</v>
-      </c>
-      <c r="AH65">
-        <v>1.55</v>
-      </c>
-      <c r="AI65">
-        <v>2.05</v>
-      </c>
-      <c r="AJ65">
-        <v>1.7</v>
-      </c>
-      <c r="AK65">
-        <v>1.28</v>
-      </c>
-      <c r="AL65">
-        <v>1.3</v>
-      </c>
-      <c r="AM65">
-        <v>1.75</v>
-      </c>
-      <c r="AN65">
-        <v>1.33</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>1</v>
-      </c>
-      <c r="AQ65">
-        <v>0.83</v>
-      </c>
-      <c r="AR65">
-        <v>1.24</v>
-      </c>
-      <c r="AS65">
-        <v>0.55</v>
-      </c>
-      <c r="AT65">
-        <v>1.79</v>
-      </c>
-      <c r="AU65">
-        <v>4</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>3</v>
-      </c>
-      <c r="AX65">
-        <v>4</v>
-      </c>
-      <c r="AY65">
-        <v>11</v>
-      </c>
-      <c r="AZ65">
-        <v>10</v>
-      </c>
-      <c r="BA65">
-        <v>10</v>
-      </c>
-      <c r="BB65">
-        <v>5</v>
-      </c>
-      <c r="BC65">
-        <v>15</v>
-      </c>
-      <c r="BD65">
-        <v>1.72</v>
-      </c>
-      <c r="BE65">
-        <v>6.4</v>
-      </c>
-      <c r="BF65">
-        <v>2.38</v>
-      </c>
-      <c r="BG65">
-        <v>1.41</v>
-      </c>
-      <c r="BH65">
-        <v>2.63</v>
-      </c>
-      <c r="BI65">
-        <v>1.71</v>
-      </c>
-      <c r="BJ65">
-        <v>2</v>
-      </c>
-      <c r="BK65">
-        <v>2.12</v>
-      </c>
-      <c r="BL65">
-        <v>1.63</v>
-      </c>
-      <c r="BM65">
-        <v>2.7</v>
-      </c>
-      <c r="BN65">
-        <v>1.4</v>
-      </c>
-      <c r="BO65">
-        <v>3.65</v>
-      </c>
-      <c r="BP65">
-        <v>1.23</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -15111,7 +15111,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7465073</v>
+        <v>7469578</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15126,10 +15126,10 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -15144,172 +15144,172 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="P69" t="s">
         <v>213</v>
       </c>
       <c r="Q69">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>2.75</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>3.4</v>
+      </c>
+      <c r="AA69">
+        <v>3.4</v>
+      </c>
+      <c r="AB69">
+        <v>2.1</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>3.6</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.85</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
         <v>2.05</v>
       </c>
-      <c r="S69">
-        <v>3.1</v>
-      </c>
-      <c r="T69">
-        <v>1.44</v>
-      </c>
-      <c r="U69">
-        <v>2.63</v>
-      </c>
-      <c r="V69">
-        <v>3.25</v>
-      </c>
-      <c r="W69">
-        <v>1.33</v>
-      </c>
-      <c r="X69">
-        <v>10</v>
-      </c>
-      <c r="Y69">
-        <v>1.06</v>
-      </c>
-      <c r="Z69">
-        <v>3</v>
-      </c>
-      <c r="AA69">
-        <v>3.2</v>
-      </c>
-      <c r="AB69">
-        <v>2.37</v>
-      </c>
-      <c r="AC69">
-        <v>1.07</v>
-      </c>
-      <c r="AD69">
-        <v>7</v>
-      </c>
-      <c r="AE69">
-        <v>1.35</v>
-      </c>
-      <c r="AF69">
-        <v>2.95</v>
-      </c>
-      <c r="AG69">
-        <v>2.2</v>
-      </c>
-      <c r="AH69">
-        <v>1.6</v>
-      </c>
-      <c r="AI69">
-        <v>1.91</v>
-      </c>
-      <c r="AJ69">
-        <v>1.91</v>
-      </c>
       <c r="AK69">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
         <v>1.3</v>
       </c>
-      <c r="AM69">
-        <v>1.36</v>
-      </c>
       <c r="AN69">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AR69">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AS69">
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AU69">
         <v>3</v>
       </c>
       <c r="AV69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX69">
         <v>7</v>
       </c>
       <c r="AY69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC69">
         <v>5</v>
       </c>
       <c r="BD69">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="BE69">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF69">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BG69">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH69">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BI69">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ69">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BK69">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BL69">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="BM69">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BN69">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BO69">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BP69">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15317,7 +15317,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7469578</v>
+        <v>7465073</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15332,10 +15332,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -15350,172 +15350,172 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="P70" t="s">
         <v>214</v>
       </c>
       <c r="Q70">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>3.1</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.06</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>2.37</v>
+      </c>
+      <c r="AC70">
+        <v>1.07</v>
+      </c>
+      <c r="AD70">
+        <v>7</v>
+      </c>
+      <c r="AE70">
+        <v>1.35</v>
+      </c>
+      <c r="AF70">
+        <v>2.95</v>
+      </c>
+      <c r="AG70">
         <v>2.2</v>
       </c>
-      <c r="S70">
-        <v>2.75</v>
-      </c>
-      <c r="T70">
+      <c r="AH70">
+        <v>1.6</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
         <v>1.36</v>
       </c>
-      <c r="U70">
-        <v>3</v>
-      </c>
-      <c r="V70">
-        <v>2.75</v>
-      </c>
-      <c r="W70">
-        <v>1.4</v>
-      </c>
-      <c r="X70">
-        <v>7</v>
-      </c>
-      <c r="Y70">
-        <v>1.1</v>
-      </c>
-      <c r="Z70">
-        <v>3.4</v>
-      </c>
-      <c r="AA70">
-        <v>3.4</v>
-      </c>
-      <c r="AB70">
-        <v>2.1</v>
-      </c>
-      <c r="AC70">
-        <v>1.06</v>
-      </c>
-      <c r="AD70">
-        <v>10</v>
-      </c>
-      <c r="AE70">
-        <v>1.3</v>
-      </c>
-      <c r="AF70">
-        <v>3.6</v>
-      </c>
-      <c r="AG70">
-        <v>1.83</v>
-      </c>
-      <c r="AH70">
-        <v>1.85</v>
-      </c>
-      <c r="AI70">
-        <v>1.7</v>
-      </c>
-      <c r="AJ70">
-        <v>2.05</v>
-      </c>
-      <c r="AK70">
-        <v>1.78</v>
-      </c>
-      <c r="AL70">
-        <v>1.28</v>
-      </c>
-      <c r="AM70">
-        <v>1.3</v>
-      </c>
       <c r="AN70">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AO70">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS70">
         <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="AU70">
         <v>3</v>
       </c>
       <c r="AV70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX70">
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ70">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA70">
+        <v>1</v>
+      </c>
+      <c r="BB70">
         <v>4</v>
-      </c>
-      <c r="BB70">
-        <v>1</v>
       </c>
       <c r="BC70">
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BE70">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF70">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BG70">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH70">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BI70">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BJ70">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK70">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BL70">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="BM70">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BN70">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO70">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BP70">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="71" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['40', '90+5']</t>
   </si>
   <si>
+    <t>['70', '73']</t>
+  </si>
+  <si>
+    <t>['8', '50', '53', '56']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -731,6 +737,9 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['14', '66']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1360,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1557,7 +1566,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1763,7 +1772,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1969,7 +1978,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2175,7 +2184,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2381,7 +2390,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2459,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>2.25</v>
@@ -2587,7 +2596,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2793,7 +2802,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3205,7 +3214,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3411,7 +3420,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3617,7 +3626,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4519,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4728,7 +4737,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4853,7 +4862,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5140,7 +5149,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5471,7 +5480,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5883,7 +5892,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6707,7 +6716,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7119,7 +7128,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7406,7 +7415,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR31">
         <v>1.51</v>
@@ -7943,7 +7952,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8021,7 +8030,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>2.17</v>
@@ -8149,7 +8158,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8561,7 +8570,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8767,7 +8776,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9051,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>1.83</v>
@@ -9260,7 +9269,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -9591,7 +9600,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9797,7 +9806,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10209,7 +10218,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10496,7 +10505,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -10621,7 +10630,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10827,7 +10836,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11651,7 +11660,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11857,7 +11866,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12475,7 +12484,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12759,7 +12768,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1.14</v>
@@ -12887,7 +12896,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13171,7 +13180,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>0.57</v>
@@ -13299,7 +13308,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13505,7 +13514,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13917,7 +13926,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14201,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64">
         <v>0.83</v>
@@ -14329,7 +14338,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14410,7 +14419,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -14535,7 +14544,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15153,7 +15162,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15359,7 +15368,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15440,7 +15449,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -15771,7 +15780,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16055,7 +16064,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
         <v>0.43</v>
@@ -16595,7 +16604,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17007,7 +17016,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17419,7 +17428,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17625,7 +17634,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18321,7 +18330,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
         <v>0.83</v>
@@ -18449,7 +18458,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18655,7 +18664,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19067,7 +19076,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19273,7 +19282,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19560,7 +19569,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19685,7 +19694,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19891,7 +19900,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19972,7 +19981,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20303,7 +20312,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20384,7 +20393,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -20715,7 +20724,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21127,7 +21136,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21333,7 +21342,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21539,7 +21548,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21745,7 +21754,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21823,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>0.86</v>
@@ -21951,7 +21960,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22157,7 +22166,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22775,7 +22784,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23265,7 +23274,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>0.33</v>
@@ -23599,7 +23608,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24298,7 +24307,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24423,7 +24432,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24835,7 +24844,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25041,7 +25050,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25247,7 +25256,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25328,7 +25337,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25659,7 +25668,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26483,7 +26492,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26689,7 +26698,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27179,7 +27188,7 @@
         <v>0.83</v>
       </c>
       <c r="AP127">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127">
         <v>1.14</v>
@@ -27464,6 +27473,418 @@
       </c>
       <c r="BP128">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7465131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45618.70833333334</v>
+      </c>
+      <c r="F129">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>180</v>
+      </c>
+      <c r="P129" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q129">
+        <v>2.4</v>
+      </c>
+      <c r="R129">
+        <v>1.91</v>
+      </c>
+      <c r="S129">
+        <v>7</v>
+      </c>
+      <c r="T129">
+        <v>1.62</v>
+      </c>
+      <c r="U129">
+        <v>2.2</v>
+      </c>
+      <c r="V129">
+        <v>4</v>
+      </c>
+      <c r="W129">
+        <v>1.22</v>
+      </c>
+      <c r="X129">
+        <v>13</v>
+      </c>
+      <c r="Y129">
+        <v>1.04</v>
+      </c>
+      <c r="Z129">
+        <v>1.67</v>
+      </c>
+      <c r="AA129">
+        <v>3.4</v>
+      </c>
+      <c r="AB129">
+        <v>6</v>
+      </c>
+      <c r="AC129">
+        <v>1.12</v>
+      </c>
+      <c r="AD129">
+        <v>6.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.57</v>
+      </c>
+      <c r="AF129">
+        <v>2.36</v>
+      </c>
+      <c r="AG129">
+        <v>2.75</v>
+      </c>
+      <c r="AH129">
+        <v>1.44</v>
+      </c>
+      <c r="AI129">
+        <v>2.63</v>
+      </c>
+      <c r="AJ129">
+        <v>1.44</v>
+      </c>
+      <c r="AK129">
+        <v>1.12</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>2.25</v>
+      </c>
+      <c r="AN129">
+        <v>1.14</v>
+      </c>
+      <c r="AO129">
+        <v>0.5</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>0.43</v>
+      </c>
+      <c r="AR129">
+        <v>1.27</v>
+      </c>
+      <c r="AS129">
+        <v>0.86</v>
+      </c>
+      <c r="AT129">
+        <v>2.13</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>4</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>13</v>
+      </c>
+      <c r="AZ129">
+        <v>7</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>2</v>
+      </c>
+      <c r="BC129">
+        <v>5</v>
+      </c>
+      <c r="BD129">
+        <v>1.4</v>
+      </c>
+      <c r="BE129">
+        <v>6.75</v>
+      </c>
+      <c r="BF129">
+        <v>3.3</v>
+      </c>
+      <c r="BG129">
+        <v>1.41</v>
+      </c>
+      <c r="BH129">
+        <v>2.63</v>
+      </c>
+      <c r="BI129">
+        <v>1.71</v>
+      </c>
+      <c r="BJ129">
+        <v>2</v>
+      </c>
+      <c r="BK129">
+        <v>2.14</v>
+      </c>
+      <c r="BL129">
+        <v>1.62</v>
+      </c>
+      <c r="BM129">
+        <v>2.7</v>
+      </c>
+      <c r="BN129">
+        <v>1.38</v>
+      </c>
+      <c r="BO129">
+        <v>3.65</v>
+      </c>
+      <c r="BP129">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7465136</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45619.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130" t="s">
+        <v>181</v>
+      </c>
+      <c r="P130" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q130">
+        <v>3.75</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>3.25</v>
+      </c>
+      <c r="T130">
+        <v>1.53</v>
+      </c>
+      <c r="U130">
+        <v>2.38</v>
+      </c>
+      <c r="V130">
+        <v>3.75</v>
+      </c>
+      <c r="W130">
+        <v>1.25</v>
+      </c>
+      <c r="X130">
+        <v>11</v>
+      </c>
+      <c r="Y130">
+        <v>1.05</v>
+      </c>
+      <c r="Z130">
+        <v>3.1</v>
+      </c>
+      <c r="AA130">
+        <v>3</v>
+      </c>
+      <c r="AB130">
+        <v>2.5</v>
+      </c>
+      <c r="AC130">
+        <v>1.1</v>
+      </c>
+      <c r="AD130">
+        <v>7.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.48</v>
+      </c>
+      <c r="AF130">
+        <v>2.7</v>
+      </c>
+      <c r="AG130">
+        <v>2.5</v>
+      </c>
+      <c r="AH130">
+        <v>1.53</v>
+      </c>
+      <c r="AI130">
+        <v>2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.75</v>
+      </c>
+      <c r="AK130">
+        <v>1.55</v>
+      </c>
+      <c r="AL130">
+        <v>1.33</v>
+      </c>
+      <c r="AM130">
+        <v>1.4</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
+        <v>1</v>
+      </c>
+      <c r="AP130">
+        <v>1.33</v>
+      </c>
+      <c r="AQ130">
+        <v>0.86</v>
+      </c>
+      <c r="AR130">
+        <v>1.31</v>
+      </c>
+      <c r="AS130">
+        <v>1.29</v>
+      </c>
+      <c r="AT130">
+        <v>2.6</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>2</v>
+      </c>
+      <c r="AX130">
+        <v>4</v>
+      </c>
+      <c r="AY130">
+        <v>12</v>
+      </c>
+      <c r="AZ130">
+        <v>8</v>
+      </c>
+      <c r="BA130">
+        <v>2</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>6</v>
+      </c>
+      <c r="BD130">
+        <v>1.98</v>
+      </c>
+      <c r="BE130">
+        <v>6.4</v>
+      </c>
+      <c r="BF130">
+        <v>1.98</v>
+      </c>
+      <c r="BG130">
+        <v>1.35</v>
+      </c>
+      <c r="BH130">
+        <v>2.9</v>
+      </c>
+      <c r="BI130">
+        <v>1.6</v>
+      </c>
+      <c r="BJ130">
+        <v>2.17</v>
+      </c>
+      <c r="BK130">
+        <v>1.96</v>
+      </c>
+      <c r="BL130">
+        <v>1.73</v>
+      </c>
+      <c r="BM130">
+        <v>2.5</v>
+      </c>
+      <c r="BN130">
+        <v>1.46</v>
+      </c>
+      <c r="BO130">
+        <v>3.3</v>
+      </c>
+      <c r="BP130">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,18 @@
     <t>['8', '50', '53', '56']</t>
   </si>
   <si>
+    <t>['76', '86']</t>
+  </si>
+  <si>
+    <t>['4', '16', '21', '27']</t>
+  </si>
+  <si>
+    <t>['77', '83']</t>
+  </si>
+  <si>
+    <t>['84', '86']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -740,6 +752,12 @@
   </si>
   <si>
     <t>['14', '66']</t>
+  </si>
+  <si>
+    <t>['46', '56', '90+1']</t>
+  </si>
+  <si>
+    <t>['15', '61']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1378,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1566,7 +1584,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1772,7 +1790,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1850,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1978,7 +1996,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2056,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ5">
         <v>0.86</v>
@@ -2184,7 +2202,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2390,7 +2408,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2471,7 +2489,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2596,7 +2614,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2802,7 +2820,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3089,7 +3107,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ10">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3214,7 +3232,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3420,7 +3438,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3498,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3626,7 +3644,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3913,7 +3931,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -4862,7 +4880,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5352,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ21">
         <v>1.14</v>
@@ -5480,7 +5498,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5892,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5973,7 +5991,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6588,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR27">
         <v>1.31</v>
@@ -6716,7 +6734,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6797,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -7000,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -7128,7 +7146,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7206,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ30">
         <v>1.8</v>
@@ -7952,7 +7970,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8158,7 +8176,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8239,7 +8257,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8570,7 +8588,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8776,7 +8794,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9600,7 +9618,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9806,7 +9824,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9887,7 +9905,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -10218,7 +10236,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10502,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>0.43</v>
@@ -10630,7 +10648,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10708,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -10836,7 +10854,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10914,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -11120,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ49">
         <v>0.33</v>
@@ -11660,7 +11678,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11866,7 +11884,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12484,7 +12502,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12896,7 +12914,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -12977,7 +12995,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ58">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -13308,7 +13326,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13514,7 +13532,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13595,7 +13613,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ61">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -13926,7 +13944,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14007,7 +14025,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14338,7 +14356,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14544,7 +14562,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14625,7 +14643,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ66">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR66">
         <v>2.43</v>
@@ -14828,7 +14846,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -15162,7 +15180,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15368,7 +15386,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15446,7 +15464,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ70">
         <v>0.86</v>
@@ -15652,7 +15670,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>1.71</v>
@@ -15780,7 +15798,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15861,7 +15879,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16067,7 +16085,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16604,7 +16622,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16685,7 +16703,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -16888,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
         <v>1.14</v>
@@ -17016,7 +17034,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17303,7 +17321,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17428,7 +17446,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17506,7 +17524,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17634,7 +17652,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18127,7 +18145,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR83">
         <v>1.07</v>
@@ -18458,7 +18476,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18536,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ85">
         <v>0.67</v>
@@ -18664,7 +18682,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19076,7 +19094,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19154,7 +19172,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ88">
         <v>1.33</v>
@@ -19282,7 +19300,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19363,7 +19381,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR89">
         <v>1.08</v>
@@ -19694,7 +19712,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19900,7 +19918,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20187,7 +20205,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20312,7 +20330,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20596,7 +20614,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ95">
         <v>1.83</v>
@@ -20724,7 +20742,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20802,7 +20820,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
         <v>1.8</v>
@@ -21136,7 +21154,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21214,7 +21232,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ98">
         <v>0.57</v>
@@ -21342,7 +21360,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21548,7 +21566,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21754,7 +21772,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21960,7 +21978,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22166,7 +22184,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22453,7 +22471,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR104">
         <v>1.49</v>
@@ -22656,7 +22674,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ105">
         <v>1.14</v>
@@ -22784,7 +22802,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -22865,7 +22883,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ106">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR106">
         <v>1.96</v>
@@ -23608,7 +23626,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24101,7 +24119,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR112">
         <v>1.08</v>
@@ -24432,7 +24450,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24510,7 +24528,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ114">
         <v>0.57</v>
@@ -24716,7 +24734,7 @@
         <v>0.6</v>
       </c>
       <c r="AP115">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ115">
         <v>0.86</v>
@@ -24844,7 +24862,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -24925,7 +24943,7 @@
         <v>3</v>
       </c>
       <c r="AQ116">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25050,7 +25068,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25256,7 +25274,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25540,7 +25558,7 @@
         <v>0.4</v>
       </c>
       <c r="AP119">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ119">
         <v>0.33</v>
@@ -25668,7 +25686,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26161,7 +26179,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ122">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26492,7 +26510,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26698,7 +26716,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27397,7 +27415,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -27489,7 +27507,7 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45618.70833333334</v>
+        <v>45617.875</v>
       </c>
       <c r="F129">
         <v>14</v>
@@ -27728,7 +27746,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27885,6 +27903,830 @@
       </c>
       <c r="BP130">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7465138</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45619.51041666666</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>87</v>
+      </c>
+      <c r="H131" t="s">
+        <v>86</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>182</v>
+      </c>
+      <c r="P131" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q131">
+        <v>1.91</v>
+      </c>
+      <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
+        <v>8.5</v>
+      </c>
+      <c r="T131">
+        <v>1.4</v>
+      </c>
+      <c r="U131">
+        <v>2.75</v>
+      </c>
+      <c r="V131">
+        <v>3</v>
+      </c>
+      <c r="W131">
+        <v>1.36</v>
+      </c>
+      <c r="X131">
+        <v>8</v>
+      </c>
+      <c r="Y131">
+        <v>1.08</v>
+      </c>
+      <c r="Z131">
+        <v>1.36</v>
+      </c>
+      <c r="AA131">
+        <v>4.5</v>
+      </c>
+      <c r="AB131">
+        <v>8.5</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>11</v>
+      </c>
+      <c r="AE131">
+        <v>1.33</v>
+      </c>
+      <c r="AF131">
+        <v>3.4</v>
+      </c>
+      <c r="AG131">
+        <v>2</v>
+      </c>
+      <c r="AH131">
+        <v>1.8</v>
+      </c>
+      <c r="AI131">
+        <v>2.25</v>
+      </c>
+      <c r="AJ131">
+        <v>1.57</v>
+      </c>
+      <c r="AK131">
+        <v>1.05</v>
+      </c>
+      <c r="AL131">
+        <v>1.16</v>
+      </c>
+      <c r="AM131">
+        <v>3.1</v>
+      </c>
+      <c r="AN131">
+        <v>2.33</v>
+      </c>
+      <c r="AO131">
+        <v>0.43</v>
+      </c>
+      <c r="AP131">
+        <v>2.43</v>
+      </c>
+      <c r="AQ131">
+        <v>0.38</v>
+      </c>
+      <c r="AR131">
+        <v>1.58</v>
+      </c>
+      <c r="AS131">
+        <v>1.31</v>
+      </c>
+      <c r="AT131">
+        <v>2.89</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AV131">
+        <v>2</v>
+      </c>
+      <c r="AW131">
+        <v>1</v>
+      </c>
+      <c r="AX131">
+        <v>1</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>5</v>
+      </c>
+      <c r="BA131">
+        <v>5</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>5</v>
+      </c>
+      <c r="BD131">
+        <v>1.33</v>
+      </c>
+      <c r="BE131">
+        <v>7</v>
+      </c>
+      <c r="BF131">
+        <v>3.7</v>
+      </c>
+      <c r="BG131">
+        <v>1.35</v>
+      </c>
+      <c r="BH131">
+        <v>2.9</v>
+      </c>
+      <c r="BI131">
+        <v>1.6</v>
+      </c>
+      <c r="BJ131">
+        <v>2.17</v>
+      </c>
+      <c r="BK131">
+        <v>1.96</v>
+      </c>
+      <c r="BL131">
+        <v>1.73</v>
+      </c>
+      <c r="BM131">
+        <v>2.48</v>
+      </c>
+      <c r="BN131">
+        <v>1.47</v>
+      </c>
+      <c r="BO131">
+        <v>3.3</v>
+      </c>
+      <c r="BP131">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7469679</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45619.60416666666</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>89</v>
+      </c>
+      <c r="H132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>183</v>
+      </c>
+      <c r="P132" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q132">
+        <v>2.3</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>5.5</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>1.7</v>
+      </c>
+      <c r="AA132">
+        <v>3.8</v>
+      </c>
+      <c r="AB132">
+        <v>5</v>
+      </c>
+      <c r="AC132">
+        <v>1.06</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.32</v>
+      </c>
+      <c r="AF132">
+        <v>3.4</v>
+      </c>
+      <c r="AG132">
+        <v>1.91</v>
+      </c>
+      <c r="AH132">
+        <v>1.91</v>
+      </c>
+      <c r="AI132">
+        <v>1.95</v>
+      </c>
+      <c r="AJ132">
+        <v>1.8</v>
+      </c>
+      <c r="AK132">
+        <v>1.17</v>
+      </c>
+      <c r="AL132">
+        <v>1.24</v>
+      </c>
+      <c r="AM132">
+        <v>2.2</v>
+      </c>
+      <c r="AN132">
+        <v>1.67</v>
+      </c>
+      <c r="AO132">
+        <v>0.17</v>
+      </c>
+      <c r="AP132">
+        <v>1.86</v>
+      </c>
+      <c r="AQ132">
+        <v>0.14</v>
+      </c>
+      <c r="AR132">
+        <v>1.36</v>
+      </c>
+      <c r="AS132">
+        <v>0.85</v>
+      </c>
+      <c r="AT132">
+        <v>2.21</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>2</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>13</v>
+      </c>
+      <c r="AZ132">
+        <v>10</v>
+      </c>
+      <c r="BA132">
+        <v>6</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>9</v>
+      </c>
+      <c r="BD132">
+        <v>1.44</v>
+      </c>
+      <c r="BE132">
+        <v>6.75</v>
+      </c>
+      <c r="BF132">
+        <v>3.15</v>
+      </c>
+      <c r="BG132">
+        <v>1.41</v>
+      </c>
+      <c r="BH132">
+        <v>2.65</v>
+      </c>
+      <c r="BI132">
+        <v>1.68</v>
+      </c>
+      <c r="BJ132">
+        <v>2.04</v>
+      </c>
+      <c r="BK132">
+        <v>2.1</v>
+      </c>
+      <c r="BL132">
+        <v>1.63</v>
+      </c>
+      <c r="BM132">
+        <v>2.7</v>
+      </c>
+      <c r="BN132">
+        <v>1.4</v>
+      </c>
+      <c r="BO132">
+        <v>3.65</v>
+      </c>
+      <c r="BP132">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7465133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45619.60416666666</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s">
+        <v>77</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>184</v>
+      </c>
+      <c r="P133" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q133">
+        <v>3.75</v>
+      </c>
+      <c r="R133">
+        <v>1.91</v>
+      </c>
+      <c r="S133">
+        <v>3.25</v>
+      </c>
+      <c r="T133">
+        <v>1.57</v>
+      </c>
+      <c r="U133">
+        <v>2.25</v>
+      </c>
+      <c r="V133">
+        <v>3.75</v>
+      </c>
+      <c r="W133">
+        <v>1.25</v>
+      </c>
+      <c r="X133">
+        <v>11</v>
+      </c>
+      <c r="Y133">
+        <v>1.05</v>
+      </c>
+      <c r="Z133">
+        <v>3</v>
+      </c>
+      <c r="AA133">
+        <v>2.9</v>
+      </c>
+      <c r="AB133">
+        <v>2.6</v>
+      </c>
+      <c r="AC133">
+        <v>1.12</v>
+      </c>
+      <c r="AD133">
+        <v>7</v>
+      </c>
+      <c r="AE133">
+        <v>1.5</v>
+      </c>
+      <c r="AF133">
+        <v>2.65</v>
+      </c>
+      <c r="AG133">
+        <v>2.63</v>
+      </c>
+      <c r="AH133">
+        <v>1.5</v>
+      </c>
+      <c r="AI133">
+        <v>2.05</v>
+      </c>
+      <c r="AJ133">
+        <v>1.7</v>
+      </c>
+      <c r="AK133">
+        <v>1.53</v>
+      </c>
+      <c r="AL133">
+        <v>1.35</v>
+      </c>
+      <c r="AM133">
+        <v>1.4</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>1.5</v>
+      </c>
+      <c r="AP133">
+        <v>0.86</v>
+      </c>
+      <c r="AQ133">
+        <v>1.71</v>
+      </c>
+      <c r="AR133">
+        <v>1.37</v>
+      </c>
+      <c r="AS133">
+        <v>1.24</v>
+      </c>
+      <c r="AT133">
+        <v>2.61</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>15</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>7</v>
+      </c>
+      <c r="BD133">
+        <v>1.95</v>
+      </c>
+      <c r="BE133">
+        <v>6.25</v>
+      </c>
+      <c r="BF133">
+        <v>2.07</v>
+      </c>
+      <c r="BG133">
+        <v>1.4</v>
+      </c>
+      <c r="BH133">
+        <v>2.7</v>
+      </c>
+      <c r="BI133">
+        <v>1.65</v>
+      </c>
+      <c r="BJ133">
+        <v>2.08</v>
+      </c>
+      <c r="BK133">
+        <v>2.06</v>
+      </c>
+      <c r="BL133">
+        <v>1.66</v>
+      </c>
+      <c r="BM133">
+        <v>2.65</v>
+      </c>
+      <c r="BN133">
+        <v>1.41</v>
+      </c>
+      <c r="BO133">
+        <v>3.45</v>
+      </c>
+      <c r="BP133">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7465135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45619.70833333334</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>72</v>
+      </c>
+      <c r="H134" t="s">
+        <v>81</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>185</v>
+      </c>
+      <c r="P134" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q134">
+        <v>4.5</v>
+      </c>
+      <c r="R134">
+        <v>2.5</v>
+      </c>
+      <c r="S134">
+        <v>2.2</v>
+      </c>
+      <c r="T134">
+        <v>1.25</v>
+      </c>
+      <c r="U134">
+        <v>3.75</v>
+      </c>
+      <c r="V134">
+        <v>2.2</v>
+      </c>
+      <c r="W134">
+        <v>1.62</v>
+      </c>
+      <c r="X134">
+        <v>5</v>
+      </c>
+      <c r="Y134">
+        <v>1.17</v>
+      </c>
+      <c r="Z134">
+        <v>4.33</v>
+      </c>
+      <c r="AA134">
+        <v>4.2</v>
+      </c>
+      <c r="AB134">
+        <v>1.7</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>23</v>
+      </c>
+      <c r="AE134">
+        <v>1.15</v>
+      </c>
+      <c r="AF134">
+        <v>5.5</v>
+      </c>
+      <c r="AG134">
+        <v>1.5</v>
+      </c>
+      <c r="AH134">
+        <v>2.63</v>
+      </c>
+      <c r="AI134">
+        <v>1.5</v>
+      </c>
+      <c r="AJ134">
+        <v>2.5</v>
+      </c>
+      <c r="AK134">
+        <v>2.25</v>
+      </c>
+      <c r="AL134">
+        <v>1.19</v>
+      </c>
+      <c r="AM134">
+        <v>1.2</v>
+      </c>
+      <c r="AN134">
+        <v>1.86</v>
+      </c>
+      <c r="AO134">
+        <v>2.25</v>
+      </c>
+      <c r="AP134">
+        <v>1.75</v>
+      </c>
+      <c r="AQ134">
+        <v>2.11</v>
+      </c>
+      <c r="AR134">
+        <v>1.32</v>
+      </c>
+      <c r="AS134">
+        <v>1.71</v>
+      </c>
+      <c r="AT134">
+        <v>3.03</v>
+      </c>
+      <c r="AU134">
+        <v>9</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>17</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>5</v>
+      </c>
+      <c r="BB134">
+        <v>1</v>
+      </c>
+      <c r="BC134">
+        <v>6</v>
+      </c>
+      <c r="BD134">
+        <v>2.8</v>
+      </c>
+      <c r="BE134">
+        <v>6.75</v>
+      </c>
+      <c r="BF134">
+        <v>1.5</v>
+      </c>
+      <c r="BG134">
+        <v>1.29</v>
+      </c>
+      <c r="BH134">
+        <v>3.2</v>
+      </c>
+      <c r="BI134">
+        <v>1.5</v>
+      </c>
+      <c r="BJ134">
+        <v>2.38</v>
+      </c>
+      <c r="BK134">
+        <v>1.81</v>
+      </c>
+      <c r="BL134">
+        <v>1.88</v>
+      </c>
+      <c r="BM134">
+        <v>2.25</v>
+      </c>
+      <c r="BN134">
+        <v>1.55</v>
+      </c>
+      <c r="BO134">
+        <v>2.9</v>
+      </c>
+      <c r="BP134">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,15 @@
     <t>['84', '86']</t>
   </si>
   <si>
+    <t>['8', '21']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -688,9 +697,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['57', '80']</t>
   </si>
   <si>
@@ -758,6 +764,12 @@
   </si>
   <si>
     <t>['15', '61']</t>
+  </si>
+  <si>
+    <t>['67', '90+3']</t>
+  </si>
+  <si>
+    <t>['43', '66', '85']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1456,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -1584,7 +1596,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1790,7 +1802,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1996,7 +2008,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2202,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2280,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
         <v>0.57</v>
@@ -2408,7 +2420,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2614,7 +2626,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2695,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2820,7 +2832,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2901,7 +2913,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3232,7 +3244,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3438,7 +3450,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3644,7 +3656,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3722,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3928,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
         <v>1.71</v>
@@ -4343,7 +4355,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4549,7 +4561,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4880,7 +4892,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4958,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>0.86</v>
@@ -5498,7 +5510,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5910,7 +5922,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6194,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6734,7 +6746,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7146,7 +7158,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7227,7 +7239,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7636,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
         <v>1.71</v>
@@ -7845,7 +7857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -7970,7 +7982,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8051,7 +8063,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>0.87</v>
@@ -8176,7 +8188,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8254,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
         <v>1.71</v>
@@ -8588,7 +8600,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8666,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8794,7 +8806,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8872,7 +8884,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ38">
         <v>1.14</v>
@@ -9081,7 +9093,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9618,7 +9630,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9699,7 +9711,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.48</v>
@@ -9824,7 +9836,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10108,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10236,7 +10248,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10317,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -10648,7 +10660,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10854,7 +10866,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11553,7 +11565,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
         <v>1.4</v>
@@ -11678,7 +11690,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11884,7 +11896,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11962,7 +11974,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12377,7 +12389,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12502,7 +12514,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12580,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
         <v>0.86</v>
@@ -12914,7 +12926,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13326,7 +13338,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13404,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13532,7 +13544,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13944,7 +13956,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14356,7 +14368,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14434,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
         <v>0.43</v>
@@ -14562,7 +14574,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14849,7 +14861,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15180,7 +15192,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15261,7 +15273,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.13</v>
@@ -15386,7 +15398,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15798,7 +15810,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16622,7 +16634,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16700,7 +16712,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ76">
         <v>2.11</v>
@@ -17034,7 +17046,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17112,7 +17124,7 @@
         <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>0.86</v>
@@ -17446,7 +17458,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17527,7 +17539,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17652,7 +17664,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17936,7 +17948,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ82">
         <v>0.33</v>
@@ -18476,7 +18488,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18682,7 +18694,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18763,7 +18775,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -18969,7 +18981,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ87">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>2.14</v>
@@ -19094,7 +19106,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19300,7 +19312,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19584,7 +19596,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>0.86</v>
@@ -19712,7 +19724,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19918,7 +19930,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20202,7 +20214,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ93">
         <v>0.14</v>
@@ -20330,7 +20342,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20408,7 +20420,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ94">
         <v>0.86</v>
@@ -20617,7 +20629,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ95">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -20742,7 +20754,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20823,7 +20835,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21029,7 +21041,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21154,7 +21166,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21360,7 +21372,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21566,7 +21578,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21772,7 +21784,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21978,7 +21990,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22184,7 +22196,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22265,7 +22277,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ103">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22802,7 +22814,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23086,7 +23098,7 @@
         <v>0.75</v>
       </c>
       <c r="AP107">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
         <v>0.67</v>
@@ -23626,7 +23638,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24322,7 +24334,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ113">
         <v>0.43</v>
@@ -24450,7 +24462,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24862,7 +24874,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25068,7 +25080,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25146,10 +25158,10 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR117">
         <v>1.53</v>
@@ -25274,7 +25286,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25352,7 +25364,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
         <v>0.86</v>
@@ -25686,7 +25698,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26382,7 +26394,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ123">
         <v>0.86</v>
@@ -26510,7 +26522,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26716,7 +26728,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27746,7 +27758,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28364,7 +28376,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28570,7 +28582,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28727,6 +28739,830 @@
       </c>
       <c r="BP134">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7465132</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45620.41666666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>79</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>186</v>
+      </c>
+      <c r="P135" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q135">
+        <v>3.25</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>3.1</v>
+      </c>
+      <c r="T135">
+        <v>1.36</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>2.63</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>7</v>
+      </c>
+      <c r="Y135">
+        <v>1.1</v>
+      </c>
+      <c r="Z135">
+        <v>2.7</v>
+      </c>
+      <c r="AA135">
+        <v>3.4</v>
+      </c>
+      <c r="AB135">
+        <v>2.6</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>13</v>
+      </c>
+      <c r="AE135">
+        <v>1.28</v>
+      </c>
+      <c r="AF135">
+        <v>3.75</v>
+      </c>
+      <c r="AG135">
+        <v>1.8</v>
+      </c>
+      <c r="AH135">
+        <v>2</v>
+      </c>
+      <c r="AI135">
+        <v>1.62</v>
+      </c>
+      <c r="AJ135">
+        <v>2.2</v>
+      </c>
+      <c r="AK135">
+        <v>1.55</v>
+      </c>
+      <c r="AL135">
+        <v>1.26</v>
+      </c>
+      <c r="AM135">
+        <v>1.48</v>
+      </c>
+      <c r="AN135">
+        <v>2.29</v>
+      </c>
+      <c r="AO135">
+        <v>2.17</v>
+      </c>
+      <c r="AP135">
+        <v>2.13</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>1.57</v>
+      </c>
+      <c r="AS135">
+        <v>1.44</v>
+      </c>
+      <c r="AT135">
+        <v>3.01</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>8</v>
+      </c>
+      <c r="AW135">
+        <v>1</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>6</v>
+      </c>
+      <c r="AZ135">
+        <v>18</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>8</v>
+      </c>
+      <c r="BC135">
+        <v>8</v>
+      </c>
+      <c r="BD135">
+        <v>1.95</v>
+      </c>
+      <c r="BE135">
+        <v>6.75</v>
+      </c>
+      <c r="BF135">
+        <v>2</v>
+      </c>
+      <c r="BG135">
+        <v>1.27</v>
+      </c>
+      <c r="BH135">
+        <v>3.3</v>
+      </c>
+      <c r="BI135">
+        <v>1.48</v>
+      </c>
+      <c r="BJ135">
+        <v>2.45</v>
+      </c>
+      <c r="BK135">
+        <v>1.77</v>
+      </c>
+      <c r="BL135">
+        <v>1.92</v>
+      </c>
+      <c r="BM135">
+        <v>2.23</v>
+      </c>
+      <c r="BN135">
+        <v>1.57</v>
+      </c>
+      <c r="BO135">
+        <v>2.9</v>
+      </c>
+      <c r="BP135">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7465137</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45620.51041666666</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" t="s">
+        <v>88</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>187</v>
+      </c>
+      <c r="P136" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q136">
+        <v>3.1</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136">
+        <v>1.53</v>
+      </c>
+      <c r="U136">
+        <v>2.38</v>
+      </c>
+      <c r="V136">
+        <v>3.5</v>
+      </c>
+      <c r="W136">
+        <v>1.29</v>
+      </c>
+      <c r="X136">
+        <v>11</v>
+      </c>
+      <c r="Y136">
+        <v>1.05</v>
+      </c>
+      <c r="Z136">
+        <v>2.3</v>
+      </c>
+      <c r="AA136">
+        <v>3.2</v>
+      </c>
+      <c r="AB136">
+        <v>3.3</v>
+      </c>
+      <c r="AC136">
+        <v>1.09</v>
+      </c>
+      <c r="AD136">
+        <v>8</v>
+      </c>
+      <c r="AE136">
+        <v>1.45</v>
+      </c>
+      <c r="AF136">
+        <v>2.8</v>
+      </c>
+      <c r="AG136">
+        <v>2.38</v>
+      </c>
+      <c r="AH136">
+        <v>1.57</v>
+      </c>
+      <c r="AI136">
+        <v>2</v>
+      </c>
+      <c r="AJ136">
+        <v>1.75</v>
+      </c>
+      <c r="AK136">
+        <v>1.35</v>
+      </c>
+      <c r="AL136">
+        <v>1.3</v>
+      </c>
+      <c r="AM136">
+        <v>1.65</v>
+      </c>
+      <c r="AN136">
+        <v>1.5</v>
+      </c>
+      <c r="AO136">
+        <v>1.33</v>
+      </c>
+      <c r="AP136">
+        <v>1.71</v>
+      </c>
+      <c r="AQ136">
+        <v>1.14</v>
+      </c>
+      <c r="AR136">
+        <v>1.38</v>
+      </c>
+      <c r="AS136">
+        <v>1.06</v>
+      </c>
+      <c r="AT136">
+        <v>2.44</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>2</v>
+      </c>
+      <c r="AW136">
+        <v>6</v>
+      </c>
+      <c r="AX136">
+        <v>4</v>
+      </c>
+      <c r="AY136">
+        <v>12</v>
+      </c>
+      <c r="AZ136">
+        <v>10</v>
+      </c>
+      <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>11</v>
+      </c>
+      <c r="BD136">
+        <v>1.75</v>
+      </c>
+      <c r="BE136">
+        <v>6.4</v>
+      </c>
+      <c r="BF136">
+        <v>2.3</v>
+      </c>
+      <c r="BG136">
+        <v>1.34</v>
+      </c>
+      <c r="BH136">
+        <v>2.9</v>
+      </c>
+      <c r="BI136">
+        <v>1.58</v>
+      </c>
+      <c r="BJ136">
+        <v>2.18</v>
+      </c>
+      <c r="BK136">
+        <v>1.96</v>
+      </c>
+      <c r="BL136">
+        <v>1.74</v>
+      </c>
+      <c r="BM136">
+        <v>2.48</v>
+      </c>
+      <c r="BN136">
+        <v>1.47</v>
+      </c>
+      <c r="BO136">
+        <v>3.25</v>
+      </c>
+      <c r="BP136">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7465134</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45620.60416666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>85</v>
+      </c>
+      <c r="H137" t="s">
+        <v>84</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>104</v>
+      </c>
+      <c r="P137" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q137">
+        <v>7</v>
+      </c>
+      <c r="R137">
+        <v>2.3</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>1.36</v>
+      </c>
+      <c r="U137">
+        <v>3</v>
+      </c>
+      <c r="V137">
+        <v>2.63</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>7</v>
+      </c>
+      <c r="Y137">
+        <v>1.1</v>
+      </c>
+      <c r="Z137">
+        <v>7</v>
+      </c>
+      <c r="AA137">
+        <v>4.5</v>
+      </c>
+      <c r="AB137">
+        <v>1.45</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>13</v>
+      </c>
+      <c r="AE137">
+        <v>1.28</v>
+      </c>
+      <c r="AF137">
+        <v>3.75</v>
+      </c>
+      <c r="AG137">
+        <v>1.8</v>
+      </c>
+      <c r="AH137">
+        <v>2</v>
+      </c>
+      <c r="AI137">
+        <v>2</v>
+      </c>
+      <c r="AJ137">
+        <v>1.75</v>
+      </c>
+      <c r="AK137">
+        <v>2.75</v>
+      </c>
+      <c r="AL137">
+        <v>1.17</v>
+      </c>
+      <c r="AM137">
+        <v>1.09</v>
+      </c>
+      <c r="AN137">
+        <v>1.67</v>
+      </c>
+      <c r="AO137">
+        <v>1.8</v>
+      </c>
+      <c r="AP137">
+        <v>1.43</v>
+      </c>
+      <c r="AQ137">
+        <v>2</v>
+      </c>
+      <c r="AR137">
+        <v>1.07</v>
+      </c>
+      <c r="AS137">
+        <v>1.56</v>
+      </c>
+      <c r="AT137">
+        <v>2.63</v>
+      </c>
+      <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AV137">
+        <v>10</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>5</v>
+      </c>
+      <c r="AZ137">
+        <v>17</v>
+      </c>
+      <c r="BA137">
+        <v>2</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>6</v>
+      </c>
+      <c r="BD137">
+        <v>3.95</v>
+      </c>
+      <c r="BE137">
+        <v>7.5</v>
+      </c>
+      <c r="BF137">
+        <v>1.28</v>
+      </c>
+      <c r="BG137">
+        <v>1.37</v>
+      </c>
+      <c r="BH137">
+        <v>2.8</v>
+      </c>
+      <c r="BI137">
+        <v>1.62</v>
+      </c>
+      <c r="BJ137">
+        <v>2.14</v>
+      </c>
+      <c r="BK137">
+        <v>1.98</v>
+      </c>
+      <c r="BL137">
+        <v>1.72</v>
+      </c>
+      <c r="BM137">
+        <v>2.55</v>
+      </c>
+      <c r="BN137">
+        <v>1.44</v>
+      </c>
+      <c r="BO137">
+        <v>3.3</v>
+      </c>
+      <c r="BP137">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7465130</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45620.70833333334</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>70</v>
+      </c>
+      <c r="H138" t="s">
+        <v>76</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>188</v>
+      </c>
+      <c r="P138" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q138">
+        <v>3</v>
+      </c>
+      <c r="R138">
+        <v>1.91</v>
+      </c>
+      <c r="S138">
+        <v>4.33</v>
+      </c>
+      <c r="T138">
+        <v>1.57</v>
+      </c>
+      <c r="U138">
+        <v>2.25</v>
+      </c>
+      <c r="V138">
+        <v>3.75</v>
+      </c>
+      <c r="W138">
+        <v>1.25</v>
+      </c>
+      <c r="X138">
+        <v>13</v>
+      </c>
+      <c r="Y138">
+        <v>1.04</v>
+      </c>
+      <c r="Z138">
+        <v>2.23</v>
+      </c>
+      <c r="AA138">
+        <v>2.99</v>
+      </c>
+      <c r="AB138">
+        <v>3.79</v>
+      </c>
+      <c r="AC138">
+        <v>1.12</v>
+      </c>
+      <c r="AD138">
+        <v>7</v>
+      </c>
+      <c r="AE138">
+        <v>1.52</v>
+      </c>
+      <c r="AF138">
+        <v>2.55</v>
+      </c>
+      <c r="AG138">
+        <v>2.4</v>
+      </c>
+      <c r="AH138">
+        <v>1.51</v>
+      </c>
+      <c r="AI138">
+        <v>2.1</v>
+      </c>
+      <c r="AJ138">
+        <v>1.67</v>
+      </c>
+      <c r="AK138">
+        <v>1.3</v>
+      </c>
+      <c r="AL138">
+        <v>1.33</v>
+      </c>
+      <c r="AM138">
+        <v>1.68</v>
+      </c>
+      <c r="AN138">
+        <v>1.71</v>
+      </c>
+      <c r="AO138">
+        <v>1.83</v>
+      </c>
+      <c r="AP138">
+        <v>1.88</v>
+      </c>
+      <c r="AQ138">
+        <v>1.57</v>
+      </c>
+      <c r="AR138">
+        <v>1.36</v>
+      </c>
+      <c r="AS138">
+        <v>1.07</v>
+      </c>
+      <c r="AT138">
+        <v>2.43</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>2</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>13</v>
+      </c>
+      <c r="AZ138">
+        <v>7</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>8</v>
+      </c>
+      <c r="BD138">
+        <v>1.64</v>
+      </c>
+      <c r="BE138">
+        <v>6.5</v>
+      </c>
+      <c r="BF138">
+        <v>2.5</v>
+      </c>
+      <c r="BG138">
+        <v>1.34</v>
+      </c>
+      <c r="BH138">
+        <v>2.9</v>
+      </c>
+      <c r="BI138">
+        <v>1.58</v>
+      </c>
+      <c r="BJ138">
+        <v>2.18</v>
+      </c>
+      <c r="BK138">
+        <v>1.95</v>
+      </c>
+      <c r="BL138">
+        <v>1.75</v>
+      </c>
+      <c r="BM138">
+        <v>2.48</v>
+      </c>
+      <c r="BN138">
+        <v>1.47</v>
+      </c>
+      <c r="BO138">
+        <v>3.2</v>
+      </c>
+      <c r="BP138">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -27519,7 +27519,7 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45617.875</v>
+        <v>45618.70833333334</v>
       </c>
       <c r="F129">
         <v>14</v>
@@ -27645,22 +27645,22 @@
         <v>2.13</v>
       </c>
       <c r="AU129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV129">
         <v>4</v>
       </c>
       <c r="AW129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY129">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA129">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,18 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['45+3', '81']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['40', '53', '87']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -718,9 +730,6 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['43', '53', '84']</t>
   </si>
   <si>
@@ -754,9 +763,6 @@
     <t>['13', '82']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['14', '66']</t>
   </si>
   <si>
@@ -770,6 +776,18 @@
   </si>
   <si>
     <t>['43', '66', '85']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['49', '67']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['26', '35', '37', '52', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1408,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1596,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1802,7 +1820,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2008,7 +2026,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2214,7 +2232,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2295,7 +2313,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2420,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2626,7 +2644,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2832,7 +2850,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2910,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3116,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10">
         <v>0.14</v>
@@ -3244,7 +3262,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3325,7 +3343,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3450,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3531,7 +3549,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR12">
         <v>1.07</v>
@@ -3656,7 +3674,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4146,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4352,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16">
         <v>1.57</v>
@@ -4892,7 +4910,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4973,7 +4991,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5176,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ20">
         <v>0.86</v>
@@ -5510,7 +5528,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5591,7 +5609,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -5794,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.86</v>
@@ -5922,7 +5940,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6209,7 +6227,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR25">
         <v>0.96</v>
@@ -6412,10 +6430,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6746,7 +6764,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7158,7 +7176,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7442,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0.43</v>
@@ -7651,7 +7669,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -7854,7 +7872,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33">
         <v>1.14</v>
@@ -7982,7 +8000,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8188,7 +8206,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8472,10 +8490,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>0.71</v>
@@ -8600,7 +8618,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8681,7 +8699,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8806,7 +8824,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9505,7 +9523,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -9630,7 +9648,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9708,7 +9726,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9836,7 +9854,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9914,7 +9932,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
         <v>0.38</v>
@@ -10248,7 +10266,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10660,7 +10678,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10866,7 +10884,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11153,7 +11171,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ49">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR49">
         <v>1.74</v>
@@ -11562,7 +11580,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.57</v>
@@ -11690,7 +11708,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11896,7 +11914,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12180,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>0.86</v>
@@ -12386,7 +12404,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55">
         <v>1.57</v>
@@ -12514,7 +12532,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12595,7 +12613,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -12926,7 +12944,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13213,7 +13231,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR59">
         <v>1.14</v>
@@ -13338,7 +13356,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13419,7 +13437,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13544,7 +13562,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13831,7 +13849,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13956,7 +13974,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14368,7 +14386,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14574,7 +14592,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15064,7 +15082,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ68">
         <v>0.33</v>
@@ -15192,7 +15210,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15270,7 +15288,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69">
         <v>2</v>
@@ -15398,7 +15416,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15685,7 +15703,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR71">
         <v>1.29</v>
@@ -15810,7 +15828,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15888,7 +15906,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72">
         <v>1.71</v>
@@ -16303,7 +16321,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>1.48</v>
@@ -16509,7 +16527,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR75">
         <v>1.11</v>
@@ -16634,7 +16652,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17046,7 +17064,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17458,7 +17476,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17664,7 +17682,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17745,7 +17763,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17951,7 +17969,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ82">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18154,7 +18172,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ83">
         <v>1.71</v>
@@ -18569,7 +18587,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR85">
         <v>1.24</v>
@@ -18694,7 +18712,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18772,7 +18790,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ86">
         <v>1.14</v>
@@ -19106,7 +19124,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19312,7 +19330,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19390,7 +19408,7 @@
         <v>2.4</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ89">
         <v>2.11</v>
@@ -19724,7 +19742,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19805,7 +19823,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -19930,7 +19948,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20008,7 +20026,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92">
         <v>0.43</v>
@@ -20342,7 +20360,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20754,7 +20772,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21038,7 +21056,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.14</v>
@@ -21166,7 +21184,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21247,7 +21265,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ98">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR98">
         <v>1.58</v>
@@ -21372,7 +21390,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21578,7 +21596,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21656,7 +21674,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ100">
         <v>0.86</v>
@@ -21784,7 +21802,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21865,7 +21883,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR101">
         <v>1.21</v>
@@ -21990,7 +22008,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22068,7 +22086,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
         <v>0.86</v>
@@ -22196,7 +22214,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22274,7 +22292,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ103">
         <v>2</v>
@@ -22814,7 +22832,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23101,7 +23119,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR107">
         <v>1.1</v>
@@ -23307,7 +23325,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -23513,7 +23531,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR109">
         <v>1.79</v>
@@ -23638,7 +23656,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23922,7 +23940,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>1.33</v>
@@ -24128,7 +24146,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ112">
         <v>1.71</v>
@@ -24462,7 +24480,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24543,7 +24561,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ114">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
         <v>1.33</v>
@@ -24749,7 +24767,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ115">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.58</v>
@@ -24874,7 +24892,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -24952,7 +24970,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116">
         <v>0.14</v>
@@ -25080,7 +25098,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25286,7 +25304,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25698,7 +25716,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25779,7 +25797,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -26522,7 +26540,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26603,7 +26621,7 @@
         <v>2</v>
       </c>
       <c r="AQ124">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR124">
         <v>1.82</v>
@@ -26728,7 +26746,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26806,10 +26824,10 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR125">
         <v>1.29</v>
@@ -27012,7 +27030,7 @@
         <v>1.4</v>
       </c>
       <c r="AP126">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ126">
         <v>1.33</v>
@@ -27758,7 +27776,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28376,7 +28394,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28582,7 +28600,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28788,7 +28806,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29200,7 +29218,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29563,6 +29581,1036 @@
       </c>
       <c r="BP138">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7465140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45625.70833333334</v>
+      </c>
+      <c r="F139">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>189</v>
+      </c>
+      <c r="P139" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q139">
+        <v>2.88</v>
+      </c>
+      <c r="R139">
+        <v>1.83</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>1.62</v>
+      </c>
+      <c r="U139">
+        <v>2.2</v>
+      </c>
+      <c r="V139">
+        <v>4</v>
+      </c>
+      <c r="W139">
+        <v>1.22</v>
+      </c>
+      <c r="X139">
+        <v>13</v>
+      </c>
+      <c r="Y139">
+        <v>1.04</v>
+      </c>
+      <c r="Z139">
+        <v>2.05</v>
+      </c>
+      <c r="AA139">
+        <v>2.97</v>
+      </c>
+      <c r="AB139">
+        <v>4.53</v>
+      </c>
+      <c r="AC139">
+        <v>1.13</v>
+      </c>
+      <c r="AD139">
+        <v>6</v>
+      </c>
+      <c r="AE139">
+        <v>1.57</v>
+      </c>
+      <c r="AF139">
+        <v>2.25</v>
+      </c>
+      <c r="AG139">
+        <v>2.75</v>
+      </c>
+      <c r="AH139">
+        <v>1.44</v>
+      </c>
+      <c r="AI139">
+        <v>2.38</v>
+      </c>
+      <c r="AJ139">
+        <v>1.53</v>
+      </c>
+      <c r="AK139">
+        <v>1.22</v>
+      </c>
+      <c r="AL139">
+        <v>1.33</v>
+      </c>
+      <c r="AM139">
+        <v>1.8</v>
+      </c>
+      <c r="AN139">
+        <v>1.29</v>
+      </c>
+      <c r="AO139">
+        <v>0.33</v>
+      </c>
+      <c r="AP139">
+        <v>1.5</v>
+      </c>
+      <c r="AQ139">
+        <v>0.29</v>
+      </c>
+      <c r="AR139">
+        <v>1.33</v>
+      </c>
+      <c r="AS139">
+        <v>0.82</v>
+      </c>
+      <c r="AT139">
+        <v>2.15</v>
+      </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>4</v>
+      </c>
+      <c r="AX139">
+        <v>6</v>
+      </c>
+      <c r="AY139">
+        <v>10</v>
+      </c>
+      <c r="AZ139">
+        <v>8</v>
+      </c>
+      <c r="BA139">
+        <v>3</v>
+      </c>
+      <c r="BB139">
+        <v>6</v>
+      </c>
+      <c r="BC139">
+        <v>9</v>
+      </c>
+      <c r="BD139">
+        <v>1.53</v>
+      </c>
+      <c r="BE139">
+        <v>6.5</v>
+      </c>
+      <c r="BF139">
+        <v>2.8</v>
+      </c>
+      <c r="BG139">
+        <v>1.43</v>
+      </c>
+      <c r="BH139">
+        <v>2.55</v>
+      </c>
+      <c r="BI139">
+        <v>1.72</v>
+      </c>
+      <c r="BJ139">
+        <v>1.98</v>
+      </c>
+      <c r="BK139">
+        <v>2.17</v>
+      </c>
+      <c r="BL139">
+        <v>1.6</v>
+      </c>
+      <c r="BM139">
+        <v>2.8</v>
+      </c>
+      <c r="BN139">
+        <v>1.37</v>
+      </c>
+      <c r="BO139">
+        <v>3.8</v>
+      </c>
+      <c r="BP139">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7465139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45626.41666666666</v>
+      </c>
+      <c r="F140">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>81</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>190</v>
+      </c>
+      <c r="P140" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q140">
+        <v>1.5</v>
+      </c>
+      <c r="R140">
+        <v>3.25</v>
+      </c>
+      <c r="S140">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>1.17</v>
+      </c>
+      <c r="U140">
+        <v>5</v>
+      </c>
+      <c r="V140">
+        <v>1.73</v>
+      </c>
+      <c r="W140">
+        <v>2</v>
+      </c>
+      <c r="X140">
+        <v>3.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.29</v>
+      </c>
+      <c r="Z140">
+        <v>1.17</v>
+      </c>
+      <c r="AA140">
+        <v>8</v>
+      </c>
+      <c r="AB140">
+        <v>12</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>29</v>
+      </c>
+      <c r="AE140">
+        <v>1.07</v>
+      </c>
+      <c r="AF140">
+        <v>9</v>
+      </c>
+      <c r="AG140">
+        <v>1.25</v>
+      </c>
+      <c r="AH140">
+        <v>4</v>
+      </c>
+      <c r="AI140">
+        <v>1.7</v>
+      </c>
+      <c r="AJ140">
+        <v>2.05</v>
+      </c>
+      <c r="AK140">
+        <v>1.03</v>
+      </c>
+      <c r="AL140">
+        <v>1.05</v>
+      </c>
+      <c r="AM140">
+        <v>5</v>
+      </c>
+      <c r="AN140">
+        <v>3</v>
+      </c>
+      <c r="AO140">
+        <v>0.86</v>
+      </c>
+      <c r="AP140">
+        <v>2.5</v>
+      </c>
+      <c r="AQ140">
+        <v>1.13</v>
+      </c>
+      <c r="AR140">
+        <v>1.85</v>
+      </c>
+      <c r="AS140">
+        <v>1.13</v>
+      </c>
+      <c r="AT140">
+        <v>2.98</v>
+      </c>
+      <c r="AU140">
+        <v>9</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>1</v>
+      </c>
+      <c r="AY140">
+        <v>28</v>
+      </c>
+      <c r="AZ140">
+        <v>6</v>
+      </c>
+      <c r="BA140">
+        <v>7</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>7</v>
+      </c>
+      <c r="BD140">
+        <v>1.17</v>
+      </c>
+      <c r="BE140">
+        <v>9</v>
+      </c>
+      <c r="BF140">
+        <v>5.3</v>
+      </c>
+      <c r="BG140">
+        <v>1.23</v>
+      </c>
+      <c r="BH140">
+        <v>3.65</v>
+      </c>
+      <c r="BI140">
+        <v>1.41</v>
+      </c>
+      <c r="BJ140">
+        <v>2.65</v>
+      </c>
+      <c r="BK140">
+        <v>1.66</v>
+      </c>
+      <c r="BL140">
+        <v>2.07</v>
+      </c>
+      <c r="BM140">
+        <v>2</v>
+      </c>
+      <c r="BN140">
+        <v>1.71</v>
+      </c>
+      <c r="BO140">
+        <v>2.5</v>
+      </c>
+      <c r="BP140">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7465141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45626.51041666666</v>
+      </c>
+      <c r="F141">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>86</v>
+      </c>
+      <c r="H141" t="s">
+        <v>85</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>191</v>
+      </c>
+      <c r="P141" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q141">
+        <v>2.5</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>5.5</v>
+      </c>
+      <c r="T141">
+        <v>1.57</v>
+      </c>
+      <c r="U141">
+        <v>2.25</v>
+      </c>
+      <c r="V141">
+        <v>3.75</v>
+      </c>
+      <c r="W141">
+        <v>1.25</v>
+      </c>
+      <c r="X141">
+        <v>11</v>
+      </c>
+      <c r="Y141">
+        <v>1.05</v>
+      </c>
+      <c r="Z141">
+        <v>1.8</v>
+      </c>
+      <c r="AA141">
+        <v>3.4</v>
+      </c>
+      <c r="AB141">
+        <v>4.75</v>
+      </c>
+      <c r="AC141">
+        <v>1.12</v>
+      </c>
+      <c r="AD141">
+        <v>7</v>
+      </c>
+      <c r="AE141">
+        <v>1.53</v>
+      </c>
+      <c r="AF141">
+        <v>2.5</v>
+      </c>
+      <c r="AG141">
+        <v>2.63</v>
+      </c>
+      <c r="AH141">
+        <v>1.5</v>
+      </c>
+      <c r="AI141">
+        <v>2.25</v>
+      </c>
+      <c r="AJ141">
+        <v>1.57</v>
+      </c>
+      <c r="AK141">
+        <v>1.17</v>
+      </c>
+      <c r="AL141">
+        <v>1.3</v>
+      </c>
+      <c r="AM141">
+        <v>2</v>
+      </c>
+      <c r="AN141">
+        <v>1.67</v>
+      </c>
+      <c r="AO141">
+        <v>0.57</v>
+      </c>
+      <c r="AP141">
+        <v>1.57</v>
+      </c>
+      <c r="AQ141">
+        <v>0.63</v>
+      </c>
+      <c r="AR141">
+        <v>1.08</v>
+      </c>
+      <c r="AS141">
+        <v>0.84</v>
+      </c>
+      <c r="AT141">
+        <v>1.92</v>
+      </c>
+      <c r="AU141">
+        <v>8</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>19</v>
+      </c>
+      <c r="AZ141">
+        <v>7</v>
+      </c>
+      <c r="BA141">
+        <v>13</v>
+      </c>
+      <c r="BB141">
+        <v>8</v>
+      </c>
+      <c r="BC141">
+        <v>21</v>
+      </c>
+      <c r="BD141">
+        <v>1.53</v>
+      </c>
+      <c r="BE141">
+        <v>6.4</v>
+      </c>
+      <c r="BF141">
+        <v>2.8</v>
+      </c>
+      <c r="BG141">
+        <v>1.48</v>
+      </c>
+      <c r="BH141">
+        <v>2.43</v>
+      </c>
+      <c r="BI141">
+        <v>1.82</v>
+      </c>
+      <c r="BJ141">
+        <v>1.86</v>
+      </c>
+      <c r="BK141">
+        <v>2.32</v>
+      </c>
+      <c r="BL141">
+        <v>1.53</v>
+      </c>
+      <c r="BM141">
+        <v>3.05</v>
+      </c>
+      <c r="BN141">
+        <v>1.32</v>
+      </c>
+      <c r="BO141">
+        <v>4.1</v>
+      </c>
+      <c r="BP141">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7469582</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45626.60416666666</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>82</v>
+      </c>
+      <c r="H142" t="s">
+        <v>72</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>192</v>
+      </c>
+      <c r="P142" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q142">
+        <v>3.75</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>2.88</v>
+      </c>
+      <c r="T142">
+        <v>1.4</v>
+      </c>
+      <c r="U142">
+        <v>2.75</v>
+      </c>
+      <c r="V142">
+        <v>3</v>
+      </c>
+      <c r="W142">
+        <v>1.36</v>
+      </c>
+      <c r="X142">
+        <v>8</v>
+      </c>
+      <c r="Y142">
+        <v>1.08</v>
+      </c>
+      <c r="Z142">
+        <v>3.2</v>
+      </c>
+      <c r="AA142">
+        <v>3.4</v>
+      </c>
+      <c r="AB142">
+        <v>2.2</v>
+      </c>
+      <c r="AC142">
+        <v>1.06</v>
+      </c>
+      <c r="AD142">
+        <v>11</v>
+      </c>
+      <c r="AE142">
+        <v>1.32</v>
+      </c>
+      <c r="AF142">
+        <v>3.4</v>
+      </c>
+      <c r="AG142">
+        <v>2</v>
+      </c>
+      <c r="AH142">
+        <v>1.8</v>
+      </c>
+      <c r="AI142">
+        <v>1.75</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
+        <v>1.68</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.35</v>
+      </c>
+      <c r="AN142">
+        <v>1.5</v>
+      </c>
+      <c r="AO142">
+        <v>0.67</v>
+      </c>
+      <c r="AP142">
+        <v>1.71</v>
+      </c>
+      <c r="AQ142">
+        <v>0.57</v>
+      </c>
+      <c r="AR142">
+        <v>1.12</v>
+      </c>
+      <c r="AS142">
+        <v>1.25</v>
+      </c>
+      <c r="AT142">
+        <v>2.37</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>3</v>
+      </c>
+      <c r="AX142">
+        <v>8</v>
+      </c>
+      <c r="AY142">
+        <v>10</v>
+      </c>
+      <c r="AZ142">
+        <v>17</v>
+      </c>
+      <c r="BA142">
+        <v>2</v>
+      </c>
+      <c r="BB142">
+        <v>5</v>
+      </c>
+      <c r="BC142">
+        <v>7</v>
+      </c>
+      <c r="BD142">
+        <v>2</v>
+      </c>
+      <c r="BE142">
+        <v>6.4</v>
+      </c>
+      <c r="BF142">
+        <v>1.98</v>
+      </c>
+      <c r="BG142">
+        <v>1.37</v>
+      </c>
+      <c r="BH142">
+        <v>2.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.62</v>
+      </c>
+      <c r="BJ142">
+        <v>2.12</v>
+      </c>
+      <c r="BK142">
+        <v>2</v>
+      </c>
+      <c r="BL142">
+        <v>1.71</v>
+      </c>
+      <c r="BM142">
+        <v>2.55</v>
+      </c>
+      <c r="BN142">
+        <v>1.43</v>
+      </c>
+      <c r="BO142">
+        <v>3.4</v>
+      </c>
+      <c r="BP142">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7465143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s">
+        <v>87</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>104</v>
+      </c>
+      <c r="P143" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q143">
+        <v>6</v>
+      </c>
+      <c r="R143">
+        <v>2.2</v>
+      </c>
+      <c r="S143">
+        <v>2.2</v>
+      </c>
+      <c r="T143">
+        <v>1.44</v>
+      </c>
+      <c r="U143">
+        <v>2.63</v>
+      </c>
+      <c r="V143">
+        <v>3.25</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>9</v>
+      </c>
+      <c r="Y143">
+        <v>1.07</v>
+      </c>
+      <c r="Z143">
+        <v>5.75</v>
+      </c>
+      <c r="AA143">
+        <v>3.8</v>
+      </c>
+      <c r="AB143">
+        <v>1.6</v>
+      </c>
+      <c r="AC143">
+        <v>1.06</v>
+      </c>
+      <c r="AD143">
+        <v>10</v>
+      </c>
+      <c r="AE143">
+        <v>1.36</v>
+      </c>
+      <c r="AF143">
+        <v>3.2</v>
+      </c>
+      <c r="AG143">
+        <v>2.1</v>
+      </c>
+      <c r="AH143">
+        <v>1.73</v>
+      </c>
+      <c r="AI143">
+        <v>2.05</v>
+      </c>
+      <c r="AJ143">
+        <v>1.7</v>
+      </c>
+      <c r="AK143">
+        <v>2.4</v>
+      </c>
+      <c r="AL143">
+        <v>1.22</v>
+      </c>
+      <c r="AM143">
+        <v>1.13</v>
+      </c>
+      <c r="AN143">
+        <v>0.86</v>
+      </c>
+      <c r="AO143">
+        <v>1.71</v>
+      </c>
+      <c r="AP143">
+        <v>0.75</v>
+      </c>
+      <c r="AQ143">
+        <v>1.88</v>
+      </c>
+      <c r="AR143">
+        <v>1.13</v>
+      </c>
+      <c r="AS143">
+        <v>0.98</v>
+      </c>
+      <c r="AT143">
+        <v>2.11</v>
+      </c>
+      <c r="AU143">
+        <v>2</v>
+      </c>
+      <c r="AV143">
+        <v>10</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
+      <c r="AY143">
+        <v>10</v>
+      </c>
+      <c r="AZ143">
+        <v>14</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>5</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>2.8</v>
+      </c>
+      <c r="BE143">
+        <v>6.75</v>
+      </c>
+      <c r="BF143">
+        <v>1.5</v>
+      </c>
+      <c r="BG143">
+        <v>1.28</v>
+      </c>
+      <c r="BH143">
+        <v>3.2</v>
+      </c>
+      <c r="BI143">
+        <v>1.49</v>
+      </c>
+      <c r="BJ143">
+        <v>2.4</v>
+      </c>
+      <c r="BK143">
+        <v>1.8</v>
+      </c>
+      <c r="BL143">
+        <v>1.89</v>
+      </c>
+      <c r="BM143">
+        <v>2.25</v>
+      </c>
+      <c r="BN143">
+        <v>1.55</v>
+      </c>
+      <c r="BO143">
+        <v>2.9</v>
+      </c>
+      <c r="BP143">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,18 @@
     <t>['40', '53', '87']</t>
   </si>
   <si>
+    <t>['23', '46']</t>
+  </si>
+  <si>
+    <t>['30', '38']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['14', '31']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -620,9 +632,6 @@
   </si>
   <si>
     <t>['20', '45+5']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['2', '90+5']</t>
@@ -788,6 +797,12 @@
   </si>
   <si>
     <t>['26', '35', '37', '52', '90+2']</t>
+  </si>
+  <si>
+    <t>['66', '90+7']</t>
+  </si>
+  <si>
+    <t>['65', '78']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1489,7 +1504,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1614,7 +1629,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1695,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1820,7 +1835,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2026,7 +2041,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2232,7 +2247,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2438,7 +2453,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2644,7 +2659,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2722,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1.14</v>
@@ -2850,7 +2865,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3262,7 +3277,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3340,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
         <v>1.88</v>
@@ -3468,7 +3483,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3674,7 +3689,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4167,7 +4182,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4782,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ18">
         <v>0.43</v>
@@ -4910,7 +4925,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5197,7 +5212,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ20">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5403,7 +5418,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ21">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5528,7 +5543,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5606,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>0.57</v>
@@ -5940,7 +5955,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6018,7 +6033,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
         <v>2.11</v>
@@ -6764,7 +6779,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6842,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>0.38</v>
@@ -7176,7 +7191,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -8000,7 +8015,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8206,7 +8221,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8618,7 +8633,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8824,7 +8839,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8905,7 +8920,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9314,10 +9329,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -9648,7 +9663,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9854,7 +9869,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10141,7 +10156,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10266,7 +10281,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10344,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10678,7 +10693,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10884,7 +10899,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10965,7 +10980,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11374,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -11708,7 +11723,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11789,7 +11804,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11914,7 +11929,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11995,7 +12010,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12532,7 +12547,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12819,7 +12834,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR57">
         <v>1.38</v>
@@ -12944,7 +12959,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13022,7 +13037,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ58">
         <v>0.14</v>
@@ -13356,7 +13371,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13562,7 +13577,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13640,7 +13655,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ61">
         <v>2.11</v>
@@ -13846,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62">
         <v>1.88</v>
@@ -13974,7 +13989,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14386,7 +14401,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14592,7 +14607,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14670,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ66">
         <v>0.38</v>
@@ -15085,7 +15100,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ68">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR68">
         <v>1.97</v>
@@ -15210,7 +15225,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15416,7 +15431,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15497,7 +15512,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ70">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -15828,7 +15843,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16318,7 +16333,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>0.63</v>
@@ -16524,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
         <v>0.29</v>
@@ -16652,7 +16667,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16939,7 +16954,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -17064,7 +17079,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17476,7 +17491,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17682,7 +17697,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17760,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
         <v>1.13</v>
@@ -18712,7 +18727,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18996,7 +19011,7 @@
         <v>2.5</v>
       </c>
       <c r="AP87">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ87">
         <v>2</v>
@@ -19124,7 +19139,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19205,7 +19220,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19330,7 +19345,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19617,7 +19632,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19742,7 +19757,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19820,7 +19835,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ91">
         <v>1.88</v>
@@ -19948,7 +19963,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20360,7 +20375,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20441,7 +20456,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ94">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -20772,7 +20787,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21184,7 +21199,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21468,10 +21483,10 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR99">
         <v>1.66</v>
@@ -21802,7 +21817,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22008,7 +22023,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22214,7 +22229,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22498,7 +22513,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ104">
         <v>0.38</v>
@@ -22707,7 +22722,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ105">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -22832,7 +22847,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -22910,7 +22925,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ106">
         <v>2.11</v>
@@ -23656,7 +23671,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23734,7 +23749,7 @@
         <v>0.5</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
         <v>0.83</v>
@@ -23943,7 +23958,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24480,7 +24495,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24892,7 +24907,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25098,7 +25113,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25304,7 +25319,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25385,7 +25400,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25591,7 +25606,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ119">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -25716,7 +25731,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25794,7 +25809,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ120">
         <v>1.13</v>
@@ -26000,7 +26015,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ121">
         <v>0.83</v>
@@ -26206,7 +26221,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ122">
         <v>0.38</v>
@@ -26540,7 +26555,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27033,7 +27048,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR126">
         <v>1.18</v>
@@ -27239,7 +27254,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27442,7 +27457,7 @@
         <v>2.57</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
         <v>2.11</v>
@@ -27776,7 +27791,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27857,7 +27872,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ130">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR130">
         <v>1.31</v>
@@ -28394,7 +28409,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28600,7 +28615,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28806,7 +28821,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29218,7 +29233,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29630,7 +29645,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29836,7 +29851,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30012,7 +30027,7 @@
         <v>45626.51041666666</v>
       </c>
       <c r="F141">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>86</v>
@@ -30042,7 +30057,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30454,7 +30469,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30611,6 +30626,830 @@
       </c>
       <c r="BP143">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7465146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>79</v>
+      </c>
+      <c r="H144" t="s">
+        <v>89</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>193</v>
+      </c>
+      <c r="P144" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q144">
+        <v>2.4</v>
+      </c>
+      <c r="R144">
+        <v>2.3</v>
+      </c>
+      <c r="S144">
+        <v>4.33</v>
+      </c>
+      <c r="T144">
+        <v>1.33</v>
+      </c>
+      <c r="U144">
+        <v>3.25</v>
+      </c>
+      <c r="V144">
+        <v>2.63</v>
+      </c>
+      <c r="W144">
+        <v>1.44</v>
+      </c>
+      <c r="X144">
+        <v>6.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>1.86</v>
+      </c>
+      <c r="AA144">
+        <v>3.81</v>
+      </c>
+      <c r="AB144">
+        <v>4.03</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>15</v>
+      </c>
+      <c r="AE144">
+        <v>1.22</v>
+      </c>
+      <c r="AF144">
+        <v>4.33</v>
+      </c>
+      <c r="AG144">
+        <v>1.65</v>
+      </c>
+      <c r="AH144">
+        <v>2.1</v>
+      </c>
+      <c r="AI144">
+        <v>1.62</v>
+      </c>
+      <c r="AJ144">
+        <v>2.2</v>
+      </c>
+      <c r="AK144">
+        <v>1.26</v>
+      </c>
+      <c r="AL144">
+        <v>1.22</v>
+      </c>
+      <c r="AM144">
+        <v>1.98</v>
+      </c>
+      <c r="AN144">
+        <v>1.83</v>
+      </c>
+      <c r="AO144">
+        <v>1.14</v>
+      </c>
+      <c r="AP144">
+        <v>1.71</v>
+      </c>
+      <c r="AQ144">
+        <v>1.13</v>
+      </c>
+      <c r="AR144">
+        <v>1.56</v>
+      </c>
+      <c r="AS144">
+        <v>1.05</v>
+      </c>
+      <c r="AT144">
+        <v>2.61</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>7</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>14</v>
+      </c>
+      <c r="AZ144">
+        <v>14</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>6</v>
+      </c>
+      <c r="BD144">
+        <v>1.63</v>
+      </c>
+      <c r="BE144">
+        <v>8.6</v>
+      </c>
+      <c r="BF144">
+        <v>2.8</v>
+      </c>
+      <c r="BG144">
+        <v>1.28</v>
+      </c>
+      <c r="BH144">
+        <v>2.94</v>
+      </c>
+      <c r="BI144">
+        <v>1.56</v>
+      </c>
+      <c r="BJ144">
+        <v>2.16</v>
+      </c>
+      <c r="BK144">
+        <v>2</v>
+      </c>
+      <c r="BL144">
+        <v>1.72</v>
+      </c>
+      <c r="BM144">
+        <v>2.59</v>
+      </c>
+      <c r="BN144">
+        <v>1.39</v>
+      </c>
+      <c r="BO144">
+        <v>3.54</v>
+      </c>
+      <c r="BP144">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7465145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45627.51041666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
+      <c r="H145" t="s">
+        <v>83</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>194</v>
+      </c>
+      <c r="P145" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q145">
+        <v>1.83</v>
+      </c>
+      <c r="R145">
+        <v>2.38</v>
+      </c>
+      <c r="S145">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>1.34</v>
+      </c>
+      <c r="AA145">
+        <v>5</v>
+      </c>
+      <c r="AB145">
+        <v>9.48</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>12</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.6</v>
+      </c>
+      <c r="AG145">
+        <v>1.93</v>
+      </c>
+      <c r="AH145">
+        <v>1.91</v>
+      </c>
+      <c r="AI145">
+        <v>2.38</v>
+      </c>
+      <c r="AJ145">
+        <v>1.53</v>
+      </c>
+      <c r="AK145">
+        <v>1.05</v>
+      </c>
+      <c r="AL145">
+        <v>1.15</v>
+      </c>
+      <c r="AM145">
+        <v>3.2</v>
+      </c>
+      <c r="AN145">
+        <v>2.57</v>
+      </c>
+      <c r="AO145">
+        <v>0.33</v>
+      </c>
+      <c r="AP145">
+        <v>2.63</v>
+      </c>
+      <c r="AQ145">
+        <v>0.29</v>
+      </c>
+      <c r="AR145">
+        <v>1.86</v>
+      </c>
+      <c r="AS145">
+        <v>1.05</v>
+      </c>
+      <c r="AT145">
+        <v>2.91</v>
+      </c>
+      <c r="AU145">
+        <v>5</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>7</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>14</v>
+      </c>
+      <c r="AZ145">
+        <v>9</v>
+      </c>
+      <c r="BA145">
+        <v>5</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>8</v>
+      </c>
+      <c r="BD145">
+        <v>1.28</v>
+      </c>
+      <c r="BE145">
+        <v>10.25</v>
+      </c>
+      <c r="BF145">
+        <v>4.8</v>
+      </c>
+      <c r="BG145">
+        <v>1.3</v>
+      </c>
+      <c r="BH145">
+        <v>2.88</v>
+      </c>
+      <c r="BI145">
+        <v>1.57</v>
+      </c>
+      <c r="BJ145">
+        <v>2.14</v>
+      </c>
+      <c r="BK145">
+        <v>2.02</v>
+      </c>
+      <c r="BL145">
+        <v>1.71</v>
+      </c>
+      <c r="BM145">
+        <v>2.59</v>
+      </c>
+      <c r="BN145">
+        <v>1.39</v>
+      </c>
+      <c r="BO145">
+        <v>3.55</v>
+      </c>
+      <c r="BP145">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7465142</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45627.60416666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>88</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>195</v>
+      </c>
+      <c r="P146" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q146">
+        <v>3.6</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>3.4</v>
+      </c>
+      <c r="T146">
+        <v>1.53</v>
+      </c>
+      <c r="U146">
+        <v>2.38</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.25</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.89</v>
+      </c>
+      <c r="AA146">
+        <v>3.05</v>
+      </c>
+      <c r="AB146">
+        <v>2.69</v>
+      </c>
+      <c r="AC146">
+        <v>1.1</v>
+      </c>
+      <c r="AD146">
+        <v>7.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.47</v>
+      </c>
+      <c r="AF146">
+        <v>2.75</v>
+      </c>
+      <c r="AG146">
+        <v>2.3</v>
+      </c>
+      <c r="AH146">
+        <v>1.55</v>
+      </c>
+      <c r="AI146">
+        <v>2</v>
+      </c>
+      <c r="AJ146">
+        <v>1.75</v>
+      </c>
+      <c r="AK146">
+        <v>1.5</v>
+      </c>
+      <c r="AL146">
+        <v>1.33</v>
+      </c>
+      <c r="AM146">
+        <v>1.44</v>
+      </c>
+      <c r="AN146">
+        <v>1.33</v>
+      </c>
+      <c r="AO146">
+        <v>1.33</v>
+      </c>
+      <c r="AP146">
+        <v>1.14</v>
+      </c>
+      <c r="AQ146">
+        <v>1.57</v>
+      </c>
+      <c r="AR146">
+        <v>1.72</v>
+      </c>
+      <c r="AS146">
+        <v>1.28</v>
+      </c>
+      <c r="AT146">
+        <v>3</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>8</v>
+      </c>
+      <c r="AW146">
+        <v>3</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>13</v>
+      </c>
+      <c r="BA146">
+        <v>1</v>
+      </c>
+      <c r="BB146">
+        <v>7</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>2.01</v>
+      </c>
+      <c r="BE146">
+        <v>6.5</v>
+      </c>
+      <c r="BF146">
+        <v>2.29</v>
+      </c>
+      <c r="BG146">
+        <v>1.21</v>
+      </c>
+      <c r="BH146">
+        <v>3.44</v>
+      </c>
+      <c r="BI146">
+        <v>1.42</v>
+      </c>
+      <c r="BJ146">
+        <v>2.49</v>
+      </c>
+      <c r="BK146">
+        <v>1.78</v>
+      </c>
+      <c r="BL146">
+        <v>1.93</v>
+      </c>
+      <c r="BM146">
+        <v>2.24</v>
+      </c>
+      <c r="BN146">
+        <v>1.52</v>
+      </c>
+      <c r="BO146">
+        <v>2.94</v>
+      </c>
+      <c r="BP146">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7465144</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45627.70833333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>76</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>196</v>
+      </c>
+      <c r="P147" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q147">
+        <v>2.5</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>5.5</v>
+      </c>
+      <c r="T147">
+        <v>1.5</v>
+      </c>
+      <c r="U147">
+        <v>2.5</v>
+      </c>
+      <c r="V147">
+        <v>3.4</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>10</v>
+      </c>
+      <c r="Y147">
+        <v>1.06</v>
+      </c>
+      <c r="Z147">
+        <v>1.77</v>
+      </c>
+      <c r="AA147">
+        <v>3.6</v>
+      </c>
+      <c r="AB147">
+        <v>4.83</v>
+      </c>
+      <c r="AC147">
+        <v>1.07</v>
+      </c>
+      <c r="AD147">
+        <v>9</v>
+      </c>
+      <c r="AE147">
+        <v>1.42</v>
+      </c>
+      <c r="AF147">
+        <v>2.88</v>
+      </c>
+      <c r="AG147">
+        <v>2.2</v>
+      </c>
+      <c r="AH147">
+        <v>1.6</v>
+      </c>
+      <c r="AI147">
+        <v>2.1</v>
+      </c>
+      <c r="AJ147">
+        <v>1.67</v>
+      </c>
+      <c r="AK147">
+        <v>1.19</v>
+      </c>
+      <c r="AL147">
+        <v>1.25</v>
+      </c>
+      <c r="AM147">
+        <v>2.1</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
+        <v>0.86</v>
+      </c>
+      <c r="AP147">
+        <v>1.25</v>
+      </c>
+      <c r="AQ147">
+        <v>0.75</v>
+      </c>
+      <c r="AR147">
+        <v>1.56</v>
+      </c>
+      <c r="AS147">
+        <v>1.26</v>
+      </c>
+      <c r="AT147">
+        <v>2.82</v>
+      </c>
+      <c r="AU147">
+        <v>2</v>
+      </c>
+      <c r="AV147">
+        <v>3</v>
+      </c>
+      <c r="AW147">
+        <v>1</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>3</v>
+      </c>
+      <c r="AZ147">
+        <v>8</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>4</v>
+      </c>
+      <c r="BD147">
+        <v>1.47</v>
+      </c>
+      <c r="BE147">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF147">
+        <v>3.34</v>
+      </c>
+      <c r="BG147">
+        <v>1.22</v>
+      </c>
+      <c r="BH147">
+        <v>3.35</v>
+      </c>
+      <c r="BI147">
+        <v>1.44</v>
+      </c>
+      <c r="BJ147">
+        <v>2.43</v>
+      </c>
+      <c r="BK147">
+        <v>1.82</v>
+      </c>
+      <c r="BL147">
+        <v>1.88</v>
+      </c>
+      <c r="BM147">
+        <v>2.28</v>
+      </c>
+      <c r="BN147">
+        <v>1.5</v>
+      </c>
+      <c r="BO147">
+        <v>3.02</v>
+      </c>
+      <c r="BP147">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,22 +595,22 @@
     <t>['40', '53', '87']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['23', '46']</t>
   </si>
   <si>
     <t>['30', '38']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['14', '31']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['72']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['64']</t>
   </si>
   <si>
     <t>['17']</t>
@@ -799,10 +799,10 @@
     <t>['26', '35', '37', '52', '90+2']</t>
   </si>
   <si>
-    <t>['66', '90+7']</t>
+    <t>['65', '78']</t>
   </si>
   <si>
-    <t>['65', '78']</t>
+    <t>['66', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1629,7 +1629,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -3483,7 +3483,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -7066,7 +7066,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -10153,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ44">
         <v>0.29</v>
@@ -11392,7 +11392,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -14276,7 +14276,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65">
         <v>0.43</v>
@@ -17491,7 +17491,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -18396,7 +18396,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR84">
         <v>1.3</v>
@@ -19629,7 +19629,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -23752,7 +23752,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -25191,7 +25191,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117">
         <v>1.57</v>
@@ -26018,7 +26018,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ121">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR121">
         <v>1.83</v>
@@ -29105,7 +29105,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ136">
         <v>1.14</v>
@@ -30633,7 +30633,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7465146</v>
+        <v>7465142</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30642,16 +30642,16 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45627.41666666666</v>
+        <v>45626.875</v>
       </c>
       <c r="F144">
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H144" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -30663,13 +30663,13 @@
         <v>1</v>
       </c>
       <c r="L144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M144">
         <v>2</v>
       </c>
       <c r="N144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O144" t="s">
         <v>193</v>
@@ -30678,160 +30678,160 @@
         <v>261</v>
       </c>
       <c r="Q144">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>3.4</v>
+      </c>
+      <c r="T144">
+        <v>1.53</v>
+      </c>
+      <c r="U144">
+        <v>2.38</v>
+      </c>
+      <c r="V144">
+        <v>3.75</v>
+      </c>
+      <c r="W144">
+        <v>1.25</v>
+      </c>
+      <c r="X144">
+        <v>11</v>
+      </c>
+      <c r="Y144">
+        <v>1.05</v>
+      </c>
+      <c r="Z144">
+        <v>2.89</v>
+      </c>
+      <c r="AA144">
+        <v>3.05</v>
+      </c>
+      <c r="AB144">
+        <v>2.69</v>
+      </c>
+      <c r="AC144">
+        <v>1.1</v>
+      </c>
+      <c r="AD144">
+        <v>7.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.47</v>
+      </c>
+      <c r="AF144">
+        <v>2.75</v>
+      </c>
+      <c r="AG144">
         <v>2.3</v>
       </c>
-      <c r="S144">
-        <v>4.33</v>
-      </c>
-      <c r="T144">
+      <c r="AH144">
+        <v>1.55</v>
+      </c>
+      <c r="AI144">
+        <v>2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.75</v>
+      </c>
+      <c r="AK144">
+        <v>1.5</v>
+      </c>
+      <c r="AL144">
         <v>1.33</v>
       </c>
-      <c r="U144">
-        <v>3.25</v>
-      </c>
-      <c r="V144">
-        <v>2.63</v>
-      </c>
-      <c r="W144">
+      <c r="AM144">
         <v>1.44</v>
       </c>
-      <c r="X144">
-        <v>6.5</v>
-      </c>
-      <c r="Y144">
-        <v>1.11</v>
-      </c>
-      <c r="Z144">
-        <v>1.86</v>
-      </c>
-      <c r="AA144">
-        <v>3.81</v>
-      </c>
-      <c r="AB144">
-        <v>4.03</v>
-      </c>
-      <c r="AC144">
-        <v>1.03</v>
-      </c>
-      <c r="AD144">
-        <v>15</v>
-      </c>
-      <c r="AE144">
-        <v>1.22</v>
-      </c>
-      <c r="AF144">
-        <v>4.33</v>
-      </c>
-      <c r="AG144">
-        <v>1.65</v>
-      </c>
-      <c r="AH144">
-        <v>2.1</v>
-      </c>
-      <c r="AI144">
-        <v>1.62</v>
-      </c>
-      <c r="AJ144">
-        <v>2.2</v>
-      </c>
-      <c r="AK144">
-        <v>1.26</v>
-      </c>
-      <c r="AL144">
-        <v>1.22</v>
-      </c>
-      <c r="AM144">
-        <v>1.98</v>
-      </c>
       <c r="AN144">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO144">
+        <v>1.33</v>
+      </c>
+      <c r="AP144">
         <v>1.14</v>
       </c>
-      <c r="AP144">
-        <v>1.71</v>
-      </c>
       <c r="AQ144">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AR144">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AS144">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="AT144">
-        <v>2.61</v>
+        <v>3</v>
       </c>
       <c r="AU144">
         <v>5</v>
       </c>
       <c r="AV144">
+        <v>8</v>
+      </c>
+      <c r="AW144">
+        <v>3</v>
+      </c>
+      <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>8</v>
+      </c>
+      <c r="AZ144">
+        <v>13</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
         <v>7</v>
       </c>
-      <c r="AW144">
-        <v>6</v>
-      </c>
-      <c r="AX144">
-        <v>3</v>
-      </c>
-      <c r="AY144">
-        <v>14</v>
-      </c>
-      <c r="AZ144">
-        <v>14</v>
-      </c>
-      <c r="BA144">
-        <v>1</v>
-      </c>
-      <c r="BB144">
-        <v>5</v>
-      </c>
       <c r="BC144">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD144">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="BE144">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="BF144">
-        <v>2.8</v>
+        <v>2.29</v>
       </c>
       <c r="BG144">
+        <v>1.21</v>
+      </c>
+      <c r="BH144">
+        <v>3.44</v>
+      </c>
+      <c r="BI144">
+        <v>1.42</v>
+      </c>
+      <c r="BJ144">
+        <v>2.49</v>
+      </c>
+      <c r="BK144">
+        <v>1.78</v>
+      </c>
+      <c r="BL144">
+        <v>1.93</v>
+      </c>
+      <c r="BM144">
+        <v>2.24</v>
+      </c>
+      <c r="BN144">
+        <v>1.52</v>
+      </c>
+      <c r="BO144">
+        <v>2.94</v>
+      </c>
+      <c r="BP144">
         <v>1.28</v>
-      </c>
-      <c r="BH144">
-        <v>2.94</v>
-      </c>
-      <c r="BI144">
-        <v>1.56</v>
-      </c>
-      <c r="BJ144">
-        <v>2.16</v>
-      </c>
-      <c r="BK144">
-        <v>2</v>
-      </c>
-      <c r="BL144">
-        <v>1.72</v>
-      </c>
-      <c r="BM144">
-        <v>2.59</v>
-      </c>
-      <c r="BN144">
-        <v>1.39</v>
-      </c>
-      <c r="BO144">
-        <v>3.54</v>
-      </c>
-      <c r="BP144">
-        <v>1.2</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30839,7 +30839,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7465145</v>
+        <v>7465146</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30848,139 +30848,139 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45627.51041666666</v>
+        <v>45627.41666666666</v>
       </c>
       <c r="F145">
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L145">
         <v>2</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O145" t="s">
         <v>194</v>
       </c>
       <c r="P145" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="Q145">
+        <v>2.4</v>
+      </c>
+      <c r="R145">
+        <v>2.3</v>
+      </c>
+      <c r="S145">
+        <v>4.33</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.63</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>6.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.11</v>
+      </c>
+      <c r="Z145">
+        <v>1.86</v>
+      </c>
+      <c r="AA145">
+        <v>3.81</v>
+      </c>
+      <c r="AB145">
+        <v>4.03</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>15</v>
+      </c>
+      <c r="AE145">
+        <v>1.22</v>
+      </c>
+      <c r="AF145">
+        <v>4.33</v>
+      </c>
+      <c r="AG145">
+        <v>1.65</v>
+      </c>
+      <c r="AH145">
+        <v>2.1</v>
+      </c>
+      <c r="AI145">
+        <v>1.62</v>
+      </c>
+      <c r="AJ145">
+        <v>2.2</v>
+      </c>
+      <c r="AK145">
+        <v>1.26</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>1.98</v>
+      </c>
+      <c r="AN145">
         <v>1.83</v>
       </c>
-      <c r="R145">
-        <v>2.38</v>
-      </c>
-      <c r="S145">
-        <v>9</v>
-      </c>
-      <c r="T145">
-        <v>1.4</v>
-      </c>
-      <c r="U145">
-        <v>2.75</v>
-      </c>
-      <c r="V145">
-        <v>2.75</v>
-      </c>
-      <c r="W145">
-        <v>1.4</v>
-      </c>
-      <c r="X145">
-        <v>8</v>
-      </c>
-      <c r="Y145">
-        <v>1.08</v>
-      </c>
-      <c r="Z145">
-        <v>1.34</v>
-      </c>
-      <c r="AA145">
-        <v>5</v>
-      </c>
-      <c r="AB145">
-        <v>9.48</v>
-      </c>
-      <c r="AC145">
-        <v>1.05</v>
-      </c>
-      <c r="AD145">
-        <v>12</v>
-      </c>
-      <c r="AE145">
-        <v>1.3</v>
-      </c>
-      <c r="AF145">
-        <v>3.6</v>
-      </c>
-      <c r="AG145">
-        <v>1.93</v>
-      </c>
-      <c r="AH145">
-        <v>1.91</v>
-      </c>
-      <c r="AI145">
-        <v>2.38</v>
-      </c>
-      <c r="AJ145">
-        <v>1.53</v>
-      </c>
-      <c r="AK145">
-        <v>1.05</v>
-      </c>
-      <c r="AL145">
-        <v>1.15</v>
-      </c>
-      <c r="AM145">
-        <v>3.2</v>
-      </c>
-      <c r="AN145">
-        <v>2.57</v>
-      </c>
       <c r="AO145">
-        <v>0.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ145">
-        <v>0.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR145">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="AS145">
         <v>1.05</v>
       </c>
       <c r="AT145">
-        <v>2.91</v>
+        <v>2.61</v>
       </c>
       <c r="AU145">
         <v>5</v>
       </c>
       <c r="AV145">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX145">
         <v>3</v>
@@ -30989,43 +30989,43 @@
         <v>14</v>
       </c>
       <c r="AZ145">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA145">
+        <v>1</v>
+      </c>
+      <c r="BB145">
         <v>5</v>
       </c>
-      <c r="BB145">
-        <v>3</v>
-      </c>
       <c r="BC145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD145">
+        <v>1.63</v>
+      </c>
+      <c r="BE145">
+        <v>8.6</v>
+      </c>
+      <c r="BF145">
+        <v>2.8</v>
+      </c>
+      <c r="BG145">
         <v>1.28</v>
       </c>
-      <c r="BE145">
-        <v>10.25</v>
-      </c>
-      <c r="BF145">
-        <v>4.8</v>
-      </c>
-      <c r="BG145">
-        <v>1.3</v>
-      </c>
       <c r="BH145">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="BI145">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="BJ145">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BK145">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="BL145">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="BM145">
         <v>2.59</v>
@@ -31034,7 +31034,7 @@
         <v>1.39</v>
       </c>
       <c r="BO145">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="BP145">
         <v>1.2</v>
@@ -31045,7 +31045,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7465142</v>
+        <v>7465145</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31054,196 +31054,196 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45627.60416666666</v>
+        <v>45627.51041666666</v>
       </c>
       <c r="F146">
         <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H146" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O146" t="s">
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="Q146">
+        <v>1.83</v>
+      </c>
+      <c r="R146">
+        <v>2.38</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>2.75</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>8</v>
+      </c>
+      <c r="Y146">
+        <v>1.08</v>
+      </c>
+      <c r="Z146">
+        <v>1.34</v>
+      </c>
+      <c r="AA146">
+        <v>5</v>
+      </c>
+      <c r="AB146">
+        <v>9.48</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>12</v>
+      </c>
+      <c r="AE146">
+        <v>1.3</v>
+      </c>
+      <c r="AF146">
         <v>3.6</v>
       </c>
-      <c r="R146">
-        <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>3.4</v>
-      </c>
-      <c r="T146">
+      <c r="AG146">
+        <v>1.93</v>
+      </c>
+      <c r="AH146">
+        <v>1.91</v>
+      </c>
+      <c r="AI146">
+        <v>2.38</v>
+      </c>
+      <c r="AJ146">
         <v>1.53</v>
       </c>
-      <c r="U146">
-        <v>2.38</v>
-      </c>
-      <c r="V146">
-        <v>3.75</v>
-      </c>
-      <c r="W146">
-        <v>1.25</v>
-      </c>
-      <c r="X146">
-        <v>11</v>
-      </c>
-      <c r="Y146">
+      <c r="AK146">
         <v>1.05</v>
       </c>
-      <c r="Z146">
-        <v>2.89</v>
-      </c>
-      <c r="AA146">
-        <v>3.05</v>
-      </c>
-      <c r="AB146">
-        <v>2.69</v>
-      </c>
-      <c r="AC146">
-        <v>1.1</v>
-      </c>
-      <c r="AD146">
-        <v>7.5</v>
-      </c>
-      <c r="AE146">
-        <v>1.47</v>
-      </c>
-      <c r="AF146">
-        <v>2.75</v>
-      </c>
-      <c r="AG146">
-        <v>2.3</v>
-      </c>
-      <c r="AH146">
-        <v>1.55</v>
-      </c>
-      <c r="AI146">
-        <v>2</v>
-      </c>
-      <c r="AJ146">
-        <v>1.75</v>
-      </c>
-      <c r="AK146">
-        <v>1.5</v>
-      </c>
       <c r="AL146">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AM146">
-        <v>1.44</v>
+        <v>3.2</v>
       </c>
       <c r="AN146">
-        <v>1.33</v>
+        <v>2.57</v>
       </c>
       <c r="AO146">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP146">
-        <v>1.14</v>
+        <v>2.63</v>
       </c>
       <c r="AQ146">
-        <v>1.57</v>
+        <v>0.29</v>
       </c>
       <c r="AR146">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="AT146">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="AU146">
         <v>5</v>
       </c>
       <c r="AV146">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW146">
+        <v>7</v>
+      </c>
+      <c r="AX146">
         <v>3</v>
       </c>
-      <c r="AX146">
-        <v>4</v>
-      </c>
       <c r="AY146">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ146">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC146">
         <v>8</v>
       </c>
       <c r="BD146">
-        <v>2.01</v>
+        <v>1.28</v>
       </c>
       <c r="BE146">
-        <v>6.5</v>
+        <v>10.25</v>
       </c>
       <c r="BF146">
-        <v>2.29</v>
+        <v>4.8</v>
       </c>
       <c r="BG146">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="BH146">
-        <v>3.44</v>
+        <v>2.88</v>
       </c>
       <c r="BI146">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="BJ146">
-        <v>2.49</v>
+        <v>2.14</v>
       </c>
       <c r="BK146">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="BL146">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="BM146">
-        <v>2.24</v>
+        <v>2.59</v>
       </c>
       <c r="BN146">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="BO146">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="BP146">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31450,6 +31450,212 @@
       </c>
       <c r="BP147">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7465147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45628.70833333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>74</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>197</v>
+      </c>
+      <c r="P148" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q148">
+        <v>2.88</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>4.33</v>
+      </c>
+      <c r="T148">
+        <v>1.44</v>
+      </c>
+      <c r="U148">
+        <v>2.63</v>
+      </c>
+      <c r="V148">
+        <v>3.25</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>2.14</v>
+      </c>
+      <c r="AA148">
+        <v>3.32</v>
+      </c>
+      <c r="AB148">
+        <v>3.6</v>
+      </c>
+      <c r="AC148">
+        <v>1.07</v>
+      </c>
+      <c r="AD148">
+        <v>9.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.38</v>
+      </c>
+      <c r="AF148">
+        <v>3.1</v>
+      </c>
+      <c r="AG148">
+        <v>2.1</v>
+      </c>
+      <c r="AH148">
+        <v>1.66</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.3</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.75</v>
+      </c>
+      <c r="AN148">
+        <v>1.71</v>
+      </c>
+      <c r="AO148">
+        <v>0.83</v>
+      </c>
+      <c r="AP148">
+        <v>1.63</v>
+      </c>
+      <c r="AQ148">
+        <v>0.86</v>
+      </c>
+      <c r="AR148">
+        <v>1.35</v>
+      </c>
+      <c r="AS148">
+        <v>0.74</v>
+      </c>
+      <c r="AT148">
+        <v>2.09</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>13</v>
+      </c>
+      <c r="AZ148">
+        <v>8</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
+        <v>6</v>
+      </c>
+      <c r="BD148">
+        <v>1.65</v>
+      </c>
+      <c r="BE148">
+        <v>6.75</v>
+      </c>
+      <c r="BF148">
+        <v>2.48</v>
+      </c>
+      <c r="BG148">
+        <v>1.3</v>
+      </c>
+      <c r="BH148">
+        <v>3.05</v>
+      </c>
+      <c r="BI148">
+        <v>1.54</v>
+      </c>
+      <c r="BJ148">
+        <v>2.28</v>
+      </c>
+      <c r="BK148">
+        <v>1.89</v>
+      </c>
+      <c r="BL148">
+        <v>1.8</v>
+      </c>
+      <c r="BM148">
+        <v>2.35</v>
+      </c>
+      <c r="BN148">
+        <v>1.5</v>
+      </c>
+      <c r="BO148">
+        <v>3.05</v>
+      </c>
+      <c r="BP148">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,19 +595,25 @@
     <t>['40', '53', '87']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['23', '46']</t>
   </si>
   <si>
     <t>['30', '38']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['14', '31']</t>
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['53', '80']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -653,9 +659,6 @@
   </si>
   <si>
     <t>['45+4']</t>
-  </si>
-  <si>
-    <t>['43']</t>
   </si>
   <si>
     <t>['29', '90+1']</t>
@@ -799,10 +802,16 @@
     <t>['26', '35', '37', '52', '90+2']</t>
   </si>
   <si>
+    <t>['66', '90+7']</t>
+  </si>
+  <si>
     <t>['65', '78']</t>
   </si>
   <si>
-    <t>['66', '90+7']</t>
+    <t>['12', '56', '74', '79', '84']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1501,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.29</v>
@@ -1835,7 +1844,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2041,7 +2050,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2247,7 +2256,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2453,7 +2462,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2534,7 +2543,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2659,7 +2668,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2865,7 +2874,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2943,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3277,7 +3286,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3483,7 +3492,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3689,7 +3698,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4925,7 +4934,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5543,7 +5552,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5827,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>0.86</v>
@@ -5955,7 +5964,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6036,7 +6045,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6239,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.29</v>
@@ -6779,7 +6788,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7191,7 +7200,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7272,7 +7281,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7681,7 +7690,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.88</v>
@@ -8015,7 +8024,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8221,7 +8230,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8633,7 +8642,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8839,7 +8848,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9663,7 +9672,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9741,7 +9750,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9869,7 +9878,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10281,7 +10290,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10362,7 +10371,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -10693,7 +10702,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10774,7 +10783,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -10899,7 +10908,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11595,7 +11604,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>1.57</v>
@@ -11723,7 +11732,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11929,7 +11938,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12547,7 +12556,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12959,7 +12968,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13371,7 +13380,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13449,7 +13458,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -13577,7 +13586,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13658,7 +13667,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ61">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -13989,7 +13998,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14401,7 +14410,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14607,7 +14616,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15225,7 +15234,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15431,7 +15440,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15843,7 +15852,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16667,7 +16676,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16748,7 +16757,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ76">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -17079,7 +17088,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17157,7 +17166,7 @@
         <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.86</v>
@@ -17491,7 +17500,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17572,7 +17581,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17697,7 +17706,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18727,7 +18736,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19139,7 +19148,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19345,7 +19354,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19426,7 +19435,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ89">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR89">
         <v>1.08</v>
@@ -19757,7 +19766,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19963,7 +19972,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20247,7 +20256,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>0.14</v>
@@ -20375,7 +20384,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20787,7 +20796,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20868,7 +20877,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21071,7 +21080,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
         <v>1.14</v>
@@ -21199,7 +21208,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21817,7 +21826,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22023,7 +22032,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22229,7 +22238,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22847,7 +22856,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -22928,7 +22937,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ106">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR106">
         <v>1.96</v>
@@ -23671,7 +23680,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23955,7 +23964,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
         <v>1.57</v>
@@ -24495,7 +24504,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24907,7 +24916,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25113,7 +25122,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25319,7 +25328,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25397,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>0.75</v>
@@ -25731,7 +25740,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26555,7 +26564,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26839,7 +26848,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ125">
         <v>1.88</v>
@@ -27460,7 +27469,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -27791,7 +27800,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28409,7 +28418,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28615,7 +28624,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28696,7 +28705,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ134">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR134">
         <v>1.32</v>
@@ -28821,7 +28830,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29233,7 +29242,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29314,7 +29323,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ137">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -29517,7 +29526,7 @@
         <v>1.83</v>
       </c>
       <c r="AP138">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>1.57</v>
@@ -29645,7 +29654,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29723,7 +29732,7 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
         <v>0.29</v>
@@ -29851,7 +29860,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30057,7 +30066,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30469,7 +30478,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30633,7 +30642,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7465142</v>
+        <v>7465146</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30642,16 +30651,16 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45626.875</v>
+        <v>45627.41666666666</v>
       </c>
       <c r="F144">
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H144" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -30663,175 +30672,175 @@
         <v>1</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M144">
         <v>2</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O144" t="s">
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q144">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="S144">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="T144">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="U144">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="V144">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W144">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X144">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>1.86</v>
+      </c>
+      <c r="AA144">
+        <v>3.81</v>
+      </c>
+      <c r="AB144">
+        <v>4.03</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>15</v>
+      </c>
+      <c r="AE144">
+        <v>1.22</v>
+      </c>
+      <c r="AF144">
+        <v>4.33</v>
+      </c>
+      <c r="AG144">
+        <v>1.65</v>
+      </c>
+      <c r="AH144">
+        <v>2.1</v>
+      </c>
+      <c r="AI144">
+        <v>1.62</v>
+      </c>
+      <c r="AJ144">
+        <v>2.2</v>
+      </c>
+      <c r="AK144">
+        <v>1.26</v>
+      </c>
+      <c r="AL144">
+        <v>1.22</v>
+      </c>
+      <c r="AM144">
+        <v>1.98</v>
+      </c>
+      <c r="AN144">
+        <v>1.83</v>
+      </c>
+      <c r="AO144">
+        <v>1.14</v>
+      </c>
+      <c r="AP144">
+        <v>1.71</v>
+      </c>
+      <c r="AQ144">
+        <v>1.13</v>
+      </c>
+      <c r="AR144">
+        <v>1.56</v>
+      </c>
+      <c r="AS144">
         <v>1.05</v>
       </c>
-      <c r="Z144">
-        <v>2.89</v>
-      </c>
-      <c r="AA144">
-        <v>3.05</v>
-      </c>
-      <c r="AB144">
-        <v>2.69</v>
-      </c>
-      <c r="AC144">
-        <v>1.1</v>
-      </c>
-      <c r="AD144">
-        <v>7.5</v>
-      </c>
-      <c r="AE144">
-        <v>1.47</v>
-      </c>
-      <c r="AF144">
-        <v>2.75</v>
-      </c>
-      <c r="AG144">
-        <v>2.3</v>
-      </c>
-      <c r="AH144">
-        <v>1.55</v>
-      </c>
-      <c r="AI144">
-        <v>2</v>
-      </c>
-      <c r="AJ144">
-        <v>1.75</v>
-      </c>
-      <c r="AK144">
-        <v>1.5</v>
-      </c>
-      <c r="AL144">
-        <v>1.33</v>
-      </c>
-      <c r="AM144">
-        <v>1.44</v>
-      </c>
-      <c r="AN144">
-        <v>1.33</v>
-      </c>
-      <c r="AO144">
-        <v>1.33</v>
-      </c>
-      <c r="AP144">
-        <v>1.14</v>
-      </c>
-      <c r="AQ144">
-        <v>1.57</v>
-      </c>
-      <c r="AR144">
-        <v>1.72</v>
-      </c>
-      <c r="AS144">
-        <v>1.28</v>
-      </c>
       <c r="AT144">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="AU144">
         <v>5</v>
       </c>
       <c r="AV144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
         <v>3</v>
       </c>
-      <c r="AX144">
-        <v>4</v>
-      </c>
       <c r="AY144">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ144">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA144">
         <v>1</v>
       </c>
       <c r="BB144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC144">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD144">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="BE144">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="BF144">
-        <v>2.29</v>
+        <v>2.8</v>
       </c>
       <c r="BG144">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="BH144">
-        <v>3.44</v>
+        <v>2.94</v>
       </c>
       <c r="BI144">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="BJ144">
-        <v>2.49</v>
+        <v>2.16</v>
       </c>
       <c r="BK144">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="BL144">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="BM144">
-        <v>2.24</v>
+        <v>2.59</v>
       </c>
       <c r="BN144">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="BO144">
-        <v>2.94</v>
+        <v>3.54</v>
       </c>
       <c r="BP144">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30839,7 +30848,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7465146</v>
+        <v>7465145</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30848,139 +30857,139 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45627.41666666666</v>
+        <v>45627.51041666666</v>
       </c>
       <c r="F145">
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H145" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L145">
         <v>2</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O145" t="s">
         <v>194</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="Q145">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="R145">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S145">
-        <v>4.33</v>
+        <v>9</v>
       </c>
       <c r="T145">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U145">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>1.34</v>
+      </c>
+      <c r="AA145">
+        <v>5</v>
+      </c>
+      <c r="AB145">
+        <v>9.48</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>12</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.6</v>
+      </c>
+      <c r="AG145">
+        <v>1.93</v>
+      </c>
+      <c r="AH145">
+        <v>1.91</v>
+      </c>
+      <c r="AI145">
+        <v>2.38</v>
+      </c>
+      <c r="AJ145">
+        <v>1.53</v>
+      </c>
+      <c r="AK145">
+        <v>1.05</v>
+      </c>
+      <c r="AL145">
+        <v>1.15</v>
+      </c>
+      <c r="AM145">
+        <v>3.2</v>
+      </c>
+      <c r="AN145">
+        <v>2.57</v>
+      </c>
+      <c r="AO145">
+        <v>0.33</v>
+      </c>
+      <c r="AP145">
         <v>2.63</v>
       </c>
-      <c r="W145">
-        <v>1.44</v>
-      </c>
-      <c r="X145">
-        <v>6.5</v>
-      </c>
-      <c r="Y145">
-        <v>1.11</v>
-      </c>
-      <c r="Z145">
+      <c r="AQ145">
+        <v>0.29</v>
+      </c>
+      <c r="AR145">
         <v>1.86</v>
-      </c>
-      <c r="AA145">
-        <v>3.81</v>
-      </c>
-      <c r="AB145">
-        <v>4.03</v>
-      </c>
-      <c r="AC145">
-        <v>1.03</v>
-      </c>
-      <c r="AD145">
-        <v>15</v>
-      </c>
-      <c r="AE145">
-        <v>1.22</v>
-      </c>
-      <c r="AF145">
-        <v>4.33</v>
-      </c>
-      <c r="AG145">
-        <v>1.65</v>
-      </c>
-      <c r="AH145">
-        <v>2.1</v>
-      </c>
-      <c r="AI145">
-        <v>1.62</v>
-      </c>
-      <c r="AJ145">
-        <v>2.2</v>
-      </c>
-      <c r="AK145">
-        <v>1.26</v>
-      </c>
-      <c r="AL145">
-        <v>1.22</v>
-      </c>
-      <c r="AM145">
-        <v>1.98</v>
-      </c>
-      <c r="AN145">
-        <v>1.83</v>
-      </c>
-      <c r="AO145">
-        <v>1.14</v>
-      </c>
-      <c r="AP145">
-        <v>1.71</v>
-      </c>
-      <c r="AQ145">
-        <v>1.13</v>
-      </c>
-      <c r="AR145">
-        <v>1.56</v>
       </c>
       <c r="AS145">
         <v>1.05</v>
       </c>
       <c r="AT145">
-        <v>2.61</v>
+        <v>2.91</v>
       </c>
       <c r="AU145">
         <v>5</v>
       </c>
       <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
         <v>7</v>
-      </c>
-      <c r="AW145">
-        <v>6</v>
       </c>
       <c r="AX145">
         <v>3</v>
@@ -30989,43 +30998,43 @@
         <v>14</v>
       </c>
       <c r="AZ145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB145">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC145">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD145">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="BE145">
-        <v>8.6</v>
+        <v>10.25</v>
       </c>
       <c r="BF145">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="BG145">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BH145">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="BI145">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="BJ145">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="BK145">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BL145">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="BM145">
         <v>2.59</v>
@@ -31034,7 +31043,7 @@
         <v>1.39</v>
       </c>
       <c r="BO145">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="BP145">
         <v>1.2</v>
@@ -31045,7 +31054,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7465145</v>
+        <v>7465142</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31054,196 +31063,196 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45627.51041666666</v>
+        <v>45627.60416666666</v>
       </c>
       <c r="F146">
         <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H146" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O146" t="s">
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="Q146">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>3.4</v>
+      </c>
+      <c r="T146">
+        <v>1.53</v>
+      </c>
+      <c r="U146">
         <v>2.38</v>
       </c>
-      <c r="S146">
-        <v>9</v>
-      </c>
-      <c r="T146">
-        <v>1.4</v>
-      </c>
-      <c r="U146">
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.25</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.89</v>
+      </c>
+      <c r="AA146">
+        <v>3.05</v>
+      </c>
+      <c r="AB146">
+        <v>2.69</v>
+      </c>
+      <c r="AC146">
+        <v>1.1</v>
+      </c>
+      <c r="AD146">
+        <v>7.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.47</v>
+      </c>
+      <c r="AF146">
         <v>2.75</v>
       </c>
-      <c r="V146">
-        <v>2.75</v>
-      </c>
-      <c r="W146">
-        <v>1.4</v>
-      </c>
-      <c r="X146">
-        <v>8</v>
-      </c>
-      <c r="Y146">
-        <v>1.08</v>
-      </c>
-      <c r="Z146">
-        <v>1.34</v>
-      </c>
-      <c r="AA146">
-        <v>5</v>
-      </c>
-      <c r="AB146">
-        <v>9.48</v>
-      </c>
-      <c r="AC146">
-        <v>1.05</v>
-      </c>
-      <c r="AD146">
-        <v>12</v>
-      </c>
-      <c r="AE146">
-        <v>1.3</v>
-      </c>
-      <c r="AF146">
-        <v>3.6</v>
-      </c>
       <c r="AG146">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="AH146">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="AI146">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AJ146">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AK146">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AL146">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AM146">
-        <v>3.2</v>
+        <v>1.44</v>
       </c>
       <c r="AN146">
-        <v>2.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>2.63</v>
+        <v>1.14</v>
       </c>
       <c r="AQ146">
-        <v>0.29</v>
+        <v>1.57</v>
       </c>
       <c r="AR146">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="AS146">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="AT146">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="AU146">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV146">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW146">
+        <v>-1</v>
+      </c>
+      <c r="AX146">
+        <v>-1</v>
+      </c>
+      <c r="AY146">
+        <v>-1</v>
+      </c>
+      <c r="AZ146">
+        <v>-1</v>
+      </c>
+      <c r="BA146">
+        <v>1</v>
+      </c>
+      <c r="BB146">
         <v>7</v>
-      </c>
-      <c r="AX146">
-        <v>3</v>
-      </c>
-      <c r="AY146">
-        <v>14</v>
-      </c>
-      <c r="AZ146">
-        <v>9</v>
-      </c>
-      <c r="BA146">
-        <v>5</v>
-      </c>
-      <c r="BB146">
-        <v>3</v>
       </c>
       <c r="BC146">
         <v>8</v>
       </c>
       <c r="BD146">
+        <v>2.01</v>
+      </c>
+      <c r="BE146">
+        <v>6.5</v>
+      </c>
+      <c r="BF146">
+        <v>2.29</v>
+      </c>
+      <c r="BG146">
+        <v>1.21</v>
+      </c>
+      <c r="BH146">
+        <v>3.44</v>
+      </c>
+      <c r="BI146">
+        <v>1.42</v>
+      </c>
+      <c r="BJ146">
+        <v>2.49</v>
+      </c>
+      <c r="BK146">
+        <v>1.78</v>
+      </c>
+      <c r="BL146">
+        <v>1.93</v>
+      </c>
+      <c r="BM146">
+        <v>2.24</v>
+      </c>
+      <c r="BN146">
+        <v>1.52</v>
+      </c>
+      <c r="BO146">
+        <v>2.94</v>
+      </c>
+      <c r="BP146">
         <v>1.28</v>
-      </c>
-      <c r="BE146">
-        <v>10.25</v>
-      </c>
-      <c r="BF146">
-        <v>4.8</v>
-      </c>
-      <c r="BG146">
-        <v>1.3</v>
-      </c>
-      <c r="BH146">
-        <v>2.88</v>
-      </c>
-      <c r="BI146">
-        <v>1.57</v>
-      </c>
-      <c r="BJ146">
-        <v>2.14</v>
-      </c>
-      <c r="BK146">
-        <v>2.02</v>
-      </c>
-      <c r="BL146">
-        <v>1.71</v>
-      </c>
-      <c r="BM146">
-        <v>2.59</v>
-      </c>
-      <c r="BN146">
-        <v>1.39</v>
-      </c>
-      <c r="BO146">
-        <v>3.55</v>
-      </c>
-      <c r="BP146">
-        <v>1.2</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31499,7 +31508,7 @@
         <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31592,22 +31601,22 @@
         <v>2.09</v>
       </c>
       <c r="AU148">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV148">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW148">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX148">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY148">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ148">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA148">
         <v>5</v>
@@ -31655,6 +31664,418 @@
         <v>3.05</v>
       </c>
       <c r="BP148">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7465179</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45629.625</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+      <c r="O149" t="s">
+        <v>198</v>
+      </c>
+      <c r="P149" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q149">
+        <v>5</v>
+      </c>
+      <c r="R149">
+        <v>2.3</v>
+      </c>
+      <c r="S149">
+        <v>2.25</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>5.25</v>
+      </c>
+      <c r="AA149">
+        <v>3.6</v>
+      </c>
+      <c r="AB149">
+        <v>1.7</v>
+      </c>
+      <c r="AC149">
+        <v>1.02</v>
+      </c>
+      <c r="AD149">
+        <v>14.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.19</v>
+      </c>
+      <c r="AF149">
+        <v>3.8</v>
+      </c>
+      <c r="AG149">
+        <v>1.8</v>
+      </c>
+      <c r="AH149">
+        <v>2</v>
+      </c>
+      <c r="AI149">
+        <v>1.75</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>2.25</v>
+      </c>
+      <c r="AL149">
+        <v>1.2</v>
+      </c>
+      <c r="AM149">
+        <v>1.18</v>
+      </c>
+      <c r="AN149">
+        <v>1.5</v>
+      </c>
+      <c r="AO149">
+        <v>2.11</v>
+      </c>
+      <c r="AP149">
+        <v>1.33</v>
+      </c>
+      <c r="AQ149">
+        <v>2.2</v>
+      </c>
+      <c r="AR149">
+        <v>1.29</v>
+      </c>
+      <c r="AS149">
+        <v>1.65</v>
+      </c>
+      <c r="AT149">
+        <v>2.94</v>
+      </c>
+      <c r="AU149">
+        <v>2</v>
+      </c>
+      <c r="AV149">
+        <v>10</v>
+      </c>
+      <c r="AW149">
+        <v>2</v>
+      </c>
+      <c r="AX149">
+        <v>7</v>
+      </c>
+      <c r="AY149">
+        <v>7</v>
+      </c>
+      <c r="AZ149">
+        <v>21</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
+        <v>5</v>
+      </c>
+      <c r="BC149">
+        <v>7</v>
+      </c>
+      <c r="BD149">
+        <v>2.9</v>
+      </c>
+      <c r="BE149">
+        <v>6.75</v>
+      </c>
+      <c r="BF149">
+        <v>1.5</v>
+      </c>
+      <c r="BG149">
+        <v>1.3</v>
+      </c>
+      <c r="BH149">
+        <v>3.05</v>
+      </c>
+      <c r="BI149">
+        <v>1.54</v>
+      </c>
+      <c r="BJ149">
+        <v>2.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.89</v>
+      </c>
+      <c r="BL149">
+        <v>1.8</v>
+      </c>
+      <c r="BM149">
+        <v>2.35</v>
+      </c>
+      <c r="BN149">
+        <v>1.5</v>
+      </c>
+      <c r="BO149">
+        <v>3.05</v>
+      </c>
+      <c r="BP149">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7465174</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45630.70833333334</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>84</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>199</v>
+      </c>
+      <c r="P150" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q150">
+        <v>3.75</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>2.75</v>
+      </c>
+      <c r="T150">
+        <v>1.36</v>
+      </c>
+      <c r="U150">
+        <v>3</v>
+      </c>
+      <c r="V150">
+        <v>2.63</v>
+      </c>
+      <c r="W150">
+        <v>1.44</v>
+      </c>
+      <c r="X150">
+        <v>7</v>
+      </c>
+      <c r="Y150">
+        <v>1.1</v>
+      </c>
+      <c r="Z150">
+        <v>3.4</v>
+      </c>
+      <c r="AA150">
+        <v>3.4</v>
+      </c>
+      <c r="AB150">
+        <v>2.15</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>13</v>
+      </c>
+      <c r="AE150">
+        <v>1.28</v>
+      </c>
+      <c r="AF150">
+        <v>3.75</v>
+      </c>
+      <c r="AG150">
+        <v>1.8</v>
+      </c>
+      <c r="AH150">
+        <v>2</v>
+      </c>
+      <c r="AI150">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.75</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.35</v>
+      </c>
+      <c r="AN150">
+        <v>1.88</v>
+      </c>
+      <c r="AO150">
+        <v>2</v>
+      </c>
+      <c r="AP150">
+        <v>2</v>
+      </c>
+      <c r="AQ150">
+        <v>1.71</v>
+      </c>
+      <c r="AR150">
+        <v>1.35</v>
+      </c>
+      <c r="AS150">
+        <v>1.64</v>
+      </c>
+      <c r="AT150">
+        <v>2.99</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>1</v>
+      </c>
+      <c r="AX150">
+        <v>2</v>
+      </c>
+      <c r="AY150">
+        <v>10</v>
+      </c>
+      <c r="AZ150">
+        <v>11</v>
+      </c>
+      <c r="BA150">
+        <v>5</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>7</v>
+      </c>
+      <c r="BD150">
+        <v>2.23</v>
+      </c>
+      <c r="BE150">
+        <v>6.4</v>
+      </c>
+      <c r="BF150">
+        <v>1.79</v>
+      </c>
+      <c r="BG150">
+        <v>1.3</v>
+      </c>
+      <c r="BH150">
+        <v>3.05</v>
+      </c>
+      <c r="BI150">
+        <v>1.54</v>
+      </c>
+      <c r="BJ150">
+        <v>2.3</v>
+      </c>
+      <c r="BK150">
+        <v>1.88</v>
+      </c>
+      <c r="BL150">
+        <v>1.81</v>
+      </c>
+      <c r="BM150">
+        <v>2.38</v>
+      </c>
+      <c r="BN150">
+        <v>1.5</v>
+      </c>
+      <c r="BO150">
+        <v>3.05</v>
+      </c>
+      <c r="BP150">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,10 +565,10 @@
     <t>['76', '86']</t>
   </si>
   <si>
-    <t>['4', '16', '21', '27']</t>
+    <t>['77', '83']</t>
   </si>
   <si>
-    <t>['77', '83']</t>
+    <t>['4', '16', '21', '27']</t>
   </si>
   <si>
     <t>['84', '86']</t>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>['53', '80']</t>
+  </si>
+  <si>
+    <t>['32', '82']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -1173,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1435,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1844,7 +1847,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1922,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4">
         <v>0.38</v>
@@ -2050,7 +2053,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2256,7 +2259,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2462,7 +2465,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2668,7 +2671,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2874,7 +2877,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3286,7 +3289,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3570,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>0.29</v>
@@ -3698,7 +3701,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3985,7 +3988,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -4934,7 +4937,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5552,7 +5555,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5964,7 +5967,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6788,7 +6791,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7200,7 +7203,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -8024,7 +8027,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8311,7 +8314,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8642,7 +8645,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8848,7 +8851,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9672,7 +9675,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9878,7 +9881,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10290,7 +10293,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10574,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ46">
         <v>0.43</v>
@@ -10702,7 +10705,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10908,7 +10911,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11732,7 +11735,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11938,7 +11941,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12556,7 +12559,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12968,7 +12971,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13380,7 +13383,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13586,7 +13589,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13998,7 +14001,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14079,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14410,7 +14413,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14616,7 +14619,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15234,7 +15237,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15440,7 +15443,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15724,7 +15727,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71">
         <v>1.88</v>
@@ -15852,7 +15855,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15933,7 +15936,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16676,7 +16679,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16960,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -17088,7 +17091,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17500,7 +17503,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17706,7 +17709,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18199,7 +18202,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ83">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.07</v>
@@ -18736,7 +18739,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19148,7 +19151,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19354,7 +19357,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19766,7 +19769,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19972,7 +19975,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20384,7 +20387,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20796,7 +20799,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20874,7 +20877,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
         <v>1.71</v>
@@ -21208,7 +21211,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21826,7 +21829,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22032,7 +22035,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22238,7 +22241,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22856,7 +22859,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23680,7 +23683,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24173,7 +24176,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.08</v>
@@ -24504,7 +24507,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24916,7 +24919,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25122,7 +25125,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25328,7 +25331,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25612,7 +25615,7 @@
         <v>0.4</v>
       </c>
       <c r="AP119">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ119">
         <v>0.29</v>
@@ -25740,7 +25743,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26564,7 +26567,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26934,7 +26937,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7465124</v>
+        <v>7465122</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26949,190 +26952,190 @@
         <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>1</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O126" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P126" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="Q126">
+        <v>3.25</v>
+      </c>
+      <c r="R126">
+        <v>1.91</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126">
+        <v>1.57</v>
+      </c>
+      <c r="U126">
+        <v>2.25</v>
+      </c>
+      <c r="V126">
+        <v>3.75</v>
+      </c>
+      <c r="W126">
+        <v>1.25</v>
+      </c>
+      <c r="X126">
+        <v>13</v>
+      </c>
+      <c r="Y126">
+        <v>1.04</v>
+      </c>
+      <c r="Z126">
+        <v>2.45</v>
+      </c>
+      <c r="AA126">
+        <v>3.2</v>
+      </c>
+      <c r="AB126">
+        <v>3</v>
+      </c>
+      <c r="AC126">
+        <v>1.11</v>
+      </c>
+      <c r="AD126">
+        <v>7</v>
+      </c>
+      <c r="AE126">
+        <v>1.52</v>
+      </c>
+      <c r="AF126">
+        <v>2.49</v>
+      </c>
+      <c r="AG126">
+        <v>2.63</v>
+      </c>
+      <c r="AH126">
+        <v>1.5</v>
+      </c>
+      <c r="AI126">
+        <v>2.1</v>
+      </c>
+      <c r="AJ126">
+        <v>1.67</v>
+      </c>
+      <c r="AK126">
+        <v>1.36</v>
+      </c>
+      <c r="AL126">
+        <v>1.32</v>
+      </c>
+      <c r="AM126">
+        <v>1.58</v>
+      </c>
+      <c r="AN126">
+        <v>1.33</v>
+      </c>
+      <c r="AO126">
+        <v>0.83</v>
+      </c>
+      <c r="AP126">
+        <v>1.38</v>
+      </c>
+      <c r="AQ126">
+        <v>1.13</v>
+      </c>
+      <c r="AR126">
+        <v>1.32</v>
+      </c>
+      <c r="AS126">
+        <v>1.14</v>
+      </c>
+      <c r="AT126">
+        <v>2.46</v>
+      </c>
+      <c r="AU126">
+        <v>2</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>3</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>10</v>
+      </c>
+      <c r="AZ126">
         <v>5</v>
-      </c>
-      <c r="R126">
-        <v>2.1</v>
-      </c>
-      <c r="S126">
-        <v>2.4</v>
-      </c>
-      <c r="T126">
-        <v>1.44</v>
-      </c>
-      <c r="U126">
-        <v>2.63</v>
-      </c>
-      <c r="V126">
-        <v>3.25</v>
-      </c>
-      <c r="W126">
-        <v>1.33</v>
-      </c>
-      <c r="X126">
-        <v>9</v>
-      </c>
-      <c r="Y126">
-        <v>1.07</v>
-      </c>
-      <c r="Z126">
-        <v>5.12</v>
-      </c>
-      <c r="AA126">
-        <v>3.47</v>
-      </c>
-      <c r="AB126">
-        <v>1.77</v>
-      </c>
-      <c r="AC126">
-        <v>1.07</v>
-      </c>
-      <c r="AD126">
-        <v>9</v>
-      </c>
-      <c r="AE126">
-        <v>1.37</v>
-      </c>
-      <c r="AF126">
-        <v>3.1</v>
-      </c>
-      <c r="AG126">
-        <v>2.2</v>
-      </c>
-      <c r="AH126">
-        <v>1.67</v>
-      </c>
-      <c r="AI126">
-        <v>2</v>
-      </c>
-      <c r="AJ126">
-        <v>1.75</v>
-      </c>
-      <c r="AK126">
-        <v>2.1</v>
-      </c>
-      <c r="AL126">
-        <v>1.26</v>
-      </c>
-      <c r="AM126">
-        <v>1.19</v>
-      </c>
-      <c r="AN126">
-        <v>0.83</v>
-      </c>
-      <c r="AO126">
-        <v>1.4</v>
-      </c>
-      <c r="AP126">
-        <v>0.75</v>
-      </c>
-      <c r="AQ126">
-        <v>1.57</v>
-      </c>
-      <c r="AR126">
-        <v>1.18</v>
-      </c>
-      <c r="AS126">
-        <v>1.24</v>
-      </c>
-      <c r="AT126">
-        <v>2.42</v>
-      </c>
-      <c r="AU126">
-        <v>4</v>
-      </c>
-      <c r="AV126">
-        <v>2</v>
-      </c>
-      <c r="AW126">
-        <v>2</v>
-      </c>
-      <c r="AX126">
-        <v>11</v>
-      </c>
-      <c r="AY126">
-        <v>7</v>
-      </c>
-      <c r="AZ126">
-        <v>18</v>
       </c>
       <c r="BA126">
         <v>5</v>
       </c>
       <c r="BB126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD126">
-        <v>2.9</v>
+        <v>1.83</v>
       </c>
       <c r="BE126">
         <v>6.75</v>
       </c>
       <c r="BF126">
-        <v>1.5</v>
+        <v>2.54</v>
       </c>
       <c r="BG126">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="BH126">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="BI126">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="BJ126">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="BK126">
-        <v>1.84</v>
+        <v>2.57</v>
       </c>
       <c r="BL126">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="BM126">
-        <v>2.32</v>
+        <v>3.44</v>
       </c>
       <c r="BN126">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="BO126">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="BP126">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27140,7 +27143,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7465122</v>
+        <v>7465124</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27155,190 +27158,190 @@
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H127" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O127" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Q127">
+        <v>5</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>2.4</v>
+      </c>
+      <c r="T127">
+        <v>1.44</v>
+      </c>
+      <c r="U127">
+        <v>2.63</v>
+      </c>
+      <c r="V127">
         <v>3.25</v>
       </c>
-      <c r="R127">
-        <v>1.91</v>
-      </c>
-      <c r="S127">
+      <c r="W127">
+        <v>1.33</v>
+      </c>
+      <c r="X127">
+        <v>9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>5.12</v>
+      </c>
+      <c r="AA127">
+        <v>3.47</v>
+      </c>
+      <c r="AB127">
+        <v>1.77</v>
+      </c>
+      <c r="AC127">
+        <v>1.07</v>
+      </c>
+      <c r="AD127">
+        <v>9</v>
+      </c>
+      <c r="AE127">
+        <v>1.37</v>
+      </c>
+      <c r="AF127">
+        <v>3.1</v>
+      </c>
+      <c r="AG127">
+        <v>2.2</v>
+      </c>
+      <c r="AH127">
+        <v>1.67</v>
+      </c>
+      <c r="AI127">
+        <v>2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.75</v>
+      </c>
+      <c r="AK127">
+        <v>2.1</v>
+      </c>
+      <c r="AL127">
+        <v>1.26</v>
+      </c>
+      <c r="AM127">
+        <v>1.19</v>
+      </c>
+      <c r="AN127">
+        <v>0.83</v>
+      </c>
+      <c r="AO127">
+        <v>1.4</v>
+      </c>
+      <c r="AP127">
+        <v>0.75</v>
+      </c>
+      <c r="AQ127">
+        <v>1.57</v>
+      </c>
+      <c r="AR127">
+        <v>1.18</v>
+      </c>
+      <c r="AS127">
+        <v>1.24</v>
+      </c>
+      <c r="AT127">
+        <v>2.42</v>
+      </c>
+      <c r="AU127">
         <v>4</v>
       </c>
-      <c r="T127">
-        <v>1.57</v>
-      </c>
-      <c r="U127">
-        <v>2.25</v>
-      </c>
-      <c r="V127">
-        <v>3.75</v>
-      </c>
-      <c r="W127">
-        <v>1.25</v>
-      </c>
-      <c r="X127">
-        <v>13</v>
-      </c>
-      <c r="Y127">
-        <v>1.04</v>
-      </c>
-      <c r="Z127">
-        <v>2.45</v>
-      </c>
-      <c r="AA127">
-        <v>3.2</v>
-      </c>
-      <c r="AB127">
-        <v>3</v>
-      </c>
-      <c r="AC127">
-        <v>1.11</v>
-      </c>
-      <c r="AD127">
+      <c r="AV127">
+        <v>2</v>
+      </c>
+      <c r="AW127">
+        <v>2</v>
+      </c>
+      <c r="AX127">
+        <v>11</v>
+      </c>
+      <c r="AY127">
         <v>7</v>
       </c>
-      <c r="AE127">
-        <v>1.52</v>
-      </c>
-      <c r="AF127">
-        <v>2.49</v>
-      </c>
-      <c r="AG127">
-        <v>2.63</v>
-      </c>
-      <c r="AH127">
-        <v>1.5</v>
-      </c>
-      <c r="AI127">
-        <v>2.1</v>
-      </c>
-      <c r="AJ127">
-        <v>1.67</v>
-      </c>
-      <c r="AK127">
-        <v>1.36</v>
-      </c>
-      <c r="AL127">
-        <v>1.32</v>
-      </c>
-      <c r="AM127">
-        <v>1.58</v>
-      </c>
-      <c r="AN127">
-        <v>1.33</v>
-      </c>
-      <c r="AO127">
-        <v>0.83</v>
-      </c>
-      <c r="AP127">
-        <v>1.38</v>
-      </c>
-      <c r="AQ127">
-        <v>1.13</v>
-      </c>
-      <c r="AR127">
-        <v>1.32</v>
-      </c>
-      <c r="AS127">
-        <v>1.14</v>
-      </c>
-      <c r="AT127">
-        <v>2.46</v>
-      </c>
-      <c r="AU127">
-        <v>2</v>
-      </c>
-      <c r="AV127">
-        <v>3</v>
-      </c>
-      <c r="AW127">
-        <v>3</v>
-      </c>
-      <c r="AX127">
-        <v>0</v>
-      </c>
-      <c r="AY127">
-        <v>10</v>
-      </c>
       <c r="AZ127">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="BA127">
         <v>5</v>
       </c>
       <c r="BB127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD127">
-        <v>1.83</v>
+        <v>2.9</v>
       </c>
       <c r="BE127">
         <v>6.75</v>
       </c>
       <c r="BF127">
-        <v>2.54</v>
+        <v>1.5</v>
       </c>
       <c r="BG127">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="BH127">
+        <v>3.15</v>
+      </c>
+      <c r="BI127">
+        <v>1.52</v>
+      </c>
+      <c r="BJ127">
+        <v>2.33</v>
+      </c>
+      <c r="BK127">
+        <v>1.84</v>
+      </c>
+      <c r="BL127">
+        <v>1.84</v>
+      </c>
+      <c r="BM127">
         <v>2.32</v>
       </c>
-      <c r="BI127">
-        <v>1.95</v>
-      </c>
-      <c r="BJ127">
-        <v>1.8</v>
-      </c>
-      <c r="BK127">
-        <v>2.57</v>
-      </c>
-      <c r="BL127">
-        <v>1.42</v>
-      </c>
-      <c r="BM127">
-        <v>3.44</v>
-      </c>
       <c r="BN127">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="BO127">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="BP127">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27800,7 +27803,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28170,7 +28173,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7469679</v>
+        <v>7465133</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28185,25 +28188,25 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H132" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N132">
         <v>5</v>
@@ -28212,163 +28215,163 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="Q132">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="R132">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S132">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T132">
+        <v>1.57</v>
+      </c>
+      <c r="U132">
+        <v>2.25</v>
+      </c>
+      <c r="V132">
+        <v>3.75</v>
+      </c>
+      <c r="W132">
+        <v>1.25</v>
+      </c>
+      <c r="X132">
+        <v>11</v>
+      </c>
+      <c r="Y132">
+        <v>1.05</v>
+      </c>
+      <c r="Z132">
+        <v>3</v>
+      </c>
+      <c r="AA132">
+        <v>2.9</v>
+      </c>
+      <c r="AB132">
+        <v>2.6</v>
+      </c>
+      <c r="AC132">
+        <v>1.12</v>
+      </c>
+      <c r="AD132">
+        <v>7</v>
+      </c>
+      <c r="AE132">
+        <v>1.5</v>
+      </c>
+      <c r="AF132">
+        <v>2.65</v>
+      </c>
+      <c r="AG132">
+        <v>2.63</v>
+      </c>
+      <c r="AH132">
+        <v>1.5</v>
+      </c>
+      <c r="AI132">
+        <v>2.05</v>
+      </c>
+      <c r="AJ132">
+        <v>1.7</v>
+      </c>
+      <c r="AK132">
+        <v>1.53</v>
+      </c>
+      <c r="AL132">
+        <v>1.35</v>
+      </c>
+      <c r="AM132">
         <v>1.4</v>
       </c>
-      <c r="U132">
-        <v>2.75</v>
-      </c>
-      <c r="V132">
-        <v>3</v>
-      </c>
-      <c r="W132">
-        <v>1.36</v>
-      </c>
-      <c r="X132">
-        <v>8</v>
-      </c>
-      <c r="Y132">
-        <v>1.08</v>
-      </c>
-      <c r="Z132">
-        <v>1.7</v>
-      </c>
-      <c r="AA132">
-        <v>3.8</v>
-      </c>
-      <c r="AB132">
-        <v>5</v>
-      </c>
-      <c r="AC132">
-        <v>1.06</v>
-      </c>
-      <c r="AD132">
-        <v>11</v>
-      </c>
-      <c r="AE132">
-        <v>1.32</v>
-      </c>
-      <c r="AF132">
-        <v>3.4</v>
-      </c>
-      <c r="AG132">
-        <v>1.91</v>
-      </c>
-      <c r="AH132">
-        <v>1.91</v>
-      </c>
-      <c r="AI132">
-        <v>1.95</v>
-      </c>
-      <c r="AJ132">
-        <v>1.8</v>
-      </c>
-      <c r="AK132">
-        <v>1.17</v>
-      </c>
-      <c r="AL132">
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
+        <v>1.5</v>
+      </c>
+      <c r="AP132">
+        <v>0.86</v>
+      </c>
+      <c r="AQ132">
+        <v>1.5</v>
+      </c>
+      <c r="AR132">
+        <v>1.37</v>
+      </c>
+      <c r="AS132">
         <v>1.24</v>
       </c>
-      <c r="AM132">
-        <v>2.2</v>
-      </c>
-      <c r="AN132">
-        <v>1.67</v>
-      </c>
-      <c r="AO132">
-        <v>0.17</v>
-      </c>
-      <c r="AP132">
-        <v>1.86</v>
-      </c>
-      <c r="AQ132">
-        <v>0.14</v>
-      </c>
-      <c r="AR132">
-        <v>1.36</v>
-      </c>
-      <c r="AS132">
-        <v>0.85</v>
-      </c>
       <c r="AT132">
-        <v>2.21</v>
+        <v>2.61</v>
       </c>
       <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
         <v>6</v>
       </c>
-      <c r="AV132">
-        <v>2</v>
-      </c>
-      <c r="AW132">
-        <v>5</v>
-      </c>
       <c r="AX132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY132">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ132">
         <v>10</v>
       </c>
       <c r="BA132">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB132">
         <v>3</v>
       </c>
       <c r="BC132">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD132">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="BE132">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF132">
-        <v>3.15</v>
+        <v>2.07</v>
       </c>
       <c r="BG132">
+        <v>1.4</v>
+      </c>
+      <c r="BH132">
+        <v>2.7</v>
+      </c>
+      <c r="BI132">
+        <v>1.65</v>
+      </c>
+      <c r="BJ132">
+        <v>2.08</v>
+      </c>
+      <c r="BK132">
+        <v>2.06</v>
+      </c>
+      <c r="BL132">
+        <v>1.66</v>
+      </c>
+      <c r="BM132">
+        <v>2.65</v>
+      </c>
+      <c r="BN132">
         <v>1.41</v>
       </c>
-      <c r="BH132">
-        <v>2.65</v>
-      </c>
-      <c r="BI132">
-        <v>1.68</v>
-      </c>
-      <c r="BJ132">
-        <v>2.04</v>
-      </c>
-      <c r="BK132">
-        <v>2.1</v>
-      </c>
-      <c r="BL132">
-        <v>1.63</v>
-      </c>
-      <c r="BM132">
-        <v>2.7</v>
-      </c>
-      <c r="BN132">
-        <v>1.4</v>
-      </c>
       <c r="BO132">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="BP132">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28376,7 +28379,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7465133</v>
+        <v>7469679</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28391,25 +28394,25 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H133" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N133">
         <v>5</v>
@@ -28418,163 +28421,163 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="Q133">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>5.5</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
+        <v>2.75</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>1.08</v>
+      </c>
+      <c r="Z133">
+        <v>1.7</v>
+      </c>
+      <c r="AA133">
+        <v>3.8</v>
+      </c>
+      <c r="AB133">
+        <v>5</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>11</v>
+      </c>
+      <c r="AE133">
+        <v>1.32</v>
+      </c>
+      <c r="AF133">
+        <v>3.4</v>
+      </c>
+      <c r="AG133">
         <v>1.91</v>
       </c>
-      <c r="S133">
-        <v>3.25</v>
-      </c>
-      <c r="T133">
-        <v>1.57</v>
-      </c>
-      <c r="U133">
-        <v>2.25</v>
-      </c>
-      <c r="V133">
-        <v>3.75</v>
-      </c>
-      <c r="W133">
-        <v>1.25</v>
-      </c>
-      <c r="X133">
-        <v>11</v>
-      </c>
-      <c r="Y133">
-        <v>1.05</v>
-      </c>
-      <c r="Z133">
+      <c r="AH133">
+        <v>1.91</v>
+      </c>
+      <c r="AI133">
+        <v>1.95</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.17</v>
+      </c>
+      <c r="AL133">
+        <v>1.24</v>
+      </c>
+      <c r="AM133">
+        <v>2.2</v>
+      </c>
+      <c r="AN133">
+        <v>1.67</v>
+      </c>
+      <c r="AO133">
+        <v>0.17</v>
+      </c>
+      <c r="AP133">
+        <v>1.86</v>
+      </c>
+      <c r="AQ133">
+        <v>0.14</v>
+      </c>
+      <c r="AR133">
+        <v>1.36</v>
+      </c>
+      <c r="AS133">
+        <v>0.85</v>
+      </c>
+      <c r="AT133">
+        <v>2.21</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>2</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
         <v>3</v>
       </c>
-      <c r="AA133">
-        <v>2.9</v>
-      </c>
-      <c r="AB133">
-        <v>2.6</v>
-      </c>
-      <c r="AC133">
-        <v>1.12</v>
-      </c>
-      <c r="AD133">
-        <v>7</v>
-      </c>
-      <c r="AE133">
-        <v>1.5</v>
-      </c>
-      <c r="AF133">
-        <v>2.65</v>
-      </c>
-      <c r="AG133">
-        <v>2.63</v>
-      </c>
-      <c r="AH133">
-        <v>1.5</v>
-      </c>
-      <c r="AI133">
-        <v>2.05</v>
-      </c>
-      <c r="AJ133">
-        <v>1.7</v>
-      </c>
-      <c r="AK133">
-        <v>1.53</v>
-      </c>
-      <c r="AL133">
-        <v>1.35</v>
-      </c>
-      <c r="AM133">
-        <v>1.4</v>
-      </c>
-      <c r="AN133">
-        <v>1</v>
-      </c>
-      <c r="AO133">
-        <v>1.5</v>
-      </c>
-      <c r="AP133">
-        <v>0.86</v>
-      </c>
-      <c r="AQ133">
-        <v>1.71</v>
-      </c>
-      <c r="AR133">
-        <v>1.37</v>
-      </c>
-      <c r="AS133">
-        <v>1.24</v>
-      </c>
-      <c r="AT133">
-        <v>2.61</v>
-      </c>
-      <c r="AU133">
-        <v>4</v>
-      </c>
-      <c r="AV133">
-        <v>4</v>
-      </c>
-      <c r="AW133">
-        <v>6</v>
-      </c>
-      <c r="AX133">
-        <v>6</v>
-      </c>
       <c r="AY133">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ133">
         <v>10</v>
       </c>
       <c r="BA133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB133">
         <v>3</v>
       </c>
       <c r="BC133">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD133">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="BE133">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF133">
-        <v>2.07</v>
+        <v>3.15</v>
       </c>
       <c r="BG133">
+        <v>1.41</v>
+      </c>
+      <c r="BH133">
+        <v>2.65</v>
+      </c>
+      <c r="BI133">
+        <v>1.68</v>
+      </c>
+      <c r="BJ133">
+        <v>2.04</v>
+      </c>
+      <c r="BK133">
+        <v>2.1</v>
+      </c>
+      <c r="BL133">
+        <v>1.63</v>
+      </c>
+      <c r="BM133">
+        <v>2.7</v>
+      </c>
+      <c r="BN133">
         <v>1.4</v>
       </c>
-      <c r="BH133">
-        <v>2.7</v>
-      </c>
-      <c r="BI133">
-        <v>1.65</v>
-      </c>
-      <c r="BJ133">
-        <v>2.08</v>
-      </c>
-      <c r="BK133">
-        <v>2.06</v>
-      </c>
-      <c r="BL133">
-        <v>1.66</v>
-      </c>
-      <c r="BM133">
-        <v>2.65</v>
-      </c>
-      <c r="BN133">
-        <v>1.41</v>
-      </c>
       <c r="BO133">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="BP133">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28624,7 +28627,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28702,7 +28705,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>2.2</v>
@@ -28830,7 +28833,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29242,7 +29245,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29654,7 +29657,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29860,7 +29863,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30066,7 +30069,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30478,7 +30481,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30684,7 +30687,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31096,7 +31099,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31508,7 +31511,7 @@
         <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31714,7 +31717,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31920,7 +31923,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32077,6 +32080,212 @@
       </c>
       <c r="BP150">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7465150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45632.70833333334</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s">
+        <v>77</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>200</v>
+      </c>
+      <c r="P151" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q151">
+        <v>2.63</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>5.5</v>
+      </c>
+      <c r="T151">
+        <v>1.57</v>
+      </c>
+      <c r="U151">
+        <v>2.25</v>
+      </c>
+      <c r="V151">
+        <v>3.75</v>
+      </c>
+      <c r="W151">
+        <v>1.25</v>
+      </c>
+      <c r="X151">
+        <v>13</v>
+      </c>
+      <c r="Y151">
+        <v>1.04</v>
+      </c>
+      <c r="Z151">
+        <v>1.85</v>
+      </c>
+      <c r="AA151">
+        <v>3.25</v>
+      </c>
+      <c r="AB151">
+        <v>4.5</v>
+      </c>
+      <c r="AC151">
+        <v>1.1</v>
+      </c>
+      <c r="AD151">
+        <v>7</v>
+      </c>
+      <c r="AE151">
+        <v>1.53</v>
+      </c>
+      <c r="AF151">
+        <v>2.6</v>
+      </c>
+      <c r="AG151">
+        <v>2.45</v>
+      </c>
+      <c r="AH151">
+        <v>1.5</v>
+      </c>
+      <c r="AI151">
+        <v>2.2</v>
+      </c>
+      <c r="AJ151">
+        <v>1.62</v>
+      </c>
+      <c r="AK151">
+        <v>1.19</v>
+      </c>
+      <c r="AL151">
+        <v>1.3</v>
+      </c>
+      <c r="AM151">
+        <v>1.96</v>
+      </c>
+      <c r="AN151">
+        <v>1.75</v>
+      </c>
+      <c r="AO151">
+        <v>1.71</v>
+      </c>
+      <c r="AP151">
+        <v>1.89</v>
+      </c>
+      <c r="AQ151">
+        <v>1.5</v>
+      </c>
+      <c r="AR151">
+        <v>1.39</v>
+      </c>
+      <c r="AS151">
+        <v>1.23</v>
+      </c>
+      <c r="AT151">
+        <v>2.62</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>7</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>14</v>
+      </c>
+      <c r="AZ151">
+        <v>10</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>6</v>
+      </c>
+      <c r="BD151">
+        <v>1.5</v>
+      </c>
+      <c r="BE151">
+        <v>6.75</v>
+      </c>
+      <c r="BF151">
+        <v>2.8</v>
+      </c>
+      <c r="BG151">
+        <v>1.41</v>
+      </c>
+      <c r="BH151">
+        <v>2.65</v>
+      </c>
+      <c r="BI151">
+        <v>1.7</v>
+      </c>
+      <c r="BJ151">
+        <v>2</v>
+      </c>
+      <c r="BK151">
+        <v>2.1</v>
+      </c>
+      <c r="BL151">
+        <v>1.64</v>
+      </c>
+      <c r="BM151">
+        <v>2.7</v>
+      </c>
+      <c r="BN151">
+        <v>1.4</v>
+      </c>
+      <c r="BO151">
+        <v>3.55</v>
+      </c>
+      <c r="BP151">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,12 @@
     <t>['32', '82']</t>
   </si>
   <si>
+    <t>['20', '64']</t>
+  </si>
+  <si>
+    <t>['68', '90+4']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -815,6 +821,12 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['39', '82']</t>
+  </si>
+  <si>
+    <t>['36', '55', '62']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1447,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1719,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -1847,7 +1859,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2053,7 +2065,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2131,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
         <v>0.86</v>
@@ -2259,7 +2271,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2465,7 +2477,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2543,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ7">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2671,7 +2683,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2752,7 +2764,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2877,7 +2889,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2958,7 +2970,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3289,7 +3301,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3701,7 +3713,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4606,7 +4618,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4812,7 +4824,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ18">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4937,7 +4949,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5555,7 +5567,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5967,7 +5979,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6048,7 +6060,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6791,7 +6803,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7075,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -7203,7 +7215,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7281,10 +7293,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7490,7 +7502,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR31">
         <v>1.51</v>
@@ -7902,7 +7914,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8027,7 +8039,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8105,7 +8117,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8645,7 +8657,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8851,7 +8863,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9547,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>0.63</v>
@@ -9675,7 +9687,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9881,7 +9893,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10293,7 +10305,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10374,7 +10386,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -10580,7 +10592,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ46">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -10705,7 +10717,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10783,10 +10795,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -10911,7 +10923,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10989,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>1.57</v>
@@ -11735,7 +11747,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11813,7 +11825,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>0.29</v>
@@ -11941,7 +11953,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12559,7 +12571,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12843,7 +12855,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
         <v>1.13</v>
@@ -12971,7 +12983,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13383,7 +13395,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13589,7 +13601,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13670,7 +13682,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ61">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -14001,7 +14013,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14079,7 +14091,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14285,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ64">
         <v>0.86</v>
@@ -14413,7 +14425,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14494,7 +14506,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ65">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -14619,7 +14631,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14903,10 +14915,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15237,7 +15249,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15443,7 +15455,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15521,7 +15533,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>0.75</v>
@@ -15855,7 +15867,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16679,7 +16691,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16760,7 +16772,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ76">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -17091,7 +17103,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17375,7 +17387,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ79">
         <v>0.14</v>
@@ -17503,7 +17515,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17584,7 +17596,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17709,7 +17721,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18611,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ85">
         <v>0.57</v>
@@ -18739,7 +18751,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18820,7 +18832,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -19151,7 +19163,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19229,7 +19241,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ88">
         <v>1.57</v>
@@ -19357,7 +19369,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19438,7 +19450,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ89">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR89">
         <v>1.08</v>
@@ -19769,7 +19781,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19975,7 +19987,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20056,7 +20068,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ92">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20387,7 +20399,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20671,7 +20683,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95">
         <v>1.57</v>
@@ -20799,7 +20811,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20880,7 +20892,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21086,7 +21098,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21211,7 +21223,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21829,7 +21841,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21907,7 +21919,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -22035,7 +22047,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22241,7 +22253,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22731,7 +22743,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ105">
         <v>1.13</v>
@@ -22859,7 +22871,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -22940,7 +22952,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ106">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR106">
         <v>1.96</v>
@@ -23555,7 +23567,7 @@
         <v>1.8</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>1.88</v>
@@ -23683,7 +23695,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24382,7 +24394,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ113">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24507,7 +24519,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24585,7 +24597,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>0.63</v>
@@ -24919,7 +24931,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25125,7 +25137,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25331,7 +25343,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25743,7 +25755,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26567,7 +26579,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26645,7 +26657,7 @@
         <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
         <v>0.57</v>
@@ -27472,7 +27484,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -27678,7 +27690,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR129">
         <v>1.27</v>
@@ -27803,7 +27815,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27881,7 +27893,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ130">
         <v>0.75</v>
@@ -28215,7 +28227,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28293,7 +28305,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -28499,7 +28511,7 @@
         <v>0.17</v>
       </c>
       <c r="AP133">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ133">
         <v>0.14</v>
@@ -28627,7 +28639,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28708,7 +28720,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ134">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR134">
         <v>1.32</v>
@@ -28833,7 +28845,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29120,7 +29132,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ136">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -29245,7 +29257,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29326,7 +29338,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ137">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -29657,7 +29669,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29863,7 +29875,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30069,7 +30081,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30481,7 +30493,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30687,7 +30699,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31099,7 +31111,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31511,7 +31523,7 @@
         <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31717,7 +31729,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31798,7 +31810,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ149">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR149">
         <v>1.29</v>
@@ -31923,7 +31935,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32004,7 +32016,7 @@
         <v>2</v>
       </c>
       <c r="AQ150">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32286,6 +32298,830 @@
       </c>
       <c r="BP151">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7465151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45633.41666666666</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>73</v>
+      </c>
+      <c r="H152" t="s">
+        <v>78</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>201</v>
+      </c>
+      <c r="P152" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q152">
+        <v>2.4</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>5</v>
+      </c>
+      <c r="T152">
+        <v>1.4</v>
+      </c>
+      <c r="U152">
+        <v>2.75</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>8</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>1.8</v>
+      </c>
+      <c r="AA152">
+        <v>3.6</v>
+      </c>
+      <c r="AB152">
+        <v>4.33</v>
+      </c>
+      <c r="AC152">
+        <v>1.06</v>
+      </c>
+      <c r="AD152">
+        <v>11</v>
+      </c>
+      <c r="AE152">
+        <v>1.33</v>
+      </c>
+      <c r="AF152">
+        <v>3.4</v>
+      </c>
+      <c r="AG152">
+        <v>1.95</v>
+      </c>
+      <c r="AH152">
+        <v>1.75</v>
+      </c>
+      <c r="AI152">
+        <v>1.91</v>
+      </c>
+      <c r="AJ152">
+        <v>1.91</v>
+      </c>
+      <c r="AK152">
+        <v>1.22</v>
+      </c>
+      <c r="AL152">
+        <v>1.24</v>
+      </c>
+      <c r="AM152">
+        <v>2.05</v>
+      </c>
+      <c r="AN152">
+        <v>0.86</v>
+      </c>
+      <c r="AO152">
+        <v>0.43</v>
+      </c>
+      <c r="AP152">
+        <v>1.13</v>
+      </c>
+      <c r="AQ152">
+        <v>0.38</v>
+      </c>
+      <c r="AR152">
+        <v>1.35</v>
+      </c>
+      <c r="AS152">
+        <v>0.86</v>
+      </c>
+      <c r="AT152">
+        <v>2.21</v>
+      </c>
+      <c r="AU152">
+        <v>6</v>
+      </c>
+      <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
+        <v>4</v>
+      </c>
+      <c r="AY152">
+        <v>12</v>
+      </c>
+      <c r="AZ152">
+        <v>11</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
+        <v>3</v>
+      </c>
+      <c r="BC152">
+        <v>6</v>
+      </c>
+      <c r="BD152">
+        <v>1.56</v>
+      </c>
+      <c r="BE152">
+        <v>6.75</v>
+      </c>
+      <c r="BF152">
+        <v>2.7</v>
+      </c>
+      <c r="BG152">
+        <v>1.36</v>
+      </c>
+      <c r="BH152">
+        <v>2.8</v>
+      </c>
+      <c r="BI152">
+        <v>1.61</v>
+      </c>
+      <c r="BJ152">
+        <v>2.15</v>
+      </c>
+      <c r="BK152">
+        <v>1.98</v>
+      </c>
+      <c r="BL152">
+        <v>1.72</v>
+      </c>
+      <c r="BM152">
+        <v>2.55</v>
+      </c>
+      <c r="BN152">
+        <v>1.44</v>
+      </c>
+      <c r="BO152">
+        <v>3.3</v>
+      </c>
+      <c r="BP152">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7465153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45633.51041666666</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153" t="s">
+        <v>81</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>202</v>
+      </c>
+      <c r="P153" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q153">
+        <v>4.5</v>
+      </c>
+      <c r="R153">
+        <v>2.38</v>
+      </c>
+      <c r="S153">
+        <v>2.25</v>
+      </c>
+      <c r="T153">
+        <v>1.3</v>
+      </c>
+      <c r="U153">
+        <v>3.4</v>
+      </c>
+      <c r="V153">
+        <v>2.38</v>
+      </c>
+      <c r="W153">
+        <v>1.53</v>
+      </c>
+      <c r="X153">
+        <v>6</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>4.33</v>
+      </c>
+      <c r="AA153">
+        <v>4.1</v>
+      </c>
+      <c r="AB153">
+        <v>1.7</v>
+      </c>
+      <c r="AC153">
+        <v>1.03</v>
+      </c>
+      <c r="AD153">
+        <v>17</v>
+      </c>
+      <c r="AE153">
+        <v>1.2</v>
+      </c>
+      <c r="AF153">
+        <v>4.5</v>
+      </c>
+      <c r="AG153">
+        <v>1.62</v>
+      </c>
+      <c r="AH153">
+        <v>2.3</v>
+      </c>
+      <c r="AI153">
+        <v>1.62</v>
+      </c>
+      <c r="AJ153">
+        <v>2.2</v>
+      </c>
+      <c r="AK153">
+        <v>2.15</v>
+      </c>
+      <c r="AL153">
+        <v>1.2</v>
+      </c>
+      <c r="AM153">
+        <v>1.2</v>
+      </c>
+      <c r="AN153">
+        <v>2</v>
+      </c>
+      <c r="AO153">
+        <v>2.2</v>
+      </c>
+      <c r="AP153">
+        <v>1.88</v>
+      </c>
+      <c r="AQ153">
+        <v>2.09</v>
+      </c>
+      <c r="AR153">
+        <v>1.84</v>
+      </c>
+      <c r="AS153">
+        <v>1.69</v>
+      </c>
+      <c r="AT153">
+        <v>3.53</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>13</v>
+      </c>
+      <c r="AZ153">
+        <v>10</v>
+      </c>
+      <c r="BA153">
+        <v>6</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>10</v>
+      </c>
+      <c r="BD153">
+        <v>2.55</v>
+      </c>
+      <c r="BE153">
+        <v>6.5</v>
+      </c>
+      <c r="BF153">
+        <v>1.63</v>
+      </c>
+      <c r="BG153">
+        <v>1.24</v>
+      </c>
+      <c r="BH153">
+        <v>3.55</v>
+      </c>
+      <c r="BI153">
+        <v>1.41</v>
+      </c>
+      <c r="BJ153">
+        <v>2.63</v>
+      </c>
+      <c r="BK153">
+        <v>1.68</v>
+      </c>
+      <c r="BL153">
+        <v>2.02</v>
+      </c>
+      <c r="BM153">
+        <v>2.06</v>
+      </c>
+      <c r="BN153">
+        <v>1.66</v>
+      </c>
+      <c r="BO153">
+        <v>2.63</v>
+      </c>
+      <c r="BP153">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7465154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45633.60416666666</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s">
+        <v>88</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>104</v>
+      </c>
+      <c r="P154" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q154">
+        <v>3.1</v>
+      </c>
+      <c r="R154">
+        <v>1.91</v>
+      </c>
+      <c r="S154">
+        <v>4.33</v>
+      </c>
+      <c r="T154">
+        <v>1.57</v>
+      </c>
+      <c r="U154">
+        <v>2.25</v>
+      </c>
+      <c r="V154">
+        <v>3.75</v>
+      </c>
+      <c r="W154">
+        <v>1.25</v>
+      </c>
+      <c r="X154">
+        <v>13</v>
+      </c>
+      <c r="Y154">
+        <v>1.04</v>
+      </c>
+      <c r="Z154">
+        <v>2.2</v>
+      </c>
+      <c r="AA154">
+        <v>3</v>
+      </c>
+      <c r="AB154">
+        <v>3.5</v>
+      </c>
+      <c r="AC154">
+        <v>1.12</v>
+      </c>
+      <c r="AD154">
+        <v>6.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.5</v>
+      </c>
+      <c r="AF154">
+        <v>2.37</v>
+      </c>
+      <c r="AG154">
+        <v>2.63</v>
+      </c>
+      <c r="AH154">
+        <v>1.5</v>
+      </c>
+      <c r="AI154">
+        <v>2.1</v>
+      </c>
+      <c r="AJ154">
+        <v>1.67</v>
+      </c>
+      <c r="AK154">
+        <v>1.28</v>
+      </c>
+      <c r="AL154">
+        <v>1.33</v>
+      </c>
+      <c r="AM154">
+        <v>1.68</v>
+      </c>
+      <c r="AN154">
+        <v>1.33</v>
+      </c>
+      <c r="AO154">
+        <v>1.14</v>
+      </c>
+      <c r="AP154">
+        <v>1.14</v>
+      </c>
+      <c r="AQ154">
+        <v>1.38</v>
+      </c>
+      <c r="AR154">
+        <v>1.29</v>
+      </c>
+      <c r="AS154">
+        <v>1.01</v>
+      </c>
+      <c r="AT154">
+        <v>2.3</v>
+      </c>
+      <c r="AU154">
+        <v>7</v>
+      </c>
+      <c r="AV154">
+        <v>2</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>15</v>
+      </c>
+      <c r="AZ154">
+        <v>7</v>
+      </c>
+      <c r="BA154">
+        <v>9</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
+        <v>13</v>
+      </c>
+      <c r="BD154">
+        <v>1.64</v>
+      </c>
+      <c r="BE154">
+        <v>6.5</v>
+      </c>
+      <c r="BF154">
+        <v>2.55</v>
+      </c>
+      <c r="BG154">
+        <v>1.38</v>
+      </c>
+      <c r="BH154">
+        <v>2.75</v>
+      </c>
+      <c r="BI154">
+        <v>1.65</v>
+      </c>
+      <c r="BJ154">
+        <v>2.08</v>
+      </c>
+      <c r="BK154">
+        <v>2.05</v>
+      </c>
+      <c r="BL154">
+        <v>1.67</v>
+      </c>
+      <c r="BM154">
+        <v>2.6</v>
+      </c>
+      <c r="BN154">
+        <v>1.43</v>
+      </c>
+      <c r="BO154">
+        <v>3.4</v>
+      </c>
+      <c r="BP154">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7465384</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45633.70833333334</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>89</v>
+      </c>
+      <c r="H155" t="s">
+        <v>84</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>104</v>
+      </c>
+      <c r="P155" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q155">
+        <v>4.75</v>
+      </c>
+      <c r="R155">
+        <v>2.3</v>
+      </c>
+      <c r="S155">
+        <v>2.3</v>
+      </c>
+      <c r="T155">
+        <v>1.33</v>
+      </c>
+      <c r="U155">
+        <v>3.25</v>
+      </c>
+      <c r="V155">
+        <v>2.5</v>
+      </c>
+      <c r="W155">
+        <v>1.5</v>
+      </c>
+      <c r="X155">
+        <v>6.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.11</v>
+      </c>
+      <c r="Z155">
+        <v>4.6</v>
+      </c>
+      <c r="AA155">
+        <v>3.9</v>
+      </c>
+      <c r="AB155">
+        <v>1.7</v>
+      </c>
+      <c r="AC155">
+        <v>1.03</v>
+      </c>
+      <c r="AD155">
+        <v>15</v>
+      </c>
+      <c r="AE155">
+        <v>1.22</v>
+      </c>
+      <c r="AF155">
+        <v>4.33</v>
+      </c>
+      <c r="AG155">
+        <v>1.67</v>
+      </c>
+      <c r="AH155">
+        <v>2.1</v>
+      </c>
+      <c r="AI155">
+        <v>1.67</v>
+      </c>
+      <c r="AJ155">
+        <v>2.1</v>
+      </c>
+      <c r="AK155">
+        <v>2.15</v>
+      </c>
+      <c r="AL155">
+        <v>1.22</v>
+      </c>
+      <c r="AM155">
+        <v>1.2</v>
+      </c>
+      <c r="AN155">
+        <v>1.86</v>
+      </c>
+      <c r="AO155">
+        <v>1.71</v>
+      </c>
+      <c r="AP155">
+        <v>1.63</v>
+      </c>
+      <c r="AQ155">
+        <v>1.88</v>
+      </c>
+      <c r="AR155">
+        <v>1.38</v>
+      </c>
+      <c r="AS155">
+        <v>1.57</v>
+      </c>
+      <c r="AT155">
+        <v>2.95</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>8</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>1</v>
+      </c>
+      <c r="AY155">
+        <v>11</v>
+      </c>
+      <c r="AZ155">
+        <v>11</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>9</v>
+      </c>
+      <c r="BD155">
+        <v>2.65</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>1.58</v>
+      </c>
+      <c r="BG155">
+        <v>1.36</v>
+      </c>
+      <c r="BH155">
+        <v>2.8</v>
+      </c>
+      <c r="BI155">
+        <v>1.63</v>
+      </c>
+      <c r="BJ155">
+        <v>2.12</v>
+      </c>
+      <c r="BK155">
+        <v>2</v>
+      </c>
+      <c r="BL155">
+        <v>1.71</v>
+      </c>
+      <c r="BM155">
+        <v>2.55</v>
+      </c>
+      <c r="BN155">
+        <v>1.44</v>
+      </c>
+      <c r="BO155">
+        <v>3.4</v>
+      </c>
+      <c r="BP155">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,15 @@
     <t>['68', '90+4']</t>
   </si>
   <si>
+    <t>['15', '69']</t>
+  </si>
+  <si>
+    <t>['54', '61']</t>
+  </si>
+  <si>
+    <t>['10', '62', '79', '90+4']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -827,6 +836,15 @@
   </si>
   <si>
     <t>['36', '55', '62']</t>
+  </si>
+  <si>
+    <t>['14', '78', '90+2']</t>
+  </si>
+  <si>
+    <t>['1', '68']</t>
+  </si>
+  <si>
+    <t>['12', '32', '57']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1465,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1525,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ2">
         <v>0.29</v>
@@ -1859,7 +1877,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1940,7 +1958,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ4">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2065,7 +2083,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2146,7 +2164,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2271,7 +2289,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2349,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2477,7 +2495,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2683,7 +2701,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2889,7 +2907,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3301,7 +3319,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3713,7 +3731,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3794,7 +3812,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3997,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4412,7 +4430,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4949,7 +4967,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5027,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
         <v>1.13</v>
@@ -5439,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>1.13</v>
@@ -5567,7 +5585,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5854,7 +5872,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -5979,7 +5997,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6263,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ25">
         <v>0.29</v>
@@ -6675,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>0.14</v>
@@ -6803,7 +6821,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6884,7 +6902,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -7215,7 +7233,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7705,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ32">
         <v>1.88</v>
@@ -8039,7 +8057,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8120,7 +8138,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>0.87</v>
@@ -8323,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8657,7 +8675,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8735,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.57</v>
@@ -8863,7 +8881,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9150,7 +9168,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9687,7 +9705,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9768,7 +9786,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.48</v>
@@ -9893,7 +9911,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9974,7 +9992,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -10305,7 +10323,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10717,7 +10735,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10923,7 +10941,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11207,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
         <v>0.29</v>
@@ -11622,7 +11640,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.4</v>
@@ -11747,7 +11765,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11953,7 +11971,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12031,7 +12049,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
         <v>1.57</v>
@@ -12240,7 +12258,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
         <v>1.07</v>
@@ -12446,7 +12464,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12571,7 +12589,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12649,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -12983,7 +13001,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13395,7 +13413,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13473,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -13601,7 +13619,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14013,7 +14031,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14425,7 +14443,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14631,7 +14649,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14712,7 +14730,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ66">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR66">
         <v>2.43</v>
@@ -15249,7 +15267,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15330,7 +15348,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR69">
         <v>1.13</v>
@@ -15455,7 +15473,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15867,7 +15885,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16154,7 +16172,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16691,7 +16709,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16769,7 +16787,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>2.09</v>
@@ -17103,7 +17121,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17181,10 +17199,10 @@
         <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17515,7 +17533,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17593,7 +17611,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ80">
         <v>1.88</v>
@@ -17721,7 +17739,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18005,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
         <v>0.29</v>
@@ -18751,7 +18769,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19038,7 +19056,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>2.14</v>
@@ -19163,7 +19181,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19369,7 +19387,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19781,7 +19799,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19987,7 +20005,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20271,7 +20289,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ93">
         <v>0.14</v>
@@ -20399,7 +20417,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20477,7 +20495,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>0.75</v>
@@ -20686,7 +20704,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ95">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -20811,7 +20829,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21223,7 +21241,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21301,7 +21319,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ98">
         <v>0.63</v>
@@ -21716,7 +21734,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ100">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -21841,7 +21859,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22047,7 +22065,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22128,7 +22146,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR102">
         <v>1.07</v>
@@ -22253,7 +22271,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22334,7 +22352,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22540,7 +22558,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ104">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR104">
         <v>1.49</v>
@@ -22871,7 +22889,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23155,7 +23173,7 @@
         <v>0.75</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107">
         <v>0.57</v>
@@ -23695,7 +23713,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24391,7 +24409,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>0.38</v>
@@ -24519,7 +24537,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24803,7 +24821,7 @@
         <v>0.6</v>
       </c>
       <c r="AP115">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -24931,7 +24949,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25137,7 +25155,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25218,7 +25236,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ117">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR117">
         <v>1.53</v>
@@ -25343,7 +25361,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25421,7 +25439,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ118">
         <v>0.75</v>
@@ -25755,7 +25773,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26248,7 +26266,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ122">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26451,10 +26469,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -26579,7 +26597,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27815,7 +27833,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28099,10 +28117,10 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ131">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR131">
         <v>1.58</v>
@@ -28227,7 +28245,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28639,7 +28657,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28845,7 +28863,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -28923,10 +28941,10 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR135">
         <v>1.57</v>
@@ -29257,7 +29275,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29335,7 +29353,7 @@
         <v>1.8</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
         <v>1.88</v>
@@ -29541,10 +29559,10 @@
         <v>1.83</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ138">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR138">
         <v>1.36</v>
@@ -29669,7 +29687,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29875,7 +29893,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30081,7 +30099,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30493,7 +30511,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30699,7 +30717,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31111,7 +31129,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31523,7 +31541,7 @@
         <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31729,7 +31747,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31935,7 +31953,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32013,7 +32031,7 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
@@ -32553,7 +32571,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32729,7 +32747,7 @@
         <v>45633.60416666666</v>
       </c>
       <c r="F154">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>75</v>
@@ -32965,7 +32983,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33122,6 +33140,830 @@
       </c>
       <c r="BP155">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7465152</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45634.41666666666</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H156" t="s">
+        <v>76</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>104</v>
+      </c>
+      <c r="P156" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q156">
+        <v>5</v>
+      </c>
+      <c r="R156">
+        <v>1.83</v>
+      </c>
+      <c r="S156">
+        <v>2.88</v>
+      </c>
+      <c r="T156">
+        <v>1.62</v>
+      </c>
+      <c r="U156">
+        <v>2.2</v>
+      </c>
+      <c r="V156">
+        <v>4</v>
+      </c>
+      <c r="W156">
+        <v>1.22</v>
+      </c>
+      <c r="X156">
+        <v>13</v>
+      </c>
+      <c r="Y156">
+        <v>1.04</v>
+      </c>
+      <c r="Z156">
+        <v>3.9</v>
+      </c>
+      <c r="AA156">
+        <v>3</v>
+      </c>
+      <c r="AB156">
+        <v>2.05</v>
+      </c>
+      <c r="AC156">
+        <v>1.12</v>
+      </c>
+      <c r="AD156">
+        <v>6.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.57</v>
+      </c>
+      <c r="AF156">
+        <v>2.25</v>
+      </c>
+      <c r="AG156">
+        <v>2.75</v>
+      </c>
+      <c r="AH156">
+        <v>1.44</v>
+      </c>
+      <c r="AI156">
+        <v>2.38</v>
+      </c>
+      <c r="AJ156">
+        <v>1.53</v>
+      </c>
+      <c r="AK156">
+        <v>1.78</v>
+      </c>
+      <c r="AL156">
+        <v>1.32</v>
+      </c>
+      <c r="AM156">
+        <v>1.25</v>
+      </c>
+      <c r="AN156">
+        <v>1.43</v>
+      </c>
+      <c r="AO156">
+        <v>1.57</v>
+      </c>
+      <c r="AP156">
+        <v>1.25</v>
+      </c>
+      <c r="AQ156">
+        <v>1.75</v>
+      </c>
+      <c r="AR156">
+        <v>0.98</v>
+      </c>
+      <c r="AS156">
+        <v>1.03</v>
+      </c>
+      <c r="AT156">
+        <v>2.01</v>
+      </c>
+      <c r="AU156">
+        <v>3</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>6</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>12</v>
+      </c>
+      <c r="AZ156">
+        <v>17</v>
+      </c>
+      <c r="BA156">
+        <v>5</v>
+      </c>
+      <c r="BB156">
+        <v>3</v>
+      </c>
+      <c r="BC156">
+        <v>8</v>
+      </c>
+      <c r="BD156">
+        <v>2.48</v>
+      </c>
+      <c r="BE156">
+        <v>6.5</v>
+      </c>
+      <c r="BF156">
+        <v>1.66</v>
+      </c>
+      <c r="BG156">
+        <v>1.46</v>
+      </c>
+      <c r="BH156">
+        <v>2.5</v>
+      </c>
+      <c r="BI156">
+        <v>1.75</v>
+      </c>
+      <c r="BJ156">
+        <v>1.95</v>
+      </c>
+      <c r="BK156">
+        <v>2.05</v>
+      </c>
+      <c r="BL156">
+        <v>1.7</v>
+      </c>
+      <c r="BM156">
+        <v>2.9</v>
+      </c>
+      <c r="BN156">
+        <v>1.35</v>
+      </c>
+      <c r="BO156">
+        <v>3.8</v>
+      </c>
+      <c r="BP156">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7465148</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45634.51041666666</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>70</v>
+      </c>
+      <c r="H157" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>203</v>
+      </c>
+      <c r="P157" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q157">
+        <v>2.75</v>
+      </c>
+      <c r="R157">
+        <v>2.2</v>
+      </c>
+      <c r="S157">
+        <v>4</v>
+      </c>
+      <c r="T157">
+        <v>1.36</v>
+      </c>
+      <c r="U157">
+        <v>3</v>
+      </c>
+      <c r="V157">
+        <v>2.75</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>2.05</v>
+      </c>
+      <c r="AA157">
+        <v>3.6</v>
+      </c>
+      <c r="AB157">
+        <v>3.3</v>
+      </c>
+      <c r="AC157">
+        <v>1.04</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.28</v>
+      </c>
+      <c r="AF157">
+        <v>3.75</v>
+      </c>
+      <c r="AG157">
+        <v>1.8</v>
+      </c>
+      <c r="AH157">
+        <v>1.91</v>
+      </c>
+      <c r="AI157">
+        <v>1.7</v>
+      </c>
+      <c r="AJ157">
+        <v>2.05</v>
+      </c>
+      <c r="AK157">
+        <v>1.33</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.78</v>
+      </c>
+      <c r="AN157">
+        <v>2</v>
+      </c>
+      <c r="AO157">
+        <v>2</v>
+      </c>
+      <c r="AP157">
+        <v>2.1</v>
+      </c>
+      <c r="AQ157">
+        <v>1.75</v>
+      </c>
+      <c r="AR157">
+        <v>1.3</v>
+      </c>
+      <c r="AS157">
+        <v>1.52</v>
+      </c>
+      <c r="AT157">
+        <v>2.82</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>7</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>12</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>6</v>
+      </c>
+      <c r="BD157">
+        <v>1.58</v>
+      </c>
+      <c r="BE157">
+        <v>6.75</v>
+      </c>
+      <c r="BF157">
+        <v>2.55</v>
+      </c>
+      <c r="BG157">
+        <v>1.3</v>
+      </c>
+      <c r="BH157">
+        <v>3.15</v>
+      </c>
+      <c r="BI157">
+        <v>1.52</v>
+      </c>
+      <c r="BJ157">
+        <v>2.33</v>
+      </c>
+      <c r="BK157">
+        <v>1.9</v>
+      </c>
+      <c r="BL157">
+        <v>1.8</v>
+      </c>
+      <c r="BM157">
+        <v>2.3</v>
+      </c>
+      <c r="BN157">
+        <v>1.54</v>
+      </c>
+      <c r="BO157">
+        <v>2.9</v>
+      </c>
+      <c r="BP157">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7465155</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45634.60416666666</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" t="s">
+        <v>86</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>204</v>
+      </c>
+      <c r="P158" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q158">
+        <v>2.75</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>4.5</v>
+      </c>
+      <c r="T158">
+        <v>1.5</v>
+      </c>
+      <c r="U158">
+        <v>2.5</v>
+      </c>
+      <c r="V158">
+        <v>3.5</v>
+      </c>
+      <c r="W158">
+        <v>1.29</v>
+      </c>
+      <c r="X158">
+        <v>11</v>
+      </c>
+      <c r="Y158">
+        <v>1.05</v>
+      </c>
+      <c r="Z158">
+        <v>2.05</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>3.6</v>
+      </c>
+      <c r="AC158">
+        <v>1.08</v>
+      </c>
+      <c r="AD158">
+        <v>8.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.44</v>
+      </c>
+      <c r="AF158">
+        <v>2.85</v>
+      </c>
+      <c r="AG158">
+        <v>2.25</v>
+      </c>
+      <c r="AH158">
+        <v>1.57</v>
+      </c>
+      <c r="AI158">
+        <v>2</v>
+      </c>
+      <c r="AJ158">
+        <v>1.75</v>
+      </c>
+      <c r="AK158">
+        <v>1.28</v>
+      </c>
+      <c r="AL158">
+        <v>1.28</v>
+      </c>
+      <c r="AM158">
+        <v>1.8</v>
+      </c>
+      <c r="AN158">
+        <v>2.13</v>
+      </c>
+      <c r="AO158">
+        <v>0.38</v>
+      </c>
+      <c r="AP158">
+        <v>2</v>
+      </c>
+      <c r="AQ158">
+        <v>0.44</v>
+      </c>
+      <c r="AR158">
+        <v>1.47</v>
+      </c>
+      <c r="AS158">
+        <v>1.2</v>
+      </c>
+      <c r="AT158">
+        <v>2.67</v>
+      </c>
+      <c r="AU158">
+        <v>9</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>2</v>
+      </c>
+      <c r="AY158">
+        <v>17</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>8</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
+        <v>11</v>
+      </c>
+      <c r="BD158">
+        <v>1.75</v>
+      </c>
+      <c r="BE158">
+        <v>6.25</v>
+      </c>
+      <c r="BF158">
+        <v>2.32</v>
+      </c>
+      <c r="BG158">
+        <v>1.34</v>
+      </c>
+      <c r="BH158">
+        <v>2.9</v>
+      </c>
+      <c r="BI158">
+        <v>1.58</v>
+      </c>
+      <c r="BJ158">
+        <v>2.18</v>
+      </c>
+      <c r="BK158">
+        <v>2</v>
+      </c>
+      <c r="BL158">
+        <v>1.73</v>
+      </c>
+      <c r="BM158">
+        <v>2.5</v>
+      </c>
+      <c r="BN158">
+        <v>1.46</v>
+      </c>
+      <c r="BO158">
+        <v>3.2</v>
+      </c>
+      <c r="BP158">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7465149</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45634.70833333334</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>87</v>
+      </c>
+      <c r="H159" t="s">
+        <v>80</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>7</v>
+      </c>
+      <c r="O159" t="s">
+        <v>205</v>
+      </c>
+      <c r="P159" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q159">
+        <v>1.91</v>
+      </c>
+      <c r="R159">
+        <v>2.38</v>
+      </c>
+      <c r="S159">
+        <v>7.5</v>
+      </c>
+      <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.63</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>1.4</v>
+      </c>
+      <c r="AA159">
+        <v>4.6</v>
+      </c>
+      <c r="AB159">
+        <v>7.5</v>
+      </c>
+      <c r="AC159">
+        <v>1.04</v>
+      </c>
+      <c r="AD159">
+        <v>13</v>
+      </c>
+      <c r="AE159">
+        <v>1.28</v>
+      </c>
+      <c r="AF159">
+        <v>3.75</v>
+      </c>
+      <c r="AG159">
+        <v>1.8</v>
+      </c>
+      <c r="AH159">
+        <v>1.91</v>
+      </c>
+      <c r="AI159">
+        <v>2.05</v>
+      </c>
+      <c r="AJ159">
+        <v>1.7</v>
+      </c>
+      <c r="AK159">
+        <v>1.07</v>
+      </c>
+      <c r="AL159">
+        <v>1.16</v>
+      </c>
+      <c r="AM159">
+        <v>2.95</v>
+      </c>
+      <c r="AN159">
+        <v>2.43</v>
+      </c>
+      <c r="AO159">
+        <v>0.86</v>
+      </c>
+      <c r="AP159">
+        <v>2.5</v>
+      </c>
+      <c r="AQ159">
+        <v>0.75</v>
+      </c>
+      <c r="AR159">
+        <v>1.6</v>
+      </c>
+      <c r="AS159">
+        <v>1.28</v>
+      </c>
+      <c r="AT159">
+        <v>2.88</v>
+      </c>
+      <c r="AU159">
+        <v>10</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>1</v>
+      </c>
+      <c r="AY159">
+        <v>15</v>
+      </c>
+      <c r="AZ159">
+        <v>5</v>
+      </c>
+      <c r="BA159">
+        <v>5</v>
+      </c>
+      <c r="BB159">
+        <v>3</v>
+      </c>
+      <c r="BC159">
+        <v>8</v>
+      </c>
+      <c r="BD159">
+        <v>1.49</v>
+      </c>
+      <c r="BE159">
+        <v>6.75</v>
+      </c>
+      <c r="BF159">
+        <v>2.9</v>
+      </c>
+      <c r="BG159">
+        <v>1.24</v>
+      </c>
+      <c r="BH159">
+        <v>3.55</v>
+      </c>
+      <c r="BI159">
+        <v>1.43</v>
+      </c>
+      <c r="BJ159">
+        <v>2.55</v>
+      </c>
+      <c r="BK159">
+        <v>1.85</v>
+      </c>
+      <c r="BL159">
+        <v>1.85</v>
+      </c>
+      <c r="BM159">
+        <v>2.08</v>
+      </c>
+      <c r="BN159">
+        <v>1.65</v>
+      </c>
+      <c r="BO159">
+        <v>2.65</v>
+      </c>
+      <c r="BP159">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1206,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3194,7 +3194,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -6696,7 +6696,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR27">
         <v>1.31</v>
@@ -9165,7 +9165,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -13082,7 +13082,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ58">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -13285,7 +13285,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
         <v>0.63</v>
@@ -16169,7 +16169,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73">
         <v>0.44</v>
@@ -17408,7 +17408,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ79">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -18435,7 +18435,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>0.86</v>
@@ -20292,7 +20292,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ93">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -23379,7 +23379,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
         <v>0.29</v>
@@ -25030,7 +25030,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ116">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -27087,7 +27087,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126">
         <v>1.13</v>
@@ -27705,7 +27705,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
         <v>0.38</v>
@@ -28532,7 +28532,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ133">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -33159,7 +33159,7 @@
         <v>45634.41666666666</v>
       </c>
       <c r="F156">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>85</v>
@@ -33964,6 +33964,212 @@
       </c>
       <c r="BP159">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7469680</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45635.70833333334</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>83</v>
+      </c>
+      <c r="H160" t="s">
+        <v>82</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>145</v>
+      </c>
+      <c r="P160" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q160">
+        <v>2.6</v>
+      </c>
+      <c r="R160">
+        <v>1.83</v>
+      </c>
+      <c r="S160">
+        <v>6.5</v>
+      </c>
+      <c r="T160">
+        <v>1.67</v>
+      </c>
+      <c r="U160">
+        <v>2.1</v>
+      </c>
+      <c r="V160">
+        <v>4.33</v>
+      </c>
+      <c r="W160">
+        <v>1.2</v>
+      </c>
+      <c r="X160">
+        <v>15</v>
+      </c>
+      <c r="Y160">
+        <v>1.03</v>
+      </c>
+      <c r="Z160">
+        <v>1.8</v>
+      </c>
+      <c r="AA160">
+        <v>3.1</v>
+      </c>
+      <c r="AB160">
+        <v>5.75</v>
+      </c>
+      <c r="AC160">
+        <v>1.13</v>
+      </c>
+      <c r="AD160">
+        <v>6</v>
+      </c>
+      <c r="AE160">
+        <v>1.6</v>
+      </c>
+      <c r="AF160">
+        <v>2.2</v>
+      </c>
+      <c r="AG160">
+        <v>3</v>
+      </c>
+      <c r="AH160">
+        <v>1.4</v>
+      </c>
+      <c r="AI160">
+        <v>2.63</v>
+      </c>
+      <c r="AJ160">
+        <v>1.44</v>
+      </c>
+      <c r="AK160">
+        <v>1.15</v>
+      </c>
+      <c r="AL160">
+        <v>1.3</v>
+      </c>
+      <c r="AM160">
+        <v>2.05</v>
+      </c>
+      <c r="AN160">
+        <v>1.38</v>
+      </c>
+      <c r="AO160">
+        <v>0.14</v>
+      </c>
+      <c r="AP160">
+        <v>1.56</v>
+      </c>
+      <c r="AQ160">
+        <v>0.13</v>
+      </c>
+      <c r="AR160">
+        <v>1.27</v>
+      </c>
+      <c r="AS160">
+        <v>0.84</v>
+      </c>
+      <c r="AT160">
+        <v>2.11</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>2</v>
+      </c>
+      <c r="AW160">
+        <v>7</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>16</v>
+      </c>
+      <c r="AZ160">
+        <v>10</v>
+      </c>
+      <c r="BA160">
+        <v>3</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>6</v>
+      </c>
+      <c r="BD160">
+        <v>1.47</v>
+      </c>
+      <c r="BE160">
+        <v>6.75</v>
+      </c>
+      <c r="BF160">
+        <v>3.05</v>
+      </c>
+      <c r="BG160">
+        <v>1.54</v>
+      </c>
+      <c r="BH160">
+        <v>2.3</v>
+      </c>
+      <c r="BI160">
+        <v>1.9</v>
+      </c>
+      <c r="BJ160">
+        <v>1.78</v>
+      </c>
+      <c r="BK160">
+        <v>2.43</v>
+      </c>
+      <c r="BL160">
+        <v>1.47</v>
+      </c>
+      <c r="BM160">
+        <v>3.15</v>
+      </c>
+      <c r="BN160">
+        <v>1.29</v>
+      </c>
+      <c r="BO160">
+        <v>4.3</v>
+      </c>
+      <c r="BP160">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,9 @@
     <t>['10', '62', '79', '90+4']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1206,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1468,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1877,7 +1880,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2083,7 +2086,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2289,7 +2292,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2495,7 +2498,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2701,7 +2704,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2907,7 +2910,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3191,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0.13</v>
@@ -3319,7 +3322,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3606,7 +3609,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>1.07</v>
@@ -3731,7 +3734,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4967,7 +4970,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5585,7 +5588,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5997,7 +6000,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6284,7 +6287,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ25">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>0.96</v>
@@ -6487,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -6821,7 +6824,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7233,7 +7236,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -8057,7 +8060,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8675,7 +8678,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8881,7 +8884,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9705,7 +9708,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9911,7 +9914,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10323,7 +10326,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10735,7 +10738,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10941,7 +10944,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11228,7 +11231,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR49">
         <v>1.74</v>
@@ -11765,7 +11768,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11971,7 +11974,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12461,7 +12464,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1.75</v>
@@ -12589,7 +12592,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13001,7 +13004,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13413,7 +13416,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13619,7 +13622,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14031,7 +14034,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14443,7 +14446,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14649,7 +14652,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15267,7 +15270,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15473,7 +15476,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15885,7 +15888,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15963,7 +15966,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16584,7 +16587,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
         <v>1.11</v>
@@ -16709,7 +16712,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17121,7 +17124,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17533,7 +17536,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17739,7 +17742,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18026,7 +18029,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18769,7 +18772,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18847,7 +18850,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>1.38</v>
@@ -19181,7 +19184,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19387,7 +19390,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19799,7 +19802,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20005,7 +20008,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20417,7 +20420,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20829,7 +20832,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21241,7 +21244,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21859,7 +21862,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22065,7 +22068,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22271,7 +22274,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22349,7 +22352,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
         <v>1.75</v>
@@ -22889,7 +22892,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23382,7 +23385,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -23713,7 +23716,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24537,7 +24540,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24949,7 +24952,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25155,7 +25158,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25361,7 +25364,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25773,7 +25776,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26597,7 +26600,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27293,7 +27296,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.57</v>
@@ -27833,7 +27836,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28245,7 +28248,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28657,7 +28660,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28863,7 +28866,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29275,7 +29278,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29687,7 +29690,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29768,7 +29771,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ139">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR139">
         <v>1.33</v>
@@ -29893,7 +29896,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30099,7 +30102,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30511,7 +30514,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30589,7 +30592,7 @@
         <v>1.71</v>
       </c>
       <c r="AP143">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>1.88</v>
@@ -30717,7 +30720,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31129,7 +31132,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31541,7 +31544,7 @@
         <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31747,7 +31750,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31953,7 +31956,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32571,7 +32574,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32983,7 +32986,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33189,7 +33192,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33601,7 +33604,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33807,7 +33810,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34170,6 +34173,212 @@
       </c>
       <c r="BP160">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7465163</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45639.70833333334</v>
+      </c>
+      <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s">
+        <v>75</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>206</v>
+      </c>
+      <c r="P161" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161">
+        <v>1.95</v>
+      </c>
+      <c r="S161">
+        <v>3.2</v>
+      </c>
+      <c r="T161">
+        <v>1.53</v>
+      </c>
+      <c r="U161">
+        <v>2.38</v>
+      </c>
+      <c r="V161">
+        <v>3.75</v>
+      </c>
+      <c r="W161">
+        <v>1.25</v>
+      </c>
+      <c r="X161">
+        <v>11</v>
+      </c>
+      <c r="Y161">
+        <v>1.05</v>
+      </c>
+      <c r="Z161">
+        <v>3.34</v>
+      </c>
+      <c r="AA161">
+        <v>3.12</v>
+      </c>
+      <c r="AB161">
+        <v>2.42</v>
+      </c>
+      <c r="AC161">
+        <v>1.1</v>
+      </c>
+      <c r="AD161">
+        <v>7.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.48</v>
+      </c>
+      <c r="AF161">
+        <v>2.7</v>
+      </c>
+      <c r="AG161">
+        <v>2.5</v>
+      </c>
+      <c r="AH161">
+        <v>1.53</v>
+      </c>
+      <c r="AI161">
+        <v>2.05</v>
+      </c>
+      <c r="AJ161">
+        <v>1.7</v>
+      </c>
+      <c r="AK161">
+        <v>1.6</v>
+      </c>
+      <c r="AL161">
+        <v>1.32</v>
+      </c>
+      <c r="AM161">
+        <v>1.36</v>
+      </c>
+      <c r="AN161">
+        <v>0.75</v>
+      </c>
+      <c r="AO161">
+        <v>0.29</v>
+      </c>
+      <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
+        <v>0.25</v>
+      </c>
+      <c r="AR161">
+        <v>1.1</v>
+      </c>
+      <c r="AS161">
+        <v>0.84</v>
+      </c>
+      <c r="AT161">
+        <v>1.94</v>
+      </c>
+      <c r="AU161">
+        <v>2</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>1</v>
+      </c>
+      <c r="AX161">
+        <v>4</v>
+      </c>
+      <c r="AY161">
+        <v>3</v>
+      </c>
+      <c r="AZ161">
+        <v>15</v>
+      </c>
+      <c r="BA161">
+        <v>1</v>
+      </c>
+      <c r="BB161">
+        <v>7</v>
+      </c>
+      <c r="BC161">
+        <v>8</v>
+      </c>
+      <c r="BD161">
+        <v>2.02</v>
+      </c>
+      <c r="BE161">
+        <v>6.1</v>
+      </c>
+      <c r="BF161">
+        <v>1.98</v>
+      </c>
+      <c r="BG161">
+        <v>1.46</v>
+      </c>
+      <c r="BH161">
+        <v>2.48</v>
+      </c>
+      <c r="BI161">
+        <v>1.78</v>
+      </c>
+      <c r="BJ161">
+        <v>1.9</v>
+      </c>
+      <c r="BK161">
+        <v>2.25</v>
+      </c>
+      <c r="BL161">
+        <v>1.55</v>
+      </c>
+      <c r="BM161">
+        <v>2.9</v>
+      </c>
+      <c r="BN161">
+        <v>1.34</v>
+      </c>
+      <c r="BO161">
+        <v>3.95</v>
+      </c>
+      <c r="BP161">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,15 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['20', '51']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['4', '36', '64']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -848,6 +857,9 @@
   </si>
   <si>
     <t>['12', '32', '57']</t>
+  </si>
+  <si>
+    <t>['39', '45', '56']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1480,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1755,7 +1767,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1880,7 +1892,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2086,7 +2098,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2292,7 +2304,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2498,7 +2510,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2704,7 +2716,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2910,7 +2922,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2988,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3322,7 +3334,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3734,7 +3746,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3812,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -4430,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4970,7 +4982,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5463,7 +5475,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5588,7 +5600,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5669,7 +5681,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -5872,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -6000,7 +6012,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6078,7 +6090,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>2.09</v>
@@ -6824,7 +6836,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7111,7 +7123,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7236,7 +7248,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7317,7 +7329,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ30">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7932,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -8060,7 +8072,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8678,7 +8690,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8759,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8884,7 +8896,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8962,10 +8974,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9708,7 +9720,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9786,7 +9798,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.75</v>
@@ -9914,7 +9926,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9992,7 +10004,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43">
         <v>0.44</v>
@@ -10198,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ44">
         <v>0.29</v>
@@ -10326,7 +10338,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10407,7 +10419,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -10738,7 +10750,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10944,7 +10956,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11434,10 +11446,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11640,7 +11652,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11768,7 +11780,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11974,7 +11986,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12592,7 +12604,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12879,7 +12891,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.38</v>
@@ -13004,7 +13016,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13416,7 +13428,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13497,7 +13509,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ60">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13622,7 +13634,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13906,7 +13918,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62">
         <v>1.88</v>
@@ -14034,7 +14046,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14321,7 +14333,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14446,7 +14458,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14524,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65">
         <v>0.38</v>
@@ -14652,7 +14664,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15270,7 +15282,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15348,7 +15360,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.75</v>
@@ -15476,7 +15488,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15888,7 +15900,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16378,7 +16390,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>0.63</v>
@@ -16712,7 +16724,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16999,7 +17011,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -17124,7 +17136,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17536,7 +17548,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17617,7 +17629,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ80">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17742,7 +17754,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18232,7 +18244,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18441,7 +18453,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.3</v>
@@ -18647,7 +18659,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.24</v>
@@ -18772,7 +18784,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19184,7 +19196,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19390,7 +19402,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19674,7 +19686,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -19802,7 +19814,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20008,7 +20020,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20420,7 +20432,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20832,7 +20844,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20913,7 +20925,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21116,7 +21128,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.38</v>
@@ -21244,7 +21256,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21862,7 +21874,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22068,7 +22080,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22146,7 +22158,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
         <v>0.75</v>
@@ -22274,7 +22286,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22558,7 +22570,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104">
         <v>0.44</v>
@@ -22767,7 +22779,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -22892,7 +22904,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23179,7 +23191,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR107">
         <v>1.1</v>
@@ -23716,7 +23728,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23797,7 +23809,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -24000,7 +24012,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>1.57</v>
@@ -24540,7 +24552,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24952,7 +24964,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25158,7 +25170,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25236,7 +25248,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ117">
         <v>1.75</v>
@@ -25364,7 +25376,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25776,7 +25788,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25854,7 +25866,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120">
         <v>1.13</v>
@@ -26063,7 +26075,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ121">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>1.83</v>
@@ -26600,7 +26612,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26681,7 +26693,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR124">
         <v>1.82</v>
@@ -26884,7 +26896,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
         <v>1.88</v>
@@ -27093,7 +27105,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ126">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27836,7 +27848,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28248,7 +28260,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28660,7 +28672,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28866,7 +28878,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29150,7 +29162,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ136">
         <v>1.38</v>
@@ -29278,7 +29290,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29359,7 +29371,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -29690,7 +29702,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29768,7 +29780,7 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>0.25</v>
@@ -29896,7 +29908,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30102,7 +30114,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30386,10 +30398,10 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ142">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -30514,7 +30526,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30720,7 +30732,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -30801,7 +30813,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ144">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.56</v>
@@ -31132,7 +31144,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31210,7 +31222,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ146">
         <v>1.57</v>
@@ -31544,7 +31556,7 @@
         <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31622,10 +31634,10 @@
         <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ148">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
         <v>1.35</v>
@@ -31750,7 +31762,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31828,7 +31840,7 @@
         <v>2.11</v>
       </c>
       <c r="AP149">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149">
         <v>2.09</v>
@@ -31956,7 +31968,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32037,7 +32049,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ150">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32574,7 +32586,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32986,7 +32998,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33067,7 +33079,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ155">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR155">
         <v>1.38</v>
@@ -33192,7 +33204,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33604,7 +33616,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33810,7 +33822,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34379,6 +34391,830 @@
       </c>
       <c r="BP161">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7469583</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45640.41666666666</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>82</v>
+      </c>
+      <c r="H162" t="s">
+        <v>74</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>104</v>
+      </c>
+      <c r="P162" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q162">
+        <v>3.5</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>3.4</v>
+      </c>
+      <c r="T162">
+        <v>1.5</v>
+      </c>
+      <c r="U162">
+        <v>2.5</v>
+      </c>
+      <c r="V162">
+        <v>3.4</v>
+      </c>
+      <c r="W162">
+        <v>1.3</v>
+      </c>
+      <c r="X162">
+        <v>10</v>
+      </c>
+      <c r="Y162">
+        <v>1.06</v>
+      </c>
+      <c r="Z162">
+        <v>2.82</v>
+      </c>
+      <c r="AA162">
+        <v>3.17</v>
+      </c>
+      <c r="AB162">
+        <v>2.76</v>
+      </c>
+      <c r="AC162">
+        <v>1.08</v>
+      </c>
+      <c r="AD162">
+        <v>8.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.42</v>
+      </c>
+      <c r="AF162">
+        <v>2.9</v>
+      </c>
+      <c r="AG162">
+        <v>2.3</v>
+      </c>
+      <c r="AH162">
+        <v>1.62</v>
+      </c>
+      <c r="AI162">
+        <v>1.95</v>
+      </c>
+      <c r="AJ162">
+        <v>1.8</v>
+      </c>
+      <c r="AK162">
+        <v>1.5</v>
+      </c>
+      <c r="AL162">
+        <v>1.32</v>
+      </c>
+      <c r="AM162">
+        <v>1.45</v>
+      </c>
+      <c r="AN162">
+        <v>1.71</v>
+      </c>
+      <c r="AO162">
+        <v>0.86</v>
+      </c>
+      <c r="AP162">
+        <v>1.63</v>
+      </c>
+      <c r="AQ162">
+        <v>0.88</v>
+      </c>
+      <c r="AR162">
+        <v>1.12</v>
+      </c>
+      <c r="AS162">
+        <v>0.74</v>
+      </c>
+      <c r="AT162">
+        <v>1.86</v>
+      </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>0</v>
+      </c>
+      <c r="AW162">
+        <v>4</v>
+      </c>
+      <c r="AX162">
+        <v>6</v>
+      </c>
+      <c r="AY162">
+        <v>10</v>
+      </c>
+      <c r="AZ162">
+        <v>8</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>2</v>
+      </c>
+      <c r="BE162">
+        <v>6.75</v>
+      </c>
+      <c r="BF162">
+        <v>1.97</v>
+      </c>
+      <c r="BG162">
+        <v>1.26</v>
+      </c>
+      <c r="BH162">
+        <v>3.4</v>
+      </c>
+      <c r="BI162">
+        <v>1.47</v>
+      </c>
+      <c r="BJ162">
+        <v>2.48</v>
+      </c>
+      <c r="BK162">
+        <v>1.74</v>
+      </c>
+      <c r="BL162">
+        <v>1.95</v>
+      </c>
+      <c r="BM162">
+        <v>2.17</v>
+      </c>
+      <c r="BN162">
+        <v>1.6</v>
+      </c>
+      <c r="BO162">
+        <v>2.7</v>
+      </c>
+      <c r="BP162">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7465162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45640.51041666666</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>77</v>
+      </c>
+      <c r="H163" t="s">
+        <v>89</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>207</v>
+      </c>
+      <c r="P163" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q163">
+        <v>3.1</v>
+      </c>
+      <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>4</v>
+      </c>
+      <c r="T163">
+        <v>1.53</v>
+      </c>
+      <c r="U163">
+        <v>2.38</v>
+      </c>
+      <c r="V163">
+        <v>3.75</v>
+      </c>
+      <c r="W163">
+        <v>1.25</v>
+      </c>
+      <c r="X163">
+        <v>11</v>
+      </c>
+      <c r="Y163">
+        <v>1.05</v>
+      </c>
+      <c r="Z163">
+        <v>2.37</v>
+      </c>
+      <c r="AA163">
+        <v>3.07</v>
+      </c>
+      <c r="AB163">
+        <v>3.51</v>
+      </c>
+      <c r="AC163">
+        <v>1.1</v>
+      </c>
+      <c r="AD163">
+        <v>8</v>
+      </c>
+      <c r="AE163">
+        <v>1.47</v>
+      </c>
+      <c r="AF163">
+        <v>2.8</v>
+      </c>
+      <c r="AG163">
+        <v>2.38</v>
+      </c>
+      <c r="AH163">
+        <v>1.57</v>
+      </c>
+      <c r="AI163">
+        <v>2</v>
+      </c>
+      <c r="AJ163">
+        <v>1.75</v>
+      </c>
+      <c r="AK163">
+        <v>1.35</v>
+      </c>
+      <c r="AL163">
+        <v>1.32</v>
+      </c>
+      <c r="AM163">
+        <v>1.63</v>
+      </c>
+      <c r="AN163">
+        <v>1.33</v>
+      </c>
+      <c r="AO163">
+        <v>1.13</v>
+      </c>
+      <c r="AP163">
+        <v>1.5</v>
+      </c>
+      <c r="AQ163">
+        <v>1</v>
+      </c>
+      <c r="AR163">
+        <v>1.23</v>
+      </c>
+      <c r="AS163">
+        <v>1.12</v>
+      </c>
+      <c r="AT163">
+        <v>2.35</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>2</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>9</v>
+      </c>
+      <c r="AZ163">
+        <v>14</v>
+      </c>
+      <c r="BA163">
+        <v>2</v>
+      </c>
+      <c r="BB163">
+        <v>4</v>
+      </c>
+      <c r="BC163">
+        <v>6</v>
+      </c>
+      <c r="BD163">
+        <v>1.76</v>
+      </c>
+      <c r="BE163">
+        <v>6.4</v>
+      </c>
+      <c r="BF163">
+        <v>2.3</v>
+      </c>
+      <c r="BG163">
+        <v>1.41</v>
+      </c>
+      <c r="BH163">
+        <v>2.63</v>
+      </c>
+      <c r="BI163">
+        <v>1.72</v>
+      </c>
+      <c r="BJ163">
+        <v>1.98</v>
+      </c>
+      <c r="BK163">
+        <v>2.15</v>
+      </c>
+      <c r="BL163">
+        <v>1.61</v>
+      </c>
+      <c r="BM163">
+        <v>2.8</v>
+      </c>
+      <c r="BN163">
+        <v>1.37</v>
+      </c>
+      <c r="BO163">
+        <v>3.7</v>
+      </c>
+      <c r="BP163">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7465161</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45640.60416666666</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>80</v>
+      </c>
+      <c r="H164" t="s">
+        <v>72</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>208</v>
+      </c>
+      <c r="P164" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q164">
+        <v>2.88</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>3.75</v>
+      </c>
+      <c r="T164">
+        <v>1.44</v>
+      </c>
+      <c r="U164">
+        <v>2.63</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>9</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>2.28</v>
+      </c>
+      <c r="AA164">
+        <v>3.32</v>
+      </c>
+      <c r="AB164">
+        <v>3.4</v>
+      </c>
+      <c r="AC164">
+        <v>1.06</v>
+      </c>
+      <c r="AD164">
+        <v>10</v>
+      </c>
+      <c r="AE164">
+        <v>1.33</v>
+      </c>
+      <c r="AF164">
+        <v>3.3</v>
+      </c>
+      <c r="AG164">
+        <v>2.07</v>
+      </c>
+      <c r="AH164">
+        <v>1.83</v>
+      </c>
+      <c r="AI164">
+        <v>1.8</v>
+      </c>
+      <c r="AJ164">
+        <v>1.95</v>
+      </c>
+      <c r="AK164">
+        <v>1.35</v>
+      </c>
+      <c r="AL164">
+        <v>1.28</v>
+      </c>
+      <c r="AM164">
+        <v>1.68</v>
+      </c>
+      <c r="AN164">
+        <v>1.63</v>
+      </c>
+      <c r="AO164">
+        <v>0.57</v>
+      </c>
+      <c r="AP164">
+        <v>1.78</v>
+      </c>
+      <c r="AQ164">
+        <v>0.5</v>
+      </c>
+      <c r="AR164">
+        <v>1.35</v>
+      </c>
+      <c r="AS164">
+        <v>1.27</v>
+      </c>
+      <c r="AT164">
+        <v>2.62</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>7</v>
+      </c>
+      <c r="AY164">
+        <v>9</v>
+      </c>
+      <c r="AZ164">
+        <v>11</v>
+      </c>
+      <c r="BA164">
+        <v>3</v>
+      </c>
+      <c r="BB164">
+        <v>4</v>
+      </c>
+      <c r="BC164">
+        <v>7</v>
+      </c>
+      <c r="BD164">
+        <v>1.63</v>
+      </c>
+      <c r="BE164">
+        <v>6.4</v>
+      </c>
+      <c r="BF164">
+        <v>2.55</v>
+      </c>
+      <c r="BG164">
+        <v>1.3</v>
+      </c>
+      <c r="BH164">
+        <v>3.05</v>
+      </c>
+      <c r="BI164">
+        <v>1.54</v>
+      </c>
+      <c r="BJ164">
+        <v>2.3</v>
+      </c>
+      <c r="BK164">
+        <v>1.89</v>
+      </c>
+      <c r="BL164">
+        <v>1.8</v>
+      </c>
+      <c r="BM164">
+        <v>2.38</v>
+      </c>
+      <c r="BN164">
+        <v>1.5</v>
+      </c>
+      <c r="BO164">
+        <v>3.05</v>
+      </c>
+      <c r="BP164">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7465158</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45640.70833333334</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>88</v>
+      </c>
+      <c r="H165" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>4</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
+        <v>6</v>
+      </c>
+      <c r="O165" t="s">
+        <v>209</v>
+      </c>
+      <c r="P165" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q165">
+        <v>5.5</v>
+      </c>
+      <c r="R165">
+        <v>2.3</v>
+      </c>
+      <c r="S165">
+        <v>2.1</v>
+      </c>
+      <c r="T165">
+        <v>1.36</v>
+      </c>
+      <c r="U165">
+        <v>3</v>
+      </c>
+      <c r="V165">
+        <v>2.63</v>
+      </c>
+      <c r="W165">
+        <v>1.44</v>
+      </c>
+      <c r="X165">
+        <v>7</v>
+      </c>
+      <c r="Y165">
+        <v>1.1</v>
+      </c>
+      <c r="Z165">
+        <v>5.9</v>
+      </c>
+      <c r="AA165">
+        <v>3.98</v>
+      </c>
+      <c r="AB165">
+        <v>1.62</v>
+      </c>
+      <c r="AC165">
+        <v>1.03</v>
+      </c>
+      <c r="AD165">
+        <v>13</v>
+      </c>
+      <c r="AE165">
+        <v>1.25</v>
+      </c>
+      <c r="AF165">
+        <v>4</v>
+      </c>
+      <c r="AG165">
+        <v>1.85</v>
+      </c>
+      <c r="AH165">
+        <v>2.04</v>
+      </c>
+      <c r="AI165">
+        <v>1.8</v>
+      </c>
+      <c r="AJ165">
+        <v>1.95</v>
+      </c>
+      <c r="AK165">
+        <v>2.5</v>
+      </c>
+      <c r="AL165">
+        <v>1.19</v>
+      </c>
+      <c r="AM165">
+        <v>1.13</v>
+      </c>
+      <c r="AN165">
+        <v>1.14</v>
+      </c>
+      <c r="AO165">
+        <v>1.88</v>
+      </c>
+      <c r="AP165">
+        <v>1.13</v>
+      </c>
+      <c r="AQ165">
+        <v>1.78</v>
+      </c>
+      <c r="AR165">
+        <v>1.72</v>
+      </c>
+      <c r="AS165">
+        <v>1.55</v>
+      </c>
+      <c r="AT165">
+        <v>3.27</v>
+      </c>
+      <c r="AU165">
+        <v>6</v>
+      </c>
+      <c r="AV165">
+        <v>7</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>5</v>
+      </c>
+      <c r="AY165">
+        <v>15</v>
+      </c>
+      <c r="AZ165">
+        <v>14</v>
+      </c>
+      <c r="BA165">
+        <v>4</v>
+      </c>
+      <c r="BB165">
+        <v>3</v>
+      </c>
+      <c r="BC165">
+        <v>7</v>
+      </c>
+      <c r="BD165">
+        <v>2.95</v>
+      </c>
+      <c r="BE165">
+        <v>6.75</v>
+      </c>
+      <c r="BF165">
+        <v>1.49</v>
+      </c>
+      <c r="BG165">
+        <v>1.29</v>
+      </c>
+      <c r="BH165">
+        <v>3.15</v>
+      </c>
+      <c r="BI165">
+        <v>1.5</v>
+      </c>
+      <c r="BJ165">
+        <v>2.33</v>
+      </c>
+      <c r="BK165">
+        <v>1.83</v>
+      </c>
+      <c r="BL165">
+        <v>1.85</v>
+      </c>
+      <c r="BM165">
+        <v>2.3</v>
+      </c>
+      <c r="BN165">
+        <v>1.54</v>
+      </c>
+      <c r="BO165">
+        <v>2.9</v>
+      </c>
+      <c r="BP165">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,12 @@
     <t>['4', '36', '64']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -683,9 +689,6 @@
   </si>
   <si>
     <t>['45+6', '77']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['45+4']</t>
@@ -826,9 +829,6 @@
     <t>['49', '67']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['26', '35', '37', '52', '90+2']</t>
   </si>
   <si>
@@ -860,6 +860,12 @@
   </si>
   <si>
     <t>['39', '45', '56']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['32', '47']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1486,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1561,7 +1567,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ2">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1892,7 +1898,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2098,7 +2104,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2304,7 +2310,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2385,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2510,7 +2516,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2716,7 +2722,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2794,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2922,7 +2928,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3334,7 +3340,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3412,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.88</v>
@@ -3746,7 +3752,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4236,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ15">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4982,7 +4988,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5063,7 +5069,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5266,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5472,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5600,7 +5606,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5678,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>0.5</v>
@@ -6012,7 +6018,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6505,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6708,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ27">
         <v>0.13</v>
@@ -6836,7 +6842,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6914,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28">
         <v>0.44</v>
@@ -7248,7 +7254,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7532,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ31">
         <v>0.38</v>
@@ -8072,7 +8078,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8562,10 +8568,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR36">
         <v>0.71</v>
@@ -8690,7 +8696,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8896,7 +8902,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9389,7 +9395,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -9595,7 +9601,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ41">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -9720,7 +9726,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9926,7 +9932,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10213,7 +10219,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ44">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10338,7 +10344,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10416,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45">
         <v>1.78</v>
@@ -10750,7 +10756,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10956,7 +10962,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11037,7 +11043,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11240,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ49">
         <v>0.25</v>
@@ -11780,7 +11786,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11861,7 +11867,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11986,7 +11992,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12067,7 +12073,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12270,7 +12276,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12604,7 +12610,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12685,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -13016,7 +13022,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13303,7 +13309,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ59">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR59">
         <v>1.14</v>
@@ -13428,7 +13434,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13634,7 +13640,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13712,7 +13718,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>2.09</v>
@@ -14046,7 +14052,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14458,7 +14464,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14664,7 +14670,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15154,10 +15160,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ68">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.97</v>
@@ -15282,7 +15288,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15488,7 +15494,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15569,7 +15575,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -15900,7 +15906,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16393,7 +16399,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR74">
         <v>1.48</v>
@@ -16596,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16724,7 +16730,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17136,7 +17142,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17548,7 +17554,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17626,7 +17632,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ80">
         <v>1.78</v>
@@ -17754,7 +17760,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17832,10 +17838,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18784,7 +18790,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19196,7 +19202,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19277,7 +19283,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19402,7 +19408,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19480,7 +19486,7 @@
         <v>2.4</v>
       </c>
       <c r="AP89">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>2.09</v>
@@ -19689,7 +19695,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19814,7 +19820,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19892,7 +19898,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ91">
         <v>1.88</v>
@@ -20020,7 +20026,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20098,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>0.38</v>
@@ -20432,7 +20438,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20513,7 +20519,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -20844,7 +20850,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21256,7 +21262,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21334,10 +21340,10 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR98">
         <v>1.58</v>
@@ -21540,10 +21546,10 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR99">
         <v>1.66</v>
@@ -21746,7 +21752,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ100">
         <v>0.75</v>
@@ -21874,7 +21880,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21955,7 +21961,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.21</v>
@@ -22080,7 +22086,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22286,7 +22292,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22904,7 +22910,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23728,7 +23734,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23806,7 +23812,7 @@
         <v>0.5</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ110">
         <v>0.88</v>
@@ -24015,7 +24021,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24218,7 +24224,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1.5</v>
@@ -24552,7 +24558,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24633,7 +24639,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.33</v>
@@ -24836,10 +24842,10 @@
         <v>0.6</v>
       </c>
       <c r="AP115">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR115">
         <v>1.58</v>
@@ -24964,7 +24970,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25042,7 +25048,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ116">
         <v>0.13</v>
@@ -25170,7 +25176,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25376,7 +25382,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25457,7 +25463,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ118">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25663,7 +25669,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ119">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -25788,7 +25794,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25869,7 +25875,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -26278,7 +26284,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>0.44</v>
@@ -26612,7 +26618,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27311,7 +27317,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27514,7 +27520,7 @@
         <v>2.57</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
         <v>2.09</v>
@@ -27848,7 +27854,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27929,7 +27935,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.31</v>
@@ -28132,7 +28138,7 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ131">
         <v>0.44</v>
@@ -28260,7 +28266,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28672,7 +28678,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28878,7 +28884,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29290,7 +29296,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29702,7 +29708,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29908,7 +29914,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -29986,10 +29992,10 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ140">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR140">
         <v>1.85</v>
@@ -30114,7 +30120,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="Q141">
         <v>2.5</v>
@@ -30192,10 +30198,10 @@
         <v>0.57</v>
       </c>
       <c r="AP141">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ141">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR141">
         <v>1.08</v>
@@ -30810,7 +30816,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -31019,7 +31025,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ145">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR145">
         <v>1.86</v>
@@ -31225,7 +31231,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ146">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
         <v>1.72</v>
@@ -31428,10 +31434,10 @@
         <v>0.86</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -31556,7 +31562,7 @@
         <v>197</v>
       </c>
       <c r="P148" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -33900,7 +33906,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ159">
         <v>0.75</v>
@@ -35215,6 +35221,1036 @@
       </c>
       <c r="BP165">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7465156</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45641.41666666666</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>87</v>
+      </c>
+      <c r="H166" t="s">
+        <v>83</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>210</v>
+      </c>
+      <c r="P166" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>2.1</v>
+      </c>
+      <c r="S166">
+        <v>9.5</v>
+      </c>
+      <c r="T166">
+        <v>1.5</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>3.5</v>
+      </c>
+      <c r="W166">
+        <v>1.29</v>
+      </c>
+      <c r="X166">
+        <v>11</v>
+      </c>
+      <c r="Y166">
+        <v>1.05</v>
+      </c>
+      <c r="Z166">
+        <v>1.41</v>
+      </c>
+      <c r="AA166">
+        <v>4.35</v>
+      </c>
+      <c r="AB166">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="AC166">
+        <v>1.08</v>
+      </c>
+      <c r="AD166">
+        <v>8.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.45</v>
+      </c>
+      <c r="AF166">
+        <v>2.8</v>
+      </c>
+      <c r="AG166">
+        <v>2.3</v>
+      </c>
+      <c r="AH166">
+        <v>1.62</v>
+      </c>
+      <c r="AI166">
+        <v>2.75</v>
+      </c>
+      <c r="AJ166">
+        <v>1.4</v>
+      </c>
+      <c r="AK166">
+        <v>1.04</v>
+      </c>
+      <c r="AL166">
+        <v>1.19</v>
+      </c>
+      <c r="AM166">
+        <v>2.95</v>
+      </c>
+      <c r="AN166">
+        <v>2.5</v>
+      </c>
+      <c r="AO166">
+        <v>0.29</v>
+      </c>
+      <c r="AP166">
+        <v>2.56</v>
+      </c>
+      <c r="AQ166">
+        <v>0.25</v>
+      </c>
+      <c r="AR166">
+        <v>1.68</v>
+      </c>
+      <c r="AS166">
+        <v>1.04</v>
+      </c>
+      <c r="AT166">
+        <v>2.72</v>
+      </c>
+      <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>6</v>
+      </c>
+      <c r="AX166">
+        <v>3</v>
+      </c>
+      <c r="AY166">
+        <v>12</v>
+      </c>
+      <c r="AZ166">
+        <v>8</v>
+      </c>
+      <c r="BA166">
+        <v>8</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>11</v>
+      </c>
+      <c r="BD166">
+        <v>1.33</v>
+      </c>
+      <c r="BE166">
+        <v>7</v>
+      </c>
+      <c r="BF166">
+        <v>3.65</v>
+      </c>
+      <c r="BG166">
+        <v>1.44</v>
+      </c>
+      <c r="BH166">
+        <v>2.55</v>
+      </c>
+      <c r="BI166">
+        <v>1.75</v>
+      </c>
+      <c r="BJ166">
+        <v>1.95</v>
+      </c>
+      <c r="BK166">
+        <v>2.2</v>
+      </c>
+      <c r="BL166">
+        <v>1.58</v>
+      </c>
+      <c r="BM166">
+        <v>2.8</v>
+      </c>
+      <c r="BN166">
+        <v>1.36</v>
+      </c>
+      <c r="BO166">
+        <v>3.8</v>
+      </c>
+      <c r="BP166">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7465159</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45641.51041666666</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>86</v>
+      </c>
+      <c r="H167" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>211</v>
+      </c>
+      <c r="P167" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q167">
+        <v>4.33</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>3</v>
+      </c>
+      <c r="T167">
+        <v>1.53</v>
+      </c>
+      <c r="U167">
+        <v>2.38</v>
+      </c>
+      <c r="V167">
+        <v>3.75</v>
+      </c>
+      <c r="W167">
+        <v>1.25</v>
+      </c>
+      <c r="X167">
+        <v>11</v>
+      </c>
+      <c r="Y167">
+        <v>1.05</v>
+      </c>
+      <c r="Z167">
+        <v>3.64</v>
+      </c>
+      <c r="AA167">
+        <v>3.19</v>
+      </c>
+      <c r="AB167">
+        <v>2.25</v>
+      </c>
+      <c r="AC167">
+        <v>1.1</v>
+      </c>
+      <c r="AD167">
+        <v>7.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.48</v>
+      </c>
+      <c r="AF167">
+        <v>2.75</v>
+      </c>
+      <c r="AG167">
+        <v>2.5</v>
+      </c>
+      <c r="AH167">
+        <v>1.53</v>
+      </c>
+      <c r="AI167">
+        <v>2.05</v>
+      </c>
+      <c r="AJ167">
+        <v>1.7</v>
+      </c>
+      <c r="AK167">
+        <v>1.68</v>
+      </c>
+      <c r="AL167">
+        <v>1.32</v>
+      </c>
+      <c r="AM167">
+        <v>1.3</v>
+      </c>
+      <c r="AN167">
+        <v>1.57</v>
+      </c>
+      <c r="AO167">
+        <v>1.57</v>
+      </c>
+      <c r="AP167">
+        <v>1.5</v>
+      </c>
+      <c r="AQ167">
+        <v>1.5</v>
+      </c>
+      <c r="AR167">
+        <v>1.17</v>
+      </c>
+      <c r="AS167">
+        <v>1.28</v>
+      </c>
+      <c r="AT167">
+        <v>2.45</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>3</v>
+      </c>
+      <c r="AW167">
+        <v>2</v>
+      </c>
+      <c r="AX167">
+        <v>7</v>
+      </c>
+      <c r="AY167">
+        <v>7</v>
+      </c>
+      <c r="AZ167">
+        <v>10</v>
+      </c>
+      <c r="BA167">
+        <v>2</v>
+      </c>
+      <c r="BB167">
+        <v>4</v>
+      </c>
+      <c r="BC167">
+        <v>6</v>
+      </c>
+      <c r="BD167">
+        <v>2.3</v>
+      </c>
+      <c r="BE167">
+        <v>6.4</v>
+      </c>
+      <c r="BF167">
+        <v>1.74</v>
+      </c>
+      <c r="BG167">
+        <v>1.35</v>
+      </c>
+      <c r="BH167">
+        <v>2.9</v>
+      </c>
+      <c r="BI167">
+        <v>1.58</v>
+      </c>
+      <c r="BJ167">
+        <v>2.18</v>
+      </c>
+      <c r="BK167">
+        <v>1.95</v>
+      </c>
+      <c r="BL167">
+        <v>1.74</v>
+      </c>
+      <c r="BM167">
+        <v>2.48</v>
+      </c>
+      <c r="BN167">
+        <v>1.47</v>
+      </c>
+      <c r="BO167">
+        <v>3.2</v>
+      </c>
+      <c r="BP167">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7465164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45641.60416666666</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>73</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>104</v>
+      </c>
+      <c r="P168" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>2.2</v>
+      </c>
+      <c r="S168">
+        <v>8.5</v>
+      </c>
+      <c r="T168">
+        <v>1.44</v>
+      </c>
+      <c r="U168">
+        <v>2.63</v>
+      </c>
+      <c r="V168">
+        <v>3.25</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>9</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>1.42</v>
+      </c>
+      <c r="AA168">
+        <v>4.42</v>
+      </c>
+      <c r="AB168">
+        <v>9.24</v>
+      </c>
+      <c r="AC168">
+        <v>1.07</v>
+      </c>
+      <c r="AD168">
+        <v>9.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.38</v>
+      </c>
+      <c r="AF168">
+        <v>3.1</v>
+      </c>
+      <c r="AG168">
+        <v>2.1</v>
+      </c>
+      <c r="AH168">
+        <v>1.73</v>
+      </c>
+      <c r="AI168">
+        <v>2.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.5</v>
+      </c>
+      <c r="AK168">
+        <v>1.06</v>
+      </c>
+      <c r="AL168">
+        <v>1.19</v>
+      </c>
+      <c r="AM168">
+        <v>2.85</v>
+      </c>
+      <c r="AN168">
+        <v>1.25</v>
+      </c>
+      <c r="AO168">
+        <v>1.13</v>
+      </c>
+      <c r="AP168">
+        <v>1.22</v>
+      </c>
+      <c r="AQ168">
+        <v>1.11</v>
+      </c>
+      <c r="AR168">
+        <v>1.43</v>
+      </c>
+      <c r="AS168">
+        <v>1.08</v>
+      </c>
+      <c r="AT168">
+        <v>2.51</v>
+      </c>
+      <c r="AU168">
+        <v>5</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
+        <v>3</v>
+      </c>
+      <c r="AY168">
+        <v>16</v>
+      </c>
+      <c r="AZ168">
+        <v>10</v>
+      </c>
+      <c r="BA168">
+        <v>8</v>
+      </c>
+      <c r="BB168">
+        <v>6</v>
+      </c>
+      <c r="BC168">
+        <v>14</v>
+      </c>
+      <c r="BD168">
+        <v>1.24</v>
+      </c>
+      <c r="BE168">
+        <v>8</v>
+      </c>
+      <c r="BF168">
+        <v>4.4</v>
+      </c>
+      <c r="BG168">
+        <v>1.3</v>
+      </c>
+      <c r="BH168">
+        <v>3.05</v>
+      </c>
+      <c r="BI168">
+        <v>1.53</v>
+      </c>
+      <c r="BJ168">
+        <v>2.3</v>
+      </c>
+      <c r="BK168">
+        <v>1.85</v>
+      </c>
+      <c r="BL168">
+        <v>1.83</v>
+      </c>
+      <c r="BM168">
+        <v>2.32</v>
+      </c>
+      <c r="BN168">
+        <v>1.52</v>
+      </c>
+      <c r="BO168">
+        <v>2.95</v>
+      </c>
+      <c r="BP168">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7465160</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45641.60416666666</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>79</v>
+      </c>
+      <c r="H169" t="s">
+        <v>71</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>102</v>
+      </c>
+      <c r="P169" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q169">
+        <v>2.3</v>
+      </c>
+      <c r="R169">
+        <v>2.38</v>
+      </c>
+      <c r="S169">
+        <v>4.5</v>
+      </c>
+      <c r="T169">
+        <v>1.33</v>
+      </c>
+      <c r="U169">
+        <v>3.25</v>
+      </c>
+      <c r="V169">
+        <v>2.5</v>
+      </c>
+      <c r="W169">
+        <v>1.5</v>
+      </c>
+      <c r="X169">
+        <v>6</v>
+      </c>
+      <c r="Y169">
+        <v>1.13</v>
+      </c>
+      <c r="Z169">
+        <v>1.81</v>
+      </c>
+      <c r="AA169">
+        <v>3.93</v>
+      </c>
+      <c r="AB169">
+        <v>4.37</v>
+      </c>
+      <c r="AC169">
+        <v>1.03</v>
+      </c>
+      <c r="AD169">
+        <v>15</v>
+      </c>
+      <c r="AE169">
+        <v>1.22</v>
+      </c>
+      <c r="AF169">
+        <v>4.33</v>
+      </c>
+      <c r="AG169">
+        <v>1.67</v>
+      </c>
+      <c r="AH169">
+        <v>2.2</v>
+      </c>
+      <c r="AI169">
+        <v>1.62</v>
+      </c>
+      <c r="AJ169">
+        <v>2.2</v>
+      </c>
+      <c r="AK169">
+        <v>1.24</v>
+      </c>
+      <c r="AL169">
+        <v>1.22</v>
+      </c>
+      <c r="AM169">
+        <v>2.05</v>
+      </c>
+      <c r="AN169">
+        <v>1.71</v>
+      </c>
+      <c r="AO169">
+        <v>0.75</v>
+      </c>
+      <c r="AP169">
+        <v>1.5</v>
+      </c>
+      <c r="AQ169">
+        <v>1</v>
+      </c>
+      <c r="AR169">
+        <v>1.5</v>
+      </c>
+      <c r="AS169">
+        <v>1.22</v>
+      </c>
+      <c r="AT169">
+        <v>2.72</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>10</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>19</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>5</v>
+      </c>
+      <c r="BC169">
+        <v>10</v>
+      </c>
+      <c r="BD169">
+        <v>1.67</v>
+      </c>
+      <c r="BE169">
+        <v>6.4</v>
+      </c>
+      <c r="BF169">
+        <v>2.48</v>
+      </c>
+      <c r="BG169">
+        <v>1.28</v>
+      </c>
+      <c r="BH169">
+        <v>3.2</v>
+      </c>
+      <c r="BI169">
+        <v>1.49</v>
+      </c>
+      <c r="BJ169">
+        <v>2.4</v>
+      </c>
+      <c r="BK169">
+        <v>1.8</v>
+      </c>
+      <c r="BL169">
+        <v>1.89</v>
+      </c>
+      <c r="BM169">
+        <v>2.28</v>
+      </c>
+      <c r="BN169">
+        <v>1.55</v>
+      </c>
+      <c r="BO169">
+        <v>2.9</v>
+      </c>
+      <c r="BP169">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7465157</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45641.70833333334</v>
+      </c>
+      <c r="F170">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>81</v>
+      </c>
+      <c r="H170" t="s">
+        <v>85</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>104</v>
+      </c>
+      <c r="P170" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q170">
+        <v>1.5</v>
+      </c>
+      <c r="R170">
+        <v>3.2</v>
+      </c>
+      <c r="S170">
+        <v>11</v>
+      </c>
+      <c r="T170">
+        <v>1.2</v>
+      </c>
+      <c r="U170">
+        <v>4.33</v>
+      </c>
+      <c r="V170">
+        <v>1.91</v>
+      </c>
+      <c r="W170">
+        <v>1.8</v>
+      </c>
+      <c r="X170">
+        <v>4</v>
+      </c>
+      <c r="Y170">
+        <v>1.22</v>
+      </c>
+      <c r="Z170">
+        <v>1.14</v>
+      </c>
+      <c r="AA170">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AB170">
+        <v>16.56</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>1.09</v>
+      </c>
+      <c r="AF170">
+        <v>7.5</v>
+      </c>
+      <c r="AG170">
+        <v>1.33</v>
+      </c>
+      <c r="AH170">
+        <v>3.4</v>
+      </c>
+      <c r="AI170">
+        <v>2</v>
+      </c>
+      <c r="AJ170">
+        <v>1.75</v>
+      </c>
+      <c r="AK170">
+        <v>1.02</v>
+      </c>
+      <c r="AL170">
+        <v>1.07</v>
+      </c>
+      <c r="AM170">
+        <v>5.5</v>
+      </c>
+      <c r="AN170">
+        <v>2.5</v>
+      </c>
+      <c r="AO170">
+        <v>0.63</v>
+      </c>
+      <c r="AP170">
+        <v>2.14</v>
+      </c>
+      <c r="AQ170">
+        <v>0.89</v>
+      </c>
+      <c r="AR170">
+        <v>1.93</v>
+      </c>
+      <c r="AS170">
+        <v>0.83</v>
+      </c>
+      <c r="AT170">
+        <v>2.76</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
+        <v>11</v>
+      </c>
+      <c r="AX170">
+        <v>1</v>
+      </c>
+      <c r="AY170">
+        <v>21</v>
+      </c>
+      <c r="AZ170">
+        <v>7</v>
+      </c>
+      <c r="BA170">
+        <v>8</v>
+      </c>
+      <c r="BB170">
+        <v>2</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>1.13</v>
+      </c>
+      <c r="BE170">
+        <v>10</v>
+      </c>
+      <c r="BF170">
+        <v>6.1</v>
+      </c>
+      <c r="BG170">
+        <v>1.28</v>
+      </c>
+      <c r="BH170">
+        <v>3.3</v>
+      </c>
+      <c r="BI170">
+        <v>1.48</v>
+      </c>
+      <c r="BJ170">
+        <v>2.43</v>
+      </c>
+      <c r="BK170">
+        <v>1.76</v>
+      </c>
+      <c r="BL170">
+        <v>1.94</v>
+      </c>
+      <c r="BM170">
+        <v>2.17</v>
+      </c>
+      <c r="BN170">
+        <v>1.6</v>
+      </c>
+      <c r="BO170">
+        <v>2.7</v>
+      </c>
+      <c r="BP170">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -35228,7 +35228,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7465156</v>
+        <v>7465164</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35237,16 +35237,16 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45641.41666666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F166">
         <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H166" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
       <c r="N166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="P166" t="s">
         <v>104</v>
@@ -35276,97 +35276,97 @@
         <v>2</v>
       </c>
       <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>8.5</v>
+      </c>
+      <c r="T166">
+        <v>1.44</v>
+      </c>
+      <c r="U166">
+        <v>2.63</v>
+      </c>
+      <c r="V166">
+        <v>3.25</v>
+      </c>
+      <c r="W166">
+        <v>1.33</v>
+      </c>
+      <c r="X166">
+        <v>9</v>
+      </c>
+      <c r="Y166">
+        <v>1.07</v>
+      </c>
+      <c r="Z166">
+        <v>1.42</v>
+      </c>
+      <c r="AA166">
+        <v>4.42</v>
+      </c>
+      <c r="AB166">
+        <v>9.24</v>
+      </c>
+      <c r="AC166">
+        <v>1.07</v>
+      </c>
+      <c r="AD166">
+        <v>9.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.38</v>
+      </c>
+      <c r="AF166">
+        <v>3.1</v>
+      </c>
+      <c r="AG166">
         <v>2.1</v>
       </c>
-      <c r="S166">
-        <v>9.5</v>
-      </c>
-      <c r="T166">
+      <c r="AH166">
+        <v>1.73</v>
+      </c>
+      <c r="AI166">
+        <v>2.5</v>
+      </c>
+      <c r="AJ166">
         <v>1.5</v>
       </c>
-      <c r="U166">
-        <v>2.5</v>
-      </c>
-      <c r="V166">
-        <v>3.5</v>
-      </c>
-      <c r="W166">
-        <v>1.29</v>
-      </c>
-      <c r="X166">
-        <v>11</v>
-      </c>
-      <c r="Y166">
-        <v>1.05</v>
-      </c>
-      <c r="Z166">
-        <v>1.41</v>
-      </c>
-      <c r="AA166">
-        <v>4.35</v>
-      </c>
-      <c r="AB166">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AC166">
-        <v>1.08</v>
-      </c>
-      <c r="AD166">
-        <v>8.5</v>
-      </c>
-      <c r="AE166">
-        <v>1.45</v>
-      </c>
-      <c r="AF166">
-        <v>2.8</v>
-      </c>
-      <c r="AG166">
-        <v>2.3</v>
-      </c>
-      <c r="AH166">
-        <v>1.62</v>
-      </c>
-      <c r="AI166">
-        <v>2.75</v>
-      </c>
-      <c r="AJ166">
-        <v>1.4</v>
-      </c>
       <c r="AK166">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AL166">
         <v>1.19</v>
       </c>
       <c r="AM166">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="AN166">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO166">
-        <v>0.29</v>
+        <v>1.13</v>
       </c>
       <c r="AP166">
-        <v>2.56</v>
+        <v>1.22</v>
       </c>
       <c r="AQ166">
-        <v>0.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR166">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="AS166">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT166">
-        <v>2.72</v>
+        <v>2.51</v>
       </c>
       <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
         <v>4</v>
-      </c>
-      <c r="AV166">
-        <v>2</v>
       </c>
       <c r="AW166">
         <v>6</v>
@@ -35375,58 +35375,58 @@
         <v>3</v>
       </c>
       <c r="AY166">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ166">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA166">
         <v>8</v>
       </c>
       <c r="BB166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC166">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD166">
+        <v>1.24</v>
+      </c>
+      <c r="BE166">
+        <v>8</v>
+      </c>
+      <c r="BF166">
+        <v>4.4</v>
+      </c>
+      <c r="BG166">
+        <v>1.3</v>
+      </c>
+      <c r="BH166">
+        <v>3.05</v>
+      </c>
+      <c r="BI166">
+        <v>1.53</v>
+      </c>
+      <c r="BJ166">
+        <v>2.3</v>
+      </c>
+      <c r="BK166">
+        <v>1.85</v>
+      </c>
+      <c r="BL166">
+        <v>1.83</v>
+      </c>
+      <c r="BM166">
+        <v>2.32</v>
+      </c>
+      <c r="BN166">
+        <v>1.52</v>
+      </c>
+      <c r="BO166">
+        <v>2.95</v>
+      </c>
+      <c r="BP166">
         <v>1.33</v>
-      </c>
-      <c r="BE166">
-        <v>7</v>
-      </c>
-      <c r="BF166">
-        <v>3.65</v>
-      </c>
-      <c r="BG166">
-        <v>1.44</v>
-      </c>
-      <c r="BH166">
-        <v>2.55</v>
-      </c>
-      <c r="BI166">
-        <v>1.75</v>
-      </c>
-      <c r="BJ166">
-        <v>1.95</v>
-      </c>
-      <c r="BK166">
-        <v>2.2</v>
-      </c>
-      <c r="BL166">
-        <v>1.58</v>
-      </c>
-      <c r="BM166">
-        <v>2.8</v>
-      </c>
-      <c r="BN166">
-        <v>1.36</v>
-      </c>
-      <c r="BO166">
-        <v>3.8</v>
-      </c>
-      <c r="BP166">
-        <v>1.21</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35434,7 +35434,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7465159</v>
+        <v>7465156</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35443,61 +35443,61 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45641.51041666666</v>
+        <v>45641.41666666666</v>
       </c>
       <c r="F167">
         <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H167" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L167">
         <v>1</v>
       </c>
       <c r="M167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O167" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="Q167">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S167">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="T167">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U167">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W167">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X167">
         <v>11</v>
@@ -35506,133 +35506,133 @@
         <v>1.05</v>
       </c>
       <c r="Z167">
-        <v>3.64</v>
+        <v>1.41</v>
       </c>
       <c r="AA167">
-        <v>3.19</v>
+        <v>4.35</v>
       </c>
       <c r="AB167">
-        <v>2.25</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AC167">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD167">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE167">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AF167">
+        <v>2.8</v>
+      </c>
+      <c r="AG167">
+        <v>2.3</v>
+      </c>
+      <c r="AH167">
+        <v>1.62</v>
+      </c>
+      <c r="AI167">
         <v>2.75</v>
       </c>
-      <c r="AG167">
+      <c r="AJ167">
+        <v>1.4</v>
+      </c>
+      <c r="AK167">
+        <v>1.04</v>
+      </c>
+      <c r="AL167">
+        <v>1.19</v>
+      </c>
+      <c r="AM167">
+        <v>2.95</v>
+      </c>
+      <c r="AN167">
         <v>2.5</v>
       </c>
-      <c r="AH167">
-        <v>1.53</v>
-      </c>
-      <c r="AI167">
-        <v>2.05</v>
-      </c>
-      <c r="AJ167">
-        <v>1.7</v>
-      </c>
-      <c r="AK167">
+      <c r="AO167">
+        <v>0.29</v>
+      </c>
+      <c r="AP167">
+        <v>2.56</v>
+      </c>
+      <c r="AQ167">
+        <v>0.25</v>
+      </c>
+      <c r="AR167">
         <v>1.68</v>
       </c>
-      <c r="AL167">
-        <v>1.32</v>
-      </c>
-      <c r="AM167">
-        <v>1.3</v>
-      </c>
-      <c r="AN167">
-        <v>1.57</v>
-      </c>
-      <c r="AO167">
-        <v>1.57</v>
-      </c>
-      <c r="AP167">
-        <v>1.5</v>
-      </c>
-      <c r="AQ167">
-        <v>1.5</v>
-      </c>
-      <c r="AR167">
-        <v>1.17</v>
-      </c>
       <c r="AS167">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="AT167">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
       <c r="AU167">
         <v>4</v>
       </c>
       <c r="AV167">
+        <v>2</v>
+      </c>
+      <c r="AW167">
+        <v>6</v>
+      </c>
+      <c r="AX167">
         <v>3</v>
       </c>
-      <c r="AW167">
-        <v>2</v>
-      </c>
-      <c r="AX167">
+      <c r="AY167">
+        <v>12</v>
+      </c>
+      <c r="AZ167">
+        <v>8</v>
+      </c>
+      <c r="BA167">
+        <v>8</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>11</v>
+      </c>
+      <c r="BD167">
+        <v>1.33</v>
+      </c>
+      <c r="BE167">
         <v>7</v>
       </c>
-      <c r="AY167">
-        <v>7</v>
-      </c>
-      <c r="AZ167">
-        <v>10</v>
-      </c>
-      <c r="BA167">
-        <v>2</v>
-      </c>
-      <c r="BB167">
-        <v>4</v>
-      </c>
-      <c r="BC167">
-        <v>6</v>
-      </c>
-      <c r="BD167">
-        <v>2.3</v>
-      </c>
-      <c r="BE167">
-        <v>6.4</v>
-      </c>
       <c r="BF167">
-        <v>1.74</v>
+        <v>3.65</v>
       </c>
       <c r="BG167">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BH167">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BI167">
+        <v>1.75</v>
+      </c>
+      <c r="BJ167">
+        <v>1.95</v>
+      </c>
+      <c r="BK167">
+        <v>2.2</v>
+      </c>
+      <c r="BL167">
         <v>1.58</v>
       </c>
-      <c r="BJ167">
-        <v>2.18</v>
-      </c>
-      <c r="BK167">
-        <v>1.95</v>
-      </c>
-      <c r="BL167">
-        <v>1.74</v>
-      </c>
       <c r="BM167">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BN167">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BO167">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="BP167">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35640,7 +35640,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7465164</v>
+        <v>7465159</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35649,196 +35649,196 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45641.60416666666</v>
+        <v>45641.51041666666</v>
       </c>
       <c r="F168">
         <v>17</v>
       </c>
       <c r="G168" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H168" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O168" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="P168" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="Q168">
-        <v>2</v>
+        <v>4.33</v>
       </c>
       <c r="R168">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="T168">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U168">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V168">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="W168">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X168">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y168">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z168">
-        <v>1.42</v>
+        <v>3.64</v>
       </c>
       <c r="AA168">
-        <v>4.42</v>
+        <v>3.19</v>
       </c>
       <c r="AB168">
-        <v>9.24</v>
+        <v>2.25</v>
       </c>
       <c r="AC168">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AD168">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE168">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AF168">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AG168">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH168">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AI168">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AJ168">
+        <v>1.7</v>
+      </c>
+      <c r="AK168">
+        <v>1.68</v>
+      </c>
+      <c r="AL168">
+        <v>1.32</v>
+      </c>
+      <c r="AM168">
+        <v>1.3</v>
+      </c>
+      <c r="AN168">
+        <v>1.57</v>
+      </c>
+      <c r="AO168">
+        <v>1.57</v>
+      </c>
+      <c r="AP168">
         <v>1.5</v>
       </c>
-      <c r="AK168">
-        <v>1.06</v>
-      </c>
-      <c r="AL168">
-        <v>1.19</v>
-      </c>
-      <c r="AM168">
-        <v>2.85</v>
-      </c>
-      <c r="AN168">
-        <v>1.25</v>
-      </c>
-      <c r="AO168">
-        <v>1.13</v>
-      </c>
-      <c r="AP168">
-        <v>1.22</v>
-      </c>
       <c r="AQ168">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AS168">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AT168">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="AU168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX168">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY168">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ168">
         <v>10</v>
       </c>
       <c r="BA168">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
         <v>6</v>
       </c>
-      <c r="BC168">
-        <v>14</v>
-      </c>
       <c r="BD168">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="BE168">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF168">
-        <v>4.4</v>
+        <v>1.74</v>
       </c>
       <c r="BG168">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="BH168">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BI168">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="BJ168">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="BK168">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BL168">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="BM168">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="BN168">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BO168">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BP168">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="169" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -35228,7 +35228,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7465164</v>
+        <v>7465156</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35237,16 +35237,16 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45640.875</v>
+        <v>45641.41666666666</v>
       </c>
       <c r="F166">
         <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H166" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
       <c r="N166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="P166" t="s">
         <v>104</v>
@@ -35276,97 +35276,97 @@
         <v>2</v>
       </c>
       <c r="R166">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S166">
+        <v>9.5</v>
+      </c>
+      <c r="T166">
+        <v>1.5</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>3.5</v>
+      </c>
+      <c r="W166">
+        <v>1.29</v>
+      </c>
+      <c r="X166">
+        <v>11</v>
+      </c>
+      <c r="Y166">
+        <v>1.05</v>
+      </c>
+      <c r="Z166">
+        <v>1.41</v>
+      </c>
+      <c r="AA166">
+        <v>4.35</v>
+      </c>
+      <c r="AB166">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="AC166">
+        <v>1.08</v>
+      </c>
+      <c r="AD166">
         <v>8.5</v>
       </c>
-      <c r="T166">
-        <v>1.44</v>
-      </c>
-      <c r="U166">
-        <v>2.63</v>
-      </c>
-      <c r="V166">
-        <v>3.25</v>
-      </c>
-      <c r="W166">
-        <v>1.33</v>
-      </c>
-      <c r="X166">
-        <v>9</v>
-      </c>
-      <c r="Y166">
-        <v>1.07</v>
-      </c>
-      <c r="Z166">
-        <v>1.42</v>
-      </c>
-      <c r="AA166">
-        <v>4.42</v>
-      </c>
-      <c r="AB166">
-        <v>9.24</v>
-      </c>
-      <c r="AC166">
-        <v>1.07</v>
-      </c>
-      <c r="AD166">
-        <v>9.5</v>
-      </c>
       <c r="AE166">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AF166">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AG166">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH166">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AI166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AJ166">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AK166">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AL166">
         <v>1.19</v>
       </c>
       <c r="AM166">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="AN166">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AO166">
-        <v>1.13</v>
+        <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>1.22</v>
+        <v>2.56</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>0.25</v>
       </c>
       <c r="AR166">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="AS166">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT166">
-        <v>2.51</v>
+        <v>2.72</v>
       </c>
       <c r="AU166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW166">
         <v>6</v>
@@ -35375,58 +35375,58 @@
         <v>3</v>
       </c>
       <c r="AY166">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ166">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA166">
         <v>8</v>
       </c>
       <c r="BB166">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC166">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD166">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="BE166">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF166">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="BG166">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="BH166">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BI166">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="BJ166">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="BK166">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="BL166">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="BM166">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="BN166">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="BO166">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="BP166">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35434,7 +35434,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7465156</v>
+        <v>7465159</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35443,61 +35443,61 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45641.41666666666</v>
+        <v>45641.51041666666</v>
       </c>
       <c r="F167">
         <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H167" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167">
         <v>1</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O167" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="Q167">
-        <v>2</v>
+        <v>4.33</v>
       </c>
       <c r="R167">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="T167">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U167">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W167">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X167">
         <v>11</v>
@@ -35506,133 +35506,133 @@
         <v>1.05</v>
       </c>
       <c r="Z167">
-        <v>1.41</v>
+        <v>3.64</v>
       </c>
       <c r="AA167">
-        <v>4.35</v>
+        <v>3.19</v>
       </c>
       <c r="AB167">
-        <v>9.970000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="AC167">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AD167">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE167">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AF167">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AG167">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AH167">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AI167">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="AJ167">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AK167">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="AL167">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AM167">
-        <v>2.95</v>
+        <v>1.3</v>
       </c>
       <c r="AN167">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="AO167">
-        <v>0.29</v>
+        <v>1.57</v>
       </c>
       <c r="AP167">
-        <v>2.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
       <c r="AS167">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="AT167">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="AU167">
         <v>4</v>
       </c>
       <c r="AV167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW167">
+        <v>2</v>
+      </c>
+      <c r="AX167">
+        <v>7</v>
+      </c>
+      <c r="AY167">
+        <v>7</v>
+      </c>
+      <c r="AZ167">
+        <v>10</v>
+      </c>
+      <c r="BA167">
+        <v>2</v>
+      </c>
+      <c r="BB167">
+        <v>4</v>
+      </c>
+      <c r="BC167">
         <v>6</v>
       </c>
-      <c r="AX167">
-        <v>3</v>
-      </c>
-      <c r="AY167">
-        <v>12</v>
-      </c>
-      <c r="AZ167">
-        <v>8</v>
-      </c>
-      <c r="BA167">
-        <v>8</v>
-      </c>
-      <c r="BB167">
-        <v>3</v>
-      </c>
-      <c r="BC167">
-        <v>11</v>
-      </c>
       <c r="BD167">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="BE167">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF167">
-        <v>3.65</v>
+        <v>1.74</v>
       </c>
       <c r="BG167">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BH167">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BI167">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="BJ167">
+        <v>2.18</v>
+      </c>
+      <c r="BK167">
         <v>1.95</v>
       </c>
-      <c r="BK167">
-        <v>2.2</v>
-      </c>
       <c r="BL167">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="BM167">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BN167">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="BO167">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="BP167">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -35640,7 +35640,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7465159</v>
+        <v>7465164</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35649,196 +35649,196 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45641.51041666666</v>
+        <v>45641.60416666666</v>
       </c>
       <c r="F168">
         <v>17</v>
       </c>
       <c r="G168" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H168" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="Q168">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S168">
+        <v>8.5</v>
+      </c>
+      <c r="T168">
+        <v>1.44</v>
+      </c>
+      <c r="U168">
+        <v>2.63</v>
+      </c>
+      <c r="V168">
+        <v>3.25</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>9</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>1.42</v>
+      </c>
+      <c r="AA168">
+        <v>4.42</v>
+      </c>
+      <c r="AB168">
+        <v>9.24</v>
+      </c>
+      <c r="AC168">
+        <v>1.07</v>
+      </c>
+      <c r="AD168">
+        <v>9.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.38</v>
+      </c>
+      <c r="AF168">
+        <v>3.1</v>
+      </c>
+      <c r="AG168">
+        <v>2.1</v>
+      </c>
+      <c r="AH168">
+        <v>1.73</v>
+      </c>
+      <c r="AI168">
+        <v>2.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.5</v>
+      </c>
+      <c r="AK168">
+        <v>1.06</v>
+      </c>
+      <c r="AL168">
+        <v>1.19</v>
+      </c>
+      <c r="AM168">
+        <v>2.85</v>
+      </c>
+      <c r="AN168">
+        <v>1.25</v>
+      </c>
+      <c r="AO168">
+        <v>1.13</v>
+      </c>
+      <c r="AP168">
+        <v>1.22</v>
+      </c>
+      <c r="AQ168">
+        <v>1.11</v>
+      </c>
+      <c r="AR168">
+        <v>1.43</v>
+      </c>
+      <c r="AS168">
+        <v>1.08</v>
+      </c>
+      <c r="AT168">
+        <v>2.51</v>
+      </c>
+      <c r="AU168">
+        <v>5</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
         <v>3</v>
       </c>
-      <c r="T168">
-        <v>1.53</v>
-      </c>
-      <c r="U168">
-        <v>2.38</v>
-      </c>
-      <c r="V168">
-        <v>3.75</v>
-      </c>
-      <c r="W168">
-        <v>1.25</v>
-      </c>
-      <c r="X168">
-        <v>11</v>
-      </c>
-      <c r="Y168">
-        <v>1.05</v>
-      </c>
-      <c r="Z168">
-        <v>3.64</v>
-      </c>
-      <c r="AA168">
-        <v>3.19</v>
-      </c>
-      <c r="AB168">
-        <v>2.25</v>
-      </c>
-      <c r="AC168">
-        <v>1.1</v>
-      </c>
-      <c r="AD168">
-        <v>7.5</v>
-      </c>
-      <c r="AE168">
-        <v>1.48</v>
-      </c>
-      <c r="AF168">
-        <v>2.75</v>
-      </c>
-      <c r="AG168">
-        <v>2.5</v>
-      </c>
-      <c r="AH168">
-        <v>1.53</v>
-      </c>
-      <c r="AI168">
-        <v>2.05</v>
-      </c>
-      <c r="AJ168">
-        <v>1.7</v>
-      </c>
-      <c r="AK168">
-        <v>1.68</v>
-      </c>
-      <c r="AL168">
-        <v>1.32</v>
-      </c>
-      <c r="AM168">
-        <v>1.3</v>
-      </c>
-      <c r="AN168">
-        <v>1.57</v>
-      </c>
-      <c r="AO168">
-        <v>1.57</v>
-      </c>
-      <c r="AP168">
-        <v>1.5</v>
-      </c>
-      <c r="AQ168">
-        <v>1.5</v>
-      </c>
-      <c r="AR168">
-        <v>1.17</v>
-      </c>
-      <c r="AS168">
-        <v>1.28</v>
-      </c>
-      <c r="AT168">
-        <v>2.45</v>
-      </c>
-      <c r="AU168">
-        <v>4</v>
-      </c>
-      <c r="AV168">
-        <v>3</v>
-      </c>
-      <c r="AW168">
-        <v>2</v>
-      </c>
-      <c r="AX168">
-        <v>7</v>
-      </c>
       <c r="AY168">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ168">
         <v>10</v>
       </c>
       <c r="BA168">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB168">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC168">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD168">
+        <v>1.24</v>
+      </c>
+      <c r="BE168">
+        <v>8</v>
+      </c>
+      <c r="BF168">
+        <v>4.4</v>
+      </c>
+      <c r="BG168">
+        <v>1.3</v>
+      </c>
+      <c r="BH168">
+        <v>3.05</v>
+      </c>
+      <c r="BI168">
+        <v>1.53</v>
+      </c>
+      <c r="BJ168">
         <v>2.3</v>
       </c>
-      <c r="BE168">
-        <v>6.4</v>
-      </c>
-      <c r="BF168">
-        <v>1.74</v>
-      </c>
-      <c r="BG168">
-        <v>1.35</v>
-      </c>
-      <c r="BH168">
-        <v>2.9</v>
-      </c>
-      <c r="BI168">
-        <v>1.58</v>
-      </c>
-      <c r="BJ168">
-        <v>2.18</v>
-      </c>
       <c r="BK168">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BL168">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="BM168">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="BN168">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BO168">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BP168">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="169" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1227,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2803,7 +2803,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
         <v>1.88</v>
@@ -3627,7 +3627,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>1.07</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4657,7 +4657,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
         <v>0.5</v>
@@ -6305,7 +6305,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>0.96</v>
@@ -7950,10 +7950,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -10010,7 +10010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
         <v>0.44</v>
@@ -11249,7 +11249,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ49">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR49">
         <v>1.74</v>
@@ -13718,7 +13718,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ61">
         <v>2.09</v>
@@ -14957,7 +14957,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15366,7 +15366,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>1.75</v>
@@ -16605,7 +16605,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR75">
         <v>1.11</v>
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ81">
         <v>1.11</v>
@@ -18047,7 +18047,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18250,7 +18250,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18871,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -21137,7 +21137,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21546,7 +21546,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ99">
         <v>0.25</v>
@@ -22164,7 +22164,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102">
         <v>0.75</v>
@@ -23403,7 +23403,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -26284,7 +26284,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ122">
         <v>0.44</v>
@@ -29171,7 +29171,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -29789,7 +29789,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR139">
         <v>1.33</v>
@@ -30404,7 +30404,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>0.5</v>
@@ -30816,7 +30816,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -32879,7 +32879,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
         <v>1.29</v>
@@ -34321,7 +34321,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR161">
         <v>1.1</v>
@@ -34524,7 +34524,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ162">
         <v>0.88</v>
@@ -35966,7 +35966,7 @@
         <v>0.75</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36251,6 +36251,418 @@
       </c>
       <c r="BP170">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7469581</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45644.72916666666</v>
+      </c>
+      <c r="F171">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>82</v>
+      </c>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>95</v>
+      </c>
+      <c r="P171" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q171">
+        <v>3.4</v>
+      </c>
+      <c r="R171">
+        <v>1.91</v>
+      </c>
+      <c r="S171">
+        <v>3.75</v>
+      </c>
+      <c r="T171">
+        <v>1.57</v>
+      </c>
+      <c r="U171">
+        <v>2.25</v>
+      </c>
+      <c r="V171">
+        <v>3.75</v>
+      </c>
+      <c r="W171">
+        <v>1.25</v>
+      </c>
+      <c r="X171">
+        <v>13</v>
+      </c>
+      <c r="Y171">
+        <v>1.04</v>
+      </c>
+      <c r="Z171">
+        <v>2.55</v>
+      </c>
+      <c r="AA171">
+        <v>2.9</v>
+      </c>
+      <c r="AB171">
+        <v>3</v>
+      </c>
+      <c r="AC171">
+        <v>1.12</v>
+      </c>
+      <c r="AD171">
+        <v>6.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.53</v>
+      </c>
+      <c r="AF171">
+        <v>2.46</v>
+      </c>
+      <c r="AG171">
+        <v>2.63</v>
+      </c>
+      <c r="AH171">
+        <v>1.5</v>
+      </c>
+      <c r="AI171">
+        <v>2.1</v>
+      </c>
+      <c r="AJ171">
+        <v>1.67</v>
+      </c>
+      <c r="AK171">
+        <v>1.4</v>
+      </c>
+      <c r="AL171">
+        <v>1.36</v>
+      </c>
+      <c r="AM171">
+        <v>1.52</v>
+      </c>
+      <c r="AN171">
+        <v>1.63</v>
+      </c>
+      <c r="AO171">
+        <v>0.25</v>
+      </c>
+      <c r="AP171">
+        <v>1.56</v>
+      </c>
+      <c r="AQ171">
+        <v>0.33</v>
+      </c>
+      <c r="AR171">
+        <v>1.12</v>
+      </c>
+      <c r="AS171">
+        <v>0.89</v>
+      </c>
+      <c r="AT171">
+        <v>2.01</v>
+      </c>
+      <c r="AU171">
+        <v>4</v>
+      </c>
+      <c r="AV171">
+        <v>5</v>
+      </c>
+      <c r="AW171">
+        <v>3</v>
+      </c>
+      <c r="AX171">
+        <v>7</v>
+      </c>
+      <c r="AY171">
+        <v>11</v>
+      </c>
+      <c r="AZ171">
+        <v>15</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>7</v>
+      </c>
+      <c r="BC171">
+        <v>11</v>
+      </c>
+      <c r="BD171">
+        <v>1.76</v>
+      </c>
+      <c r="BE171">
+        <v>6.4</v>
+      </c>
+      <c r="BF171">
+        <v>2.3</v>
+      </c>
+      <c r="BG171">
+        <v>1.43</v>
+      </c>
+      <c r="BH171">
+        <v>2.55</v>
+      </c>
+      <c r="BI171">
+        <v>1.74</v>
+      </c>
+      <c r="BJ171">
+        <v>1.95</v>
+      </c>
+      <c r="BK171">
+        <v>2.23</v>
+      </c>
+      <c r="BL171">
+        <v>1.57</v>
+      </c>
+      <c r="BM171">
+        <v>2.9</v>
+      </c>
+      <c r="BN171">
+        <v>1.35</v>
+      </c>
+      <c r="BO171">
+        <v>3.8</v>
+      </c>
+      <c r="BP171">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7465118</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45644.72916666666</v>
+      </c>
+      <c r="F172">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>79</v>
+      </c>
+      <c r="H172" t="s">
+        <v>88</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>142</v>
+      </c>
+      <c r="P172" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q172">
+        <v>2.25</v>
+      </c>
+      <c r="R172">
+        <v>2.38</v>
+      </c>
+      <c r="S172">
+        <v>4.75</v>
+      </c>
+      <c r="T172">
+        <v>1.33</v>
+      </c>
+      <c r="U172">
+        <v>3.25</v>
+      </c>
+      <c r="V172">
+        <v>2.5</v>
+      </c>
+      <c r="W172">
+        <v>1.5</v>
+      </c>
+      <c r="X172">
+        <v>6.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.11</v>
+      </c>
+      <c r="Z172">
+        <v>1.7</v>
+      </c>
+      <c r="AA172">
+        <v>3.9</v>
+      </c>
+      <c r="AB172">
+        <v>4.6</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>15</v>
+      </c>
+      <c r="AE172">
+        <v>1.18</v>
+      </c>
+      <c r="AF172">
+        <v>3.88</v>
+      </c>
+      <c r="AG172">
+        <v>1.7</v>
+      </c>
+      <c r="AH172">
+        <v>2.05</v>
+      </c>
+      <c r="AI172">
+        <v>1.7</v>
+      </c>
+      <c r="AJ172">
+        <v>2.05</v>
+      </c>
+      <c r="AK172">
+        <v>1.19</v>
+      </c>
+      <c r="AL172">
+        <v>1.22</v>
+      </c>
+      <c r="AM172">
+        <v>2.2</v>
+      </c>
+      <c r="AN172">
+        <v>1.5</v>
+      </c>
+      <c r="AO172">
+        <v>1.38</v>
+      </c>
+      <c r="AP172">
+        <v>1.44</v>
+      </c>
+      <c r="AQ172">
+        <v>1.33</v>
+      </c>
+      <c r="AR172">
+        <v>1.56</v>
+      </c>
+      <c r="AS172">
+        <v>0.97</v>
+      </c>
+      <c r="AT172">
+        <v>2.53</v>
+      </c>
+      <c r="AU172">
+        <v>6</v>
+      </c>
+      <c r="AV172">
+        <v>4</v>
+      </c>
+      <c r="AW172">
+        <v>5</v>
+      </c>
+      <c r="AX172">
+        <v>8</v>
+      </c>
+      <c r="AY172">
+        <v>15</v>
+      </c>
+      <c r="AZ172">
+        <v>20</v>
+      </c>
+      <c r="BA172">
+        <v>7</v>
+      </c>
+      <c r="BB172">
+        <v>7</v>
+      </c>
+      <c r="BC172">
+        <v>14</v>
+      </c>
+      <c r="BD172">
+        <v>1.58</v>
+      </c>
+      <c r="BE172">
+        <v>6.5</v>
+      </c>
+      <c r="BF172">
+        <v>2.65</v>
+      </c>
+      <c r="BG172">
+        <v>1.28</v>
+      </c>
+      <c r="BH172">
+        <v>3.3</v>
+      </c>
+      <c r="BI172">
+        <v>1.48</v>
+      </c>
+      <c r="BJ172">
+        <v>2.43</v>
+      </c>
+      <c r="BK172">
+        <v>1.79</v>
+      </c>
+      <c r="BL172">
+        <v>1.9</v>
+      </c>
+      <c r="BM172">
+        <v>2.23</v>
+      </c>
+      <c r="BN172">
+        <v>1.57</v>
+      </c>
+      <c r="BO172">
+        <v>2.9</v>
+      </c>
+      <c r="BP172">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['31', '39', '81']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1227,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1489,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1898,7 +1901,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2104,7 +2107,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2310,7 +2313,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2516,7 +2519,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2722,7 +2725,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2928,7 +2931,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3340,7 +3343,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3752,7 +3755,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4863,7 +4866,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ18">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4988,7 +4991,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5606,7 +5609,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6018,7 +6021,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6842,7 +6845,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7126,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7541,7 +7544,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ31">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR31">
         <v>1.51</v>
@@ -8078,7 +8081,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8696,7 +8699,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8902,7 +8905,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9726,7 +9729,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9932,7 +9935,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10344,7 +10347,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10631,7 +10634,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ46">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -10756,7 +10759,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10834,7 +10837,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ47">
         <v>2.09</v>
@@ -10962,7 +10965,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11786,7 +11789,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11992,7 +11995,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12610,7 +12613,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13022,7 +13025,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13434,7 +13437,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13640,7 +13643,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14052,7 +14055,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14464,7 +14467,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14545,7 +14548,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ65">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -14670,7 +14673,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14954,7 +14957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -15288,7 +15291,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15494,7 +15497,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15906,7 +15909,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16730,7 +16733,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17142,7 +17145,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17554,7 +17557,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17760,7 +17763,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18790,7 +18793,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19202,7 +19205,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19280,7 +19283,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19408,7 +19411,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19820,7 +19823,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20026,7 +20029,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20107,7 +20110,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20438,7 +20441,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20722,7 +20725,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ95">
         <v>1.75</v>
@@ -20850,7 +20853,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21262,7 +21265,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21880,7 +21883,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22086,7 +22089,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22292,7 +22295,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22910,7 +22913,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23734,7 +23737,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24433,7 +24436,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24558,7 +24561,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24636,7 +24639,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -24970,7 +24973,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25176,7 +25179,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25382,7 +25385,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25794,7 +25797,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26618,7 +26621,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27729,7 +27732,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR129">
         <v>1.27</v>
@@ -27854,7 +27857,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28266,7 +28269,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28550,7 +28553,7 @@
         <v>0.17</v>
       </c>
       <c r="AP133">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ133">
         <v>0.13</v>
@@ -28678,7 +28681,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28884,7 +28887,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29296,7 +29299,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29708,7 +29711,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29914,7 +29917,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30532,7 +30535,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30738,7 +30741,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31150,7 +31153,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31768,7 +31771,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31974,7 +31977,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32467,7 +32470,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ152">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR152">
         <v>1.35</v>
@@ -32592,7 +32595,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33004,7 +33007,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33082,7 +33085,7 @@
         <v>1.71</v>
       </c>
       <c r="AP155">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
         <v>1.78</v>
@@ -33210,7 +33213,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33622,7 +33625,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33828,7 +33831,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -35064,7 +35067,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35476,7 +35479,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -35888,7 +35891,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36300,7 +36303,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36663,6 +36666,212 @@
       </c>
       <c r="BP172">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7465168</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45646.70833333334</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>89</v>
+      </c>
+      <c r="H173" t="s">
+        <v>78</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>212</v>
+      </c>
+      <c r="P173" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q173">
+        <v>2</v>
+      </c>
+      <c r="R173">
+        <v>2.38</v>
+      </c>
+      <c r="S173">
+        <v>6.5</v>
+      </c>
+      <c r="T173">
+        <v>1.36</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.63</v>
+      </c>
+      <c r="W173">
+        <v>1.44</v>
+      </c>
+      <c r="X173">
+        <v>7</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>1.45</v>
+      </c>
+      <c r="AA173">
+        <v>4.75</v>
+      </c>
+      <c r="AB173">
+        <v>6</v>
+      </c>
+      <c r="AC173">
+        <v>1.04</v>
+      </c>
+      <c r="AD173">
+        <v>13</v>
+      </c>
+      <c r="AE173">
+        <v>1.26</v>
+      </c>
+      <c r="AF173">
+        <v>4</v>
+      </c>
+      <c r="AG173">
+        <v>1.8</v>
+      </c>
+      <c r="AH173">
+        <v>2</v>
+      </c>
+      <c r="AI173">
+        <v>2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.75</v>
+      </c>
+      <c r="AK173">
+        <v>1.09</v>
+      </c>
+      <c r="AL173">
+        <v>1.17</v>
+      </c>
+      <c r="AM173">
+        <v>2.75</v>
+      </c>
+      <c r="AN173">
+        <v>1.63</v>
+      </c>
+      <c r="AO173">
+        <v>0.38</v>
+      </c>
+      <c r="AP173">
+        <v>1.78</v>
+      </c>
+      <c r="AQ173">
+        <v>0.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.37</v>
+      </c>
+      <c r="AS173">
+        <v>0.87</v>
+      </c>
+      <c r="AT173">
+        <v>2.24</v>
+      </c>
+      <c r="AU173">
+        <v>8</v>
+      </c>
+      <c r="AV173">
+        <v>2</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>24</v>
+      </c>
+      <c r="AZ173">
+        <v>2</v>
+      </c>
+      <c r="BA173">
+        <v>9</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>10</v>
+      </c>
+      <c r="BD173">
+        <v>1.28</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
+        <v>4</v>
+      </c>
+      <c r="BG173">
+        <v>1.32</v>
+      </c>
+      <c r="BH173">
+        <v>3</v>
+      </c>
+      <c r="BI173">
+        <v>1.57</v>
+      </c>
+      <c r="BJ173">
+        <v>2.23</v>
+      </c>
+      <c r="BK173">
+        <v>1.94</v>
+      </c>
+      <c r="BL173">
+        <v>1.76</v>
+      </c>
+      <c r="BM173">
+        <v>2.48</v>
+      </c>
+      <c r="BN173">
+        <v>1.46</v>
+      </c>
+      <c r="BO173">
+        <v>3.15</v>
+      </c>
+      <c r="BP173">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,15 @@
     <t>['31', '39', '81']</t>
   </si>
   <si>
+    <t>['40', '45+1']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -725,9 +734,6 @@
   </si>
   <si>
     <t>['54']</t>
-  </si>
-  <si>
-    <t>['25']</t>
   </si>
   <si>
     <t>['20', '35', '58', '75', '83']</t>
@@ -869,6 +875,12 @@
   </si>
   <si>
     <t>['32', '47']</t>
+  </si>
+  <si>
+    <t>['31', '74']</t>
+  </si>
+  <si>
+    <t>['60', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1501,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1901,7 +1913,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1979,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0.44</v>
@@ -2107,7 +2119,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2313,7 +2325,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2391,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>0.89</v>
@@ -2519,7 +2531,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2725,7 +2737,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2931,7 +2943,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3343,7 +3355,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3424,7 +3436,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3627,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3755,7 +3767,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4039,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -4245,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4454,7 +4466,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4657,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4991,7 +5003,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5609,7 +5621,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6021,7 +6033,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6845,7 +6857,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7541,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ31">
         <v>0.33</v>
@@ -7750,7 +7762,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ32">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -8081,7 +8093,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8368,7 +8380,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8699,7 +8711,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8777,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8905,7 +8917,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9189,10 +9201,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
+        <v>1.4</v>
+      </c>
+      <c r="AQ39">
         <v>1.56</v>
-      </c>
-      <c r="AQ39">
-        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9729,7 +9741,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9935,7 +9947,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10347,7 +10359,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10631,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.33</v>
@@ -10759,7 +10771,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10965,7 +10977,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11046,7 +11058,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11664,7 +11676,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR51">
         <v>1.4</v>
@@ -11789,7 +11801,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11995,7 +12007,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12076,7 +12088,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12488,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12613,7 +12625,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12691,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>1.11</v>
@@ -13025,7 +13037,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13309,7 +13321,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>0.89</v>
@@ -13437,7 +13449,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13643,7 +13655,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13930,7 +13942,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14055,7 +14067,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14136,7 +14148,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14467,7 +14479,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14673,7 +14685,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15163,7 +15175,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15291,7 +15303,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15497,7 +15509,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15781,10 +15793,10 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.29</v>
@@ -15909,7 +15921,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15990,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16193,7 +16205,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>0.44</v>
@@ -16733,7 +16745,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16811,7 +16823,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76">
         <v>2.09</v>
@@ -17017,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17145,7 +17157,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17557,7 +17569,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17763,7 +17775,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18256,7 +18268,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>1.07</v>
@@ -18459,7 +18471,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -18793,7 +18805,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19205,7 +19217,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19286,7 +19298,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19411,7 +19423,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19823,7 +19835,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19904,7 +19916,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ91">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -20029,7 +20041,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20441,7 +20453,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20519,7 +20531,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20728,7 +20740,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -20853,7 +20865,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20931,7 +20943,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.78</v>
@@ -21265,7 +21277,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21755,7 +21767,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
         <v>0.75</v>
@@ -21883,7 +21895,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22089,7 +22101,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22295,7 +22307,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22913,7 +22925,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23403,7 +23415,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108">
         <v>0.33</v>
@@ -23612,7 +23624,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR109">
         <v>1.79</v>
@@ -23737,7 +23749,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24024,7 +24036,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24230,7 +24242,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
         <v>1.08</v>
@@ -24433,7 +24445,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ113">
         <v>0.33</v>
@@ -24561,7 +24573,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24973,7 +24985,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25051,7 +25063,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ116">
         <v>0.13</v>
@@ -25179,7 +25191,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25260,7 +25272,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ117">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR117">
         <v>1.53</v>
@@ -25385,7 +25397,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25669,7 +25681,7 @@
         <v>0.4</v>
       </c>
       <c r="AP119">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>0.25</v>
@@ -25797,7 +25809,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26621,7 +26633,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26908,7 +26920,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR125">
         <v>1.29</v>
@@ -27111,7 +27123,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27320,7 +27332,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27729,7 +27741,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
         <v>0.33</v>
@@ -27857,7 +27869,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28269,7 +28281,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28350,7 +28362,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28681,7 +28693,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28759,7 +28771,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>2.09</v>
@@ -28887,7 +28899,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -28965,7 +28977,7 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ135">
         <v>1.75</v>
@@ -29299,7 +29311,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29586,7 +29598,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ138">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR138">
         <v>1.36</v>
@@ -29711,7 +29723,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29917,7 +29929,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -29995,7 +30007,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ140">
         <v>1.11</v>
@@ -30535,7 +30547,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30616,7 +30628,7 @@
         <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR143">
         <v>1.13</v>
@@ -30741,7 +30753,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31153,7 +31165,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31234,7 +31246,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR146">
         <v>1.72</v>
@@ -31771,7 +31783,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31977,7 +31989,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32261,10 +32273,10 @@
         <v>1.71</v>
       </c>
       <c r="AP151">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ151">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR151">
         <v>1.39</v>
@@ -32595,7 +32607,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33007,7 +33019,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33213,7 +33225,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33294,7 +33306,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR156">
         <v>0.98</v>
@@ -33625,7 +33637,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33703,7 +33715,7 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ158">
         <v>0.44</v>
@@ -33831,7 +33843,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34115,7 +34127,7 @@
         <v>0.14</v>
       </c>
       <c r="AP160">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ160">
         <v>0.13</v>
@@ -35067,7 +35079,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35479,7 +35491,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -35560,7 +35572,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -35891,7 +35903,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36175,7 +36187,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ170">
         <v>0.89</v>
@@ -36303,7 +36315,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36682,7 +36694,7 @@
         <v>69</v>
       </c>
       <c r="E173" s="2">
-        <v>45646.70833333334</v>
+        <v>45645.875</v>
       </c>
       <c r="F173">
         <v>18</v>
@@ -36872,6 +36884,830 @@
       </c>
       <c r="BP173">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7465167</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>83</v>
+      </c>
+      <c r="H174" t="s">
+        <v>77</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>104</v>
+      </c>
+      <c r="P174" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q174">
+        <v>3.25</v>
+      </c>
+      <c r="R174">
+        <v>1.73</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174">
+        <v>1.8</v>
+      </c>
+      <c r="U174">
+        <v>1.91</v>
+      </c>
+      <c r="V174">
+        <v>5.5</v>
+      </c>
+      <c r="W174">
+        <v>1.14</v>
+      </c>
+      <c r="X174">
+        <v>19</v>
+      </c>
+      <c r="Y174">
+        <v>1.02</v>
+      </c>
+      <c r="Z174">
+        <v>2.25</v>
+      </c>
+      <c r="AA174">
+        <v>2.75</v>
+      </c>
+      <c r="AB174">
+        <v>4</v>
+      </c>
+      <c r="AC174">
+        <v>1.18</v>
+      </c>
+      <c r="AD174">
+        <v>5</v>
+      </c>
+      <c r="AE174">
+        <v>1.83</v>
+      </c>
+      <c r="AF174">
+        <v>2.02</v>
+      </c>
+      <c r="AG174">
+        <v>3.5</v>
+      </c>
+      <c r="AH174">
+        <v>1.3</v>
+      </c>
+      <c r="AI174">
+        <v>2.63</v>
+      </c>
+      <c r="AJ174">
+        <v>1.44</v>
+      </c>
+      <c r="AK174">
+        <v>1.26</v>
+      </c>
+      <c r="AL174">
+        <v>1.38</v>
+      </c>
+      <c r="AM174">
+        <v>1.63</v>
+      </c>
+      <c r="AN174">
+        <v>1.56</v>
+      </c>
+      <c r="AO174">
+        <v>1.5</v>
+      </c>
+      <c r="AP174">
+        <v>1.4</v>
+      </c>
+      <c r="AQ174">
+        <v>1.67</v>
+      </c>
+      <c r="AR174">
+        <v>1.31</v>
+      </c>
+      <c r="AS174">
+        <v>1.23</v>
+      </c>
+      <c r="AT174">
+        <v>2.54</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>10</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>19</v>
+      </c>
+      <c r="AZ174">
+        <v>10</v>
+      </c>
+      <c r="BA174">
+        <v>3</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>3</v>
+      </c>
+      <c r="BD174">
+        <v>1.58</v>
+      </c>
+      <c r="BE174">
+        <v>6.4</v>
+      </c>
+      <c r="BF174">
+        <v>2.65</v>
+      </c>
+      <c r="BG174">
+        <v>1.44</v>
+      </c>
+      <c r="BH174">
+        <v>2.55</v>
+      </c>
+      <c r="BI174">
+        <v>1.74</v>
+      </c>
+      <c r="BJ174">
+        <v>1.96</v>
+      </c>
+      <c r="BK174">
+        <v>2.18</v>
+      </c>
+      <c r="BL174">
+        <v>1.58</v>
+      </c>
+      <c r="BM174">
+        <v>2.8</v>
+      </c>
+      <c r="BN174">
+        <v>1.36</v>
+      </c>
+      <c r="BO174">
+        <v>3.8</v>
+      </c>
+      <c r="BP174">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7465166</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45647.51041666666</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>213</v>
+      </c>
+      <c r="P175" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q175">
+        <v>3.6</v>
+      </c>
+      <c r="R175">
+        <v>1.95</v>
+      </c>
+      <c r="S175">
+        <v>3.4</v>
+      </c>
+      <c r="T175">
+        <v>1.53</v>
+      </c>
+      <c r="U175">
+        <v>2.38</v>
+      </c>
+      <c r="V175">
+        <v>3.5</v>
+      </c>
+      <c r="W175">
+        <v>1.29</v>
+      </c>
+      <c r="X175">
+        <v>11</v>
+      </c>
+      <c r="Y175">
+        <v>1.05</v>
+      </c>
+      <c r="Z175">
+        <v>2.88</v>
+      </c>
+      <c r="AA175">
+        <v>3.1</v>
+      </c>
+      <c r="AB175">
+        <v>2.55</v>
+      </c>
+      <c r="AC175">
+        <v>1.09</v>
+      </c>
+      <c r="AD175">
+        <v>8</v>
+      </c>
+      <c r="AE175">
+        <v>1.45</v>
+      </c>
+      <c r="AF175">
+        <v>2.8</v>
+      </c>
+      <c r="AG175">
+        <v>2.38</v>
+      </c>
+      <c r="AH175">
+        <v>1.57</v>
+      </c>
+      <c r="AI175">
+        <v>1.95</v>
+      </c>
+      <c r="AJ175">
+        <v>1.8</v>
+      </c>
+      <c r="AK175">
+        <v>1.53</v>
+      </c>
+      <c r="AL175">
+        <v>1.32</v>
+      </c>
+      <c r="AM175">
+        <v>1.44</v>
+      </c>
+      <c r="AN175">
+        <v>1.89</v>
+      </c>
+      <c r="AO175">
+        <v>1.75</v>
+      </c>
+      <c r="AP175">
+        <v>2</v>
+      </c>
+      <c r="AQ175">
+        <v>1.56</v>
+      </c>
+      <c r="AR175">
+        <v>1.41</v>
+      </c>
+      <c r="AS175">
+        <v>1.07</v>
+      </c>
+      <c r="AT175">
+        <v>2.48</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>2</v>
+      </c>
+      <c r="AW175">
+        <v>2</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>12</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>4</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>11</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>6.25</v>
+      </c>
+      <c r="BF175">
+        <v>1.98</v>
+      </c>
+      <c r="BG175">
+        <v>1.41</v>
+      </c>
+      <c r="BH175">
+        <v>2.65</v>
+      </c>
+      <c r="BI175">
+        <v>1.67</v>
+      </c>
+      <c r="BJ175">
+        <v>2.05</v>
+      </c>
+      <c r="BK175">
+        <v>2.08</v>
+      </c>
+      <c r="BL175">
+        <v>1.65</v>
+      </c>
+      <c r="BM175">
+        <v>2.65</v>
+      </c>
+      <c r="BN175">
+        <v>1.41</v>
+      </c>
+      <c r="BO175">
+        <v>3.55</v>
+      </c>
+      <c r="BP175">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7465171</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45647.60416666666</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>74</v>
+      </c>
+      <c r="H176" t="s">
+        <v>70</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>214</v>
+      </c>
+      <c r="P176" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q176">
+        <v>4.33</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>2.88</v>
+      </c>
+      <c r="T176">
+        <v>1.5</v>
+      </c>
+      <c r="U176">
+        <v>2.5</v>
+      </c>
+      <c r="V176">
+        <v>3.5</v>
+      </c>
+      <c r="W176">
+        <v>1.29</v>
+      </c>
+      <c r="X176">
+        <v>11</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>3.9</v>
+      </c>
+      <c r="AA176">
+        <v>3</v>
+      </c>
+      <c r="AB176">
+        <v>2.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.09</v>
+      </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
+      <c r="AE176">
+        <v>1.44</v>
+      </c>
+      <c r="AF176">
+        <v>2.8</v>
+      </c>
+      <c r="AG176">
+        <v>2.3</v>
+      </c>
+      <c r="AH176">
+        <v>1.62</v>
+      </c>
+      <c r="AI176">
+        <v>1.95</v>
+      </c>
+      <c r="AJ176">
+        <v>1.8</v>
+      </c>
+      <c r="AK176">
+        <v>1.75</v>
+      </c>
+      <c r="AL176">
+        <v>1.3</v>
+      </c>
+      <c r="AM176">
+        <v>1.28</v>
+      </c>
+      <c r="AN176">
+        <v>2</v>
+      </c>
+      <c r="AO176">
+        <v>1.5</v>
+      </c>
+      <c r="AP176">
+        <v>1.8</v>
+      </c>
+      <c r="AQ176">
+        <v>1.67</v>
+      </c>
+      <c r="AR176">
+        <v>1.53</v>
+      </c>
+      <c r="AS176">
+        <v>1.25</v>
+      </c>
+      <c r="AT176">
+        <v>2.78</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>9</v>
+      </c>
+      <c r="AW176">
+        <v>2</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>7</v>
+      </c>
+      <c r="AZ176">
+        <v>14</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>7</v>
+      </c>
+      <c r="BD176">
+        <v>2.32</v>
+      </c>
+      <c r="BE176">
+        <v>6.5</v>
+      </c>
+      <c r="BF176">
+        <v>1.74</v>
+      </c>
+      <c r="BG176">
+        <v>1.29</v>
+      </c>
+      <c r="BH176">
+        <v>3.2</v>
+      </c>
+      <c r="BI176">
+        <v>1.5</v>
+      </c>
+      <c r="BJ176">
+        <v>2.38</v>
+      </c>
+      <c r="BK176">
+        <v>1.82</v>
+      </c>
+      <c r="BL176">
+        <v>1.87</v>
+      </c>
+      <c r="BM176">
+        <v>2.3</v>
+      </c>
+      <c r="BN176">
+        <v>1.54</v>
+      </c>
+      <c r="BO176">
+        <v>2.9</v>
+      </c>
+      <c r="BP176">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7465172</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45647.70833333334</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>81</v>
+      </c>
+      <c r="H177" t="s">
+        <v>87</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>215</v>
+      </c>
+      <c r="P177" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q177">
+        <v>2.4</v>
+      </c>
+      <c r="R177">
+        <v>2.38</v>
+      </c>
+      <c r="S177">
+        <v>4</v>
+      </c>
+      <c r="T177">
+        <v>1.29</v>
+      </c>
+      <c r="U177">
+        <v>3.5</v>
+      </c>
+      <c r="V177">
+        <v>2.38</v>
+      </c>
+      <c r="W177">
+        <v>1.53</v>
+      </c>
+      <c r="X177">
+        <v>5.5</v>
+      </c>
+      <c r="Y177">
+        <v>1.14</v>
+      </c>
+      <c r="Z177">
+        <v>1.85</v>
+      </c>
+      <c r="AA177">
+        <v>3.7</v>
+      </c>
+      <c r="AB177">
+        <v>4</v>
+      </c>
+      <c r="AC177">
+        <v>1.03</v>
+      </c>
+      <c r="AD177">
+        <v>17</v>
+      </c>
+      <c r="AE177">
+        <v>1.19</v>
+      </c>
+      <c r="AF177">
+        <v>4.75</v>
+      </c>
+      <c r="AG177">
+        <v>1.57</v>
+      </c>
+      <c r="AH177">
+        <v>2.38</v>
+      </c>
+      <c r="AI177">
+        <v>1.53</v>
+      </c>
+      <c r="AJ177">
+        <v>2.38</v>
+      </c>
+      <c r="AK177">
+        <v>1.26</v>
+      </c>
+      <c r="AL177">
+        <v>1.22</v>
+      </c>
+      <c r="AM177">
+        <v>1.96</v>
+      </c>
+      <c r="AN177">
+        <v>2.14</v>
+      </c>
+      <c r="AO177">
+        <v>1.88</v>
+      </c>
+      <c r="AP177">
+        <v>1.88</v>
+      </c>
+      <c r="AQ177">
+        <v>2</v>
+      </c>
+      <c r="AR177">
+        <v>1.95</v>
+      </c>
+      <c r="AS177">
+        <v>1.08</v>
+      </c>
+      <c r="AT177">
+        <v>3.03</v>
+      </c>
+      <c r="AU177">
+        <v>8</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>6</v>
+      </c>
+      <c r="AX177">
+        <v>1</v>
+      </c>
+      <c r="AY177">
+        <v>20</v>
+      </c>
+      <c r="AZ177">
+        <v>6</v>
+      </c>
+      <c r="BA177">
+        <v>11</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>14</v>
+      </c>
+      <c r="BD177">
+        <v>1.46</v>
+      </c>
+      <c r="BE177">
+        <v>6.75</v>
+      </c>
+      <c r="BF177">
+        <v>3.05</v>
+      </c>
+      <c r="BG177">
+        <v>1.3</v>
+      </c>
+      <c r="BH177">
+        <v>3.15</v>
+      </c>
+      <c r="BI177">
+        <v>1.52</v>
+      </c>
+      <c r="BJ177">
+        <v>2.32</v>
+      </c>
+      <c r="BK177">
+        <v>1.84</v>
+      </c>
+      <c r="BL177">
+        <v>1.84</v>
+      </c>
+      <c r="BM177">
+        <v>2.33</v>
+      </c>
+      <c r="BN177">
+        <v>1.52</v>
+      </c>
+      <c r="BO177">
+        <v>3</v>
+      </c>
+      <c r="BP177">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,18 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['70', '90+8']</t>
+  </si>
+  <si>
+    <t>['10', '20', '34', '53']</t>
+  </si>
+  <si>
+    <t>['6', '33']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -881,6 +893,15 @@
   </si>
   <si>
     <t>['60', '90+6']</t>
+  </si>
+  <si>
+    <t>['7', '88']</t>
+  </si>
+  <si>
+    <t>['35', '85']</t>
+  </si>
+  <si>
+    <t>['16', '45+2', '65', '90+2', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1522,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1785,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1913,7 +1934,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1994,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2119,7 +2140,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2197,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2325,7 +2346,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2531,7 +2552,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2609,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>2.09</v>
@@ -2737,7 +2758,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2818,7 +2839,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2943,7 +2964,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3230,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3355,7 +3376,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3767,7 +3788,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3848,7 +3869,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4672,7 +4693,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4875,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -5003,7 +5024,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5081,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19">
         <v>1.11</v>
@@ -5621,7 +5642,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5908,7 +5929,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -6033,7 +6054,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6732,7 +6753,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ27">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR27">
         <v>1.31</v>
@@ -6857,7 +6878,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6938,7 +6959,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ28">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -7347,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>1.78</v>
@@ -7968,7 +7989,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8093,7 +8114,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8171,10 +8192,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR34">
         <v>0.87</v>
@@ -8377,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8711,7 +8732,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8917,7 +8938,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9407,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9613,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ41">
         <v>0.89</v>
@@ -9741,7 +9762,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9822,7 +9843,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR42">
         <v>1.48</v>
@@ -9947,7 +9968,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10028,7 +10049,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -10061,10 +10082,10 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD43">
         <v>1.81</v>
@@ -10359,7 +10380,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10771,7 +10792,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10977,7 +10998,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11055,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11801,7 +11822,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11879,7 +11900,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
         <v>0.25</v>
@@ -12007,7 +12028,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12085,7 +12106,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -12294,7 +12315,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.07</v>
@@ -12625,7 +12646,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12909,7 +12930,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13037,7 +13058,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13115,10 +13136,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ58">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -13655,7 +13676,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14067,7 +14088,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14145,7 +14166,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -14351,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -14479,7 +14500,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14685,7 +14706,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14763,10 +14784,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ66">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>2.43</v>
@@ -14972,7 +14993,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15303,7 +15324,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15384,7 +15405,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR69">
         <v>1.13</v>
@@ -15509,7 +15530,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15587,7 +15608,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15921,7 +15942,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16208,7 +16229,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16745,7 +16766,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17157,7 +17178,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17238,7 +17259,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17441,10 +17462,10 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17569,7 +17590,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17775,7 +17796,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18059,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>0.33</v>
@@ -18677,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -18805,7 +18826,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18886,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -19089,10 +19110,10 @@
         <v>2.5</v>
       </c>
       <c r="AP87">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR87">
         <v>2.14</v>
@@ -19217,7 +19238,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19423,7 +19444,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19835,7 +19856,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20041,7 +20062,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20328,7 +20349,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ93">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20453,7 +20474,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20865,7 +20886,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21152,7 +21173,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21277,7 +21298,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21370,22 +21391,22 @@
         <v>2.36</v>
       </c>
       <c r="AU98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV98">
         <v>3</v>
       </c>
       <c r="AW98">
+        <v>8</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>25</v>
+      </c>
+      <c r="AZ98">
         <v>6</v>
-      </c>
-      <c r="AX98">
-        <v>1</v>
-      </c>
-      <c r="AY98">
-        <v>13</v>
-      </c>
-      <c r="AZ98">
-        <v>4</v>
       </c>
       <c r="BA98">
         <v>8</v>
@@ -21576,10 +21597,10 @@
         <v>2.76</v>
       </c>
       <c r="AU99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW99">
         <v>5</v>
@@ -21588,10 +21609,10 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ99">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BA99">
         <v>5</v>
@@ -21770,7 +21791,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ100">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -21782,22 +21803,22 @@
         <v>3.24</v>
       </c>
       <c r="AU100">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV100">
         <v>2</v>
       </c>
       <c r="AW100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX100">
         <v>2</v>
       </c>
       <c r="AY100">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AZ100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA100">
         <v>5</v>
@@ -21895,7 +21916,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21973,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -22101,7 +22122,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22182,16 +22203,16 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR102">
         <v>1.07</v>
       </c>
       <c r="AS102">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT102">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22307,7 +22328,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22388,7 +22409,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22594,7 +22615,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR104">
         <v>1.49</v>
@@ -22797,7 +22818,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22925,7 +22946,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23003,7 +23024,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ106">
         <v>2.09</v>
@@ -23209,7 +23230,7 @@
         <v>0.75</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ107">
         <v>0.5</v>
@@ -23621,7 +23642,7 @@
         <v>1.8</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ109">
         <v>2</v>
@@ -23749,7 +23770,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24573,7 +24594,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24660,10 +24681,10 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="AT114">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -24863,13 +24884,13 @@
         <v>1.11</v>
       </c>
       <c r="AR115">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="AS115">
         <v>1.29</v>
       </c>
       <c r="AT115">
-        <v>2.87</v>
+        <v>3.03</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -24985,7 +25006,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25066,16 +25087,16 @@
         <v>1.88</v>
       </c>
       <c r="AQ116">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR116">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AS116">
         <v>0.82</v>
       </c>
       <c r="AT116">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU116">
         <v>10</v>
@@ -25191,7 +25212,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25397,7 +25418,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25690,10 +25711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS119">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AT119">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -25809,7 +25830,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26093,7 +26114,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ121">
         <v>0.88</v>
@@ -26302,16 +26323,16 @@
         <v>1.44</v>
       </c>
       <c r="AQ122">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR122">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AS122">
         <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26505,19 +26526,19 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
       </c>
       <c r="AS123">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT123">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -26633,7 +26654,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26711,7 +26732,7 @@
         <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ124">
         <v>0.5</v>
@@ -27756,22 +27777,22 @@
         <v>2.13</v>
       </c>
       <c r="AU129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV129">
         <v>4</v>
       </c>
       <c r="AW129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY129">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ129">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA129">
         <v>3</v>
@@ -27869,7 +27890,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27947,7 +27968,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28156,16 +28177,16 @@
         <v>2.56</v>
       </c>
       <c r="AQ131">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR131">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AS131">
         <v>1.31</v>
       </c>
       <c r="AT131">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="AU131">
         <v>9</v>
@@ -28281,7 +28302,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28359,7 +28380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
         <v>1.67</v>
@@ -28568,7 +28589,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ133">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28693,7 +28714,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28899,7 +28920,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -28980,7 +29001,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ135">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR135">
         <v>1.57</v>
@@ -29186,7 +29207,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ136">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -29311,7 +29332,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29389,7 +29410,7 @@
         <v>1.8</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137">
         <v>1.78</v>
@@ -29723,7 +29744,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29929,7 +29950,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30013,13 +30034,13 @@
         <v>1.11</v>
       </c>
       <c r="AR140">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="AS140">
         <v>1.13</v>
       </c>
       <c r="AT140">
-        <v>2.98</v>
+        <v>3.07</v>
       </c>
       <c r="AU140">
         <v>9</v>
@@ -30222,10 +30243,10 @@
         <v>1.08</v>
       </c>
       <c r="AS141">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="AT141">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AU141">
         <v>8</v>
@@ -30547,7 +30568,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30753,7 +30774,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -30837,13 +30858,13 @@
         <v>1</v>
       </c>
       <c r="AR144">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS144">
         <v>1.05</v>
       </c>
       <c r="AT144">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31037,7 +31058,7 @@
         <v>0.33</v>
       </c>
       <c r="AP145">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ145">
         <v>0.25</v>
@@ -31046,10 +31067,10 @@
         <v>1.86</v>
       </c>
       <c r="AS145">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AT145">
-        <v>2.91</v>
+        <v>2.98</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31165,7 +31186,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31258,22 +31279,22 @@
         <v>3</v>
       </c>
       <c r="AU146">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV146">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX146">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY146">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ146">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA146">
         <v>1</v>
@@ -31670,22 +31691,22 @@
         <v>2.09</v>
       </c>
       <c r="AU148">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV148">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW148">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX148">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY148">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ148">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA148">
         <v>5</v>
@@ -31783,7 +31804,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31989,7 +32010,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32479,7 +32500,7 @@
         <v>0.43</v>
       </c>
       <c r="AP152">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152">
         <v>0.33</v>
@@ -32488,10 +32509,10 @@
         <v>1.35</v>
       </c>
       <c r="AS152">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT152">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="AU152">
         <v>6</v>
@@ -32607,7 +32628,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -32685,7 +32706,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ153">
         <v>2.09</v>
@@ -32891,10 +32912,10 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR154">
         <v>1.29</v>
@@ -33019,7 +33040,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33225,7 +33246,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33303,7 +33324,7 @@
         <v>1.57</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ156">
         <v>1.56</v>
@@ -33512,7 +33533,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ157">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -33637,7 +33658,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33718,7 +33739,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ158">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR158">
         <v>1.47</v>
@@ -33843,7 +33864,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -33924,16 +33945,16 @@
         <v>2.56</v>
       </c>
       <c r="AQ159">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AS159">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU159">
         <v>10</v>
@@ -34130,16 +34151,16 @@
         <v>1.4</v>
       </c>
       <c r="AQ160">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR160">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS160">
         <v>0.84</v>
       </c>
       <c r="AT160">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU160">
         <v>7</v>
@@ -34548,10 +34569,10 @@
         <v>1.12</v>
       </c>
       <c r="AS162">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AT162">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AU162">
         <v>4</v>
@@ -34957,13 +34978,13 @@
         <v>0.5</v>
       </c>
       <c r="AR164">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS164">
         <v>1.27</v>
       </c>
       <c r="AT164">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU164">
         <v>4</v>
@@ -35079,7 +35100,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35163,13 +35184,13 @@
         <v>1.78</v>
       </c>
       <c r="AR165">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AS165">
         <v>1.55</v>
       </c>
       <c r="AT165">
-        <v>3.27</v>
+        <v>3.19</v>
       </c>
       <c r="AU165">
         <v>6</v>
@@ -35369,13 +35390,13 @@
         <v>0.25</v>
       </c>
       <c r="AR166">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AS166">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AT166">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35491,7 +35512,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -35578,10 +35599,10 @@
         <v>1.17</v>
       </c>
       <c r="AS167">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AT167">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU167">
         <v>4</v>
@@ -35903,7 +35924,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -35987,13 +36008,13 @@
         <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS169">
         <v>1.22</v>
       </c>
       <c r="AT169">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="AU169">
         <v>5</v>
@@ -36193,13 +36214,13 @@
         <v>0.89</v>
       </c>
       <c r="AR170">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS170">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT170">
-        <v>2.76</v>
+        <v>2.79</v>
       </c>
       <c r="AU170">
         <v>5</v>
@@ -36315,7 +36336,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36602,16 +36623,16 @@
         <v>1.44</v>
       </c>
       <c r="AQ172">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR172">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS172">
         <v>0.97</v>
       </c>
       <c r="AT172">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
       <c r="AU172">
         <v>6</v>
@@ -36694,7 +36715,7 @@
         <v>69</v>
       </c>
       <c r="E173" s="2">
-        <v>45645.875</v>
+        <v>45646.70833333334</v>
       </c>
       <c r="F173">
         <v>18</v>
@@ -36814,28 +36835,28 @@
         <v>1.37</v>
       </c>
       <c r="AS173">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AT173">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="AU173">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV173">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW173">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY173">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AZ173">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA173">
         <v>9</v>
@@ -36900,7 +36921,7 @@
         <v>69</v>
       </c>
       <c r="E174" s="2">
-        <v>45646.875</v>
+        <v>45647.41666666666</v>
       </c>
       <c r="F174">
         <v>18</v>
@@ -37017,13 +37038,13 @@
         <v>1.67</v>
       </c>
       <c r="AR174">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AS174">
         <v>1.23</v>
       </c>
       <c r="AT174">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AU174">
         <v>6</v>
@@ -37345,7 +37366,7 @@
         <v>214</v>
       </c>
       <c r="P176" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37432,10 +37453,10 @@
         <v>1.53</v>
       </c>
       <c r="AS176">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AT176">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="AU176">
         <v>4</v>
@@ -37551,7 +37572,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -37635,13 +37656,13 @@
         <v>2</v>
       </c>
       <c r="AR177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS177">
         <v>1.08</v>
       </c>
       <c r="AT177">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="AU177">
         <v>8</v>
@@ -37708,6 +37729,1036 @@
       </c>
       <c r="BP177">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7465173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45648.41666666666</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>75</v>
+      </c>
+      <c r="H178" t="s">
+        <v>86</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>216</v>
+      </c>
+      <c r="P178" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>1.95</v>
+      </c>
+      <c r="S178">
+        <v>4.33</v>
+      </c>
+      <c r="T178">
+        <v>1.57</v>
+      </c>
+      <c r="U178">
+        <v>2.25</v>
+      </c>
+      <c r="V178">
+        <v>3.75</v>
+      </c>
+      <c r="W178">
+        <v>1.25</v>
+      </c>
+      <c r="X178">
+        <v>11</v>
+      </c>
+      <c r="Y178">
+        <v>1.05</v>
+      </c>
+      <c r="Z178">
+        <v>2.2</v>
+      </c>
+      <c r="AA178">
+        <v>3</v>
+      </c>
+      <c r="AB178">
+        <v>3.6</v>
+      </c>
+      <c r="AC178">
+        <v>1.12</v>
+      </c>
+      <c r="AD178">
+        <v>7</v>
+      </c>
+      <c r="AE178">
+        <v>1.5</v>
+      </c>
+      <c r="AF178">
+        <v>2.4</v>
+      </c>
+      <c r="AG178">
+        <v>2.63</v>
+      </c>
+      <c r="AH178">
+        <v>1.5</v>
+      </c>
+      <c r="AI178">
+        <v>2.05</v>
+      </c>
+      <c r="AJ178">
+        <v>1.7</v>
+      </c>
+      <c r="AK178">
+        <v>1.28</v>
+      </c>
+      <c r="AL178">
+        <v>1.32</v>
+      </c>
+      <c r="AM178">
+        <v>1.7</v>
+      </c>
+      <c r="AN178">
+        <v>1.14</v>
+      </c>
+      <c r="AO178">
+        <v>0.44</v>
+      </c>
+      <c r="AP178">
+        <v>1.13</v>
+      </c>
+      <c r="AQ178">
+        <v>0.5</v>
+      </c>
+      <c r="AR178">
+        <v>1.38</v>
+      </c>
+      <c r="AS178">
+        <v>1.16</v>
+      </c>
+      <c r="AT178">
+        <v>2.54</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>4</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>9</v>
+      </c>
+      <c r="AZ178">
+        <v>12</v>
+      </c>
+      <c r="BA178">
+        <v>5</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
+        <v>1.68</v>
+      </c>
+      <c r="BE178">
+        <v>6.4</v>
+      </c>
+      <c r="BF178">
+        <v>2.48</v>
+      </c>
+      <c r="BG178">
+        <v>1.43</v>
+      </c>
+      <c r="BH178">
+        <v>2.55</v>
+      </c>
+      <c r="BI178">
+        <v>1.75</v>
+      </c>
+      <c r="BJ178">
+        <v>1.95</v>
+      </c>
+      <c r="BK178">
+        <v>2.2</v>
+      </c>
+      <c r="BL178">
+        <v>1.57</v>
+      </c>
+      <c r="BM178">
+        <v>2.9</v>
+      </c>
+      <c r="BN178">
+        <v>1.35</v>
+      </c>
+      <c r="BO178">
+        <v>3.9</v>
+      </c>
+      <c r="BP178">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7465169</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45648.51041666666</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>84</v>
+      </c>
+      <c r="H179" t="s">
+        <v>80</v>
+      </c>
+      <c r="I179">
+        <v>3</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>4</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>6</v>
+      </c>
+      <c r="O179" t="s">
+        <v>217</v>
+      </c>
+      <c r="P179" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q179">
+        <v>1.8</v>
+      </c>
+      <c r="R179">
+        <v>2.63</v>
+      </c>
+      <c r="S179">
+        <v>7.5</v>
+      </c>
+      <c r="T179">
+        <v>1.25</v>
+      </c>
+      <c r="U179">
+        <v>3.75</v>
+      </c>
+      <c r="V179">
+        <v>2.25</v>
+      </c>
+      <c r="W179">
+        <v>1.57</v>
+      </c>
+      <c r="X179">
+        <v>5.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.14</v>
+      </c>
+      <c r="Z179">
+        <v>1.33</v>
+      </c>
+      <c r="AA179">
+        <v>5</v>
+      </c>
+      <c r="AB179">
+        <v>9</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>21</v>
+      </c>
+      <c r="AE179">
+        <v>1.18</v>
+      </c>
+      <c r="AF179">
+        <v>5</v>
+      </c>
+      <c r="AG179">
+        <v>1.53</v>
+      </c>
+      <c r="AH179">
+        <v>2.5</v>
+      </c>
+      <c r="AI179">
+        <v>1.8</v>
+      </c>
+      <c r="AJ179">
+        <v>1.95</v>
+      </c>
+      <c r="AK179">
+        <v>1.07</v>
+      </c>
+      <c r="AL179">
+        <v>1.12</v>
+      </c>
+      <c r="AM179">
+        <v>3.25</v>
+      </c>
+      <c r="AN179">
+        <v>2.63</v>
+      </c>
+      <c r="AO179">
+        <v>0.75</v>
+      </c>
+      <c r="AP179">
+        <v>2.67</v>
+      </c>
+      <c r="AQ179">
+        <v>0.67</v>
+      </c>
+      <c r="AR179">
+        <v>1.81</v>
+      </c>
+      <c r="AS179">
+        <v>1.13</v>
+      </c>
+      <c r="AT179">
+        <v>2.94</v>
+      </c>
+      <c r="AU179">
+        <v>9</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>4</v>
+      </c>
+      <c r="AX179">
+        <v>4</v>
+      </c>
+      <c r="AY179">
+        <v>17</v>
+      </c>
+      <c r="AZ179">
+        <v>11</v>
+      </c>
+      <c r="BA179">
+        <v>6</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>12</v>
+      </c>
+      <c r="BD179">
+        <v>1.3</v>
+      </c>
+      <c r="BE179">
+        <v>7.5</v>
+      </c>
+      <c r="BF179">
+        <v>3.8</v>
+      </c>
+      <c r="BG179">
+        <v>1.26</v>
+      </c>
+      <c r="BH179">
+        <v>3.4</v>
+      </c>
+      <c r="BI179">
+        <v>1.46</v>
+      </c>
+      <c r="BJ179">
+        <v>2.48</v>
+      </c>
+      <c r="BK179">
+        <v>1.77</v>
+      </c>
+      <c r="BL179">
+        <v>1.92</v>
+      </c>
+      <c r="BM179">
+        <v>2.18</v>
+      </c>
+      <c r="BN179">
+        <v>1.58</v>
+      </c>
+      <c r="BO179">
+        <v>2.8</v>
+      </c>
+      <c r="BP179">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7465170</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45648.60416666666</v>
+      </c>
+      <c r="F180">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>85</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>4</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>5</v>
+      </c>
+      <c r="N180">
+        <v>7</v>
+      </c>
+      <c r="O180" t="s">
+        <v>218</v>
+      </c>
+      <c r="P180" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q180">
+        <v>4.33</v>
+      </c>
+      <c r="R180">
+        <v>2.1</v>
+      </c>
+      <c r="S180">
+        <v>2.63</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.75</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
+        <v>3.9</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>2</v>
+      </c>
+      <c r="AC180">
+        <v>1.06</v>
+      </c>
+      <c r="AD180">
+        <v>10</v>
+      </c>
+      <c r="AE180">
+        <v>1.33</v>
+      </c>
+      <c r="AF180">
+        <v>3.4</v>
+      </c>
+      <c r="AG180">
+        <v>2</v>
+      </c>
+      <c r="AH180">
+        <v>1.8</v>
+      </c>
+      <c r="AI180">
+        <v>1.8</v>
+      </c>
+      <c r="AJ180">
+        <v>1.95</v>
+      </c>
+      <c r="AK180">
+        <v>1.83</v>
+      </c>
+      <c r="AL180">
+        <v>1.26</v>
+      </c>
+      <c r="AM180">
+        <v>1.28</v>
+      </c>
+      <c r="AN180">
+        <v>1.25</v>
+      </c>
+      <c r="AO180">
+        <v>1.75</v>
+      </c>
+      <c r="AP180">
+        <v>1.11</v>
+      </c>
+      <c r="AQ180">
+        <v>1.89</v>
+      </c>
+      <c r="AR180">
+        <v>0.99</v>
+      </c>
+      <c r="AS180">
+        <v>1.44</v>
+      </c>
+      <c r="AT180">
+        <v>2.43</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>10</v>
+      </c>
+      <c r="AW180">
+        <v>1</v>
+      </c>
+      <c r="AX180">
+        <v>6</v>
+      </c>
+      <c r="AY180">
+        <v>6</v>
+      </c>
+      <c r="AZ180">
+        <v>19</v>
+      </c>
+      <c r="BA180">
+        <v>1</v>
+      </c>
+      <c r="BB180">
+        <v>5</v>
+      </c>
+      <c r="BC180">
+        <v>6</v>
+      </c>
+      <c r="BD180">
+        <v>2.23</v>
+      </c>
+      <c r="BE180">
+        <v>6.4</v>
+      </c>
+      <c r="BF180">
+        <v>1.81</v>
+      </c>
+      <c r="BG180">
+        <v>1.38</v>
+      </c>
+      <c r="BH180">
+        <v>2.75</v>
+      </c>
+      <c r="BI180">
+        <v>1.65</v>
+      </c>
+      <c r="BJ180">
+        <v>2.08</v>
+      </c>
+      <c r="BK180">
+        <v>2.05</v>
+      </c>
+      <c r="BL180">
+        <v>1.67</v>
+      </c>
+      <c r="BM180">
+        <v>2.65</v>
+      </c>
+      <c r="BN180">
+        <v>1.41</v>
+      </c>
+      <c r="BO180">
+        <v>3.45</v>
+      </c>
+      <c r="BP180">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7469681</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45648.60416666666</v>
+      </c>
+      <c r="F181">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>82</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>211</v>
+      </c>
+      <c r="P181" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q181">
+        <v>2.4</v>
+      </c>
+      <c r="R181">
+        <v>2.1</v>
+      </c>
+      <c r="S181">
+        <v>5</v>
+      </c>
+      <c r="T181">
+        <v>1.44</v>
+      </c>
+      <c r="U181">
+        <v>2.63</v>
+      </c>
+      <c r="V181">
+        <v>3.25</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>9</v>
+      </c>
+      <c r="Y181">
+        <v>1.07</v>
+      </c>
+      <c r="Z181">
+        <v>1.75</v>
+      </c>
+      <c r="AA181">
+        <v>3.7</v>
+      </c>
+      <c r="AB181">
+        <v>4.5</v>
+      </c>
+      <c r="AC181">
+        <v>1.06</v>
+      </c>
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181">
+        <v>1.36</v>
+      </c>
+      <c r="AF181">
+        <v>3.2</v>
+      </c>
+      <c r="AG181">
+        <v>2.1</v>
+      </c>
+      <c r="AH181">
+        <v>1.73</v>
+      </c>
+      <c r="AI181">
+        <v>1.95</v>
+      </c>
+      <c r="AJ181">
+        <v>1.8</v>
+      </c>
+      <c r="AK181">
+        <v>1.2</v>
+      </c>
+      <c r="AL181">
+        <v>1.24</v>
+      </c>
+      <c r="AM181">
+        <v>2.1</v>
+      </c>
+      <c r="AN181">
+        <v>1.13</v>
+      </c>
+      <c r="AO181">
+        <v>0.13</v>
+      </c>
+      <c r="AP181">
+        <v>1.33</v>
+      </c>
+      <c r="AQ181">
+        <v>0.11</v>
+      </c>
+      <c r="AR181">
+        <v>1.34</v>
+      </c>
+      <c r="AS181">
+        <v>0.84</v>
+      </c>
+      <c r="AT181">
+        <v>2.18</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>11</v>
+      </c>
+      <c r="AZ181">
+        <v>10</v>
+      </c>
+      <c r="BA181">
+        <v>2</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>4</v>
+      </c>
+      <c r="BD181">
+        <v>1.61</v>
+      </c>
+      <c r="BE181">
+        <v>6.5</v>
+      </c>
+      <c r="BF181">
+        <v>2.55</v>
+      </c>
+      <c r="BG181">
+        <v>1.36</v>
+      </c>
+      <c r="BH181">
+        <v>2.8</v>
+      </c>
+      <c r="BI181">
+        <v>1.63</v>
+      </c>
+      <c r="BJ181">
+        <v>2.12</v>
+      </c>
+      <c r="BK181">
+        <v>2</v>
+      </c>
+      <c r="BL181">
+        <v>1.71</v>
+      </c>
+      <c r="BM181">
+        <v>2.55</v>
+      </c>
+      <c r="BN181">
+        <v>1.44</v>
+      </c>
+      <c r="BO181">
+        <v>3.4</v>
+      </c>
+      <c r="BP181">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7465165</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45648.70833333334</v>
+      </c>
+      <c r="F182">
+        <v>18</v>
+      </c>
+      <c r="G182" t="s">
+        <v>71</v>
+      </c>
+      <c r="H182" t="s">
+        <v>88</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>219</v>
+      </c>
+      <c r="P182" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q182">
+        <v>2.5</v>
+      </c>
+      <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>5.5</v>
+      </c>
+      <c r="T182">
+        <v>1.5</v>
+      </c>
+      <c r="U182">
+        <v>2.5</v>
+      </c>
+      <c r="V182">
+        <v>3.4</v>
+      </c>
+      <c r="W182">
+        <v>1.3</v>
+      </c>
+      <c r="X182">
+        <v>10</v>
+      </c>
+      <c r="Y182">
+        <v>1.06</v>
+      </c>
+      <c r="Z182">
+        <v>1.8</v>
+      </c>
+      <c r="AA182">
+        <v>3.5</v>
+      </c>
+      <c r="AB182">
+        <v>4.75</v>
+      </c>
+      <c r="AC182">
+        <v>1.08</v>
+      </c>
+      <c r="AD182">
+        <v>8.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.41</v>
+      </c>
+      <c r="AF182">
+        <v>2.9</v>
+      </c>
+      <c r="AG182">
+        <v>2.2</v>
+      </c>
+      <c r="AH182">
+        <v>1.67</v>
+      </c>
+      <c r="AI182">
+        <v>2.05</v>
+      </c>
+      <c r="AJ182">
+        <v>1.7</v>
+      </c>
+      <c r="AK182">
+        <v>1.19</v>
+      </c>
+      <c r="AL182">
+        <v>1.26</v>
+      </c>
+      <c r="AM182">
+        <v>2.05</v>
+      </c>
+      <c r="AN182">
+        <v>1.88</v>
+      </c>
+      <c r="AO182">
+        <v>1.33</v>
+      </c>
+      <c r="AP182">
+        <v>1.78</v>
+      </c>
+      <c r="AQ182">
+        <v>1.3</v>
+      </c>
+      <c r="AR182">
+        <v>1.81</v>
+      </c>
+      <c r="AS182">
+        <v>1.03</v>
+      </c>
+      <c r="AT182">
+        <v>2.84</v>
+      </c>
+      <c r="AU182">
+        <v>6</v>
+      </c>
+      <c r="AV182">
+        <v>5</v>
+      </c>
+      <c r="AW182">
+        <v>6</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>16</v>
+      </c>
+      <c r="AZ182">
+        <v>11</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>5</v>
+      </c>
+      <c r="BC182">
+        <v>10</v>
+      </c>
+      <c r="BD182">
+        <v>1.49</v>
+      </c>
+      <c r="BE182">
+        <v>6.75</v>
+      </c>
+      <c r="BF182">
+        <v>2.9</v>
+      </c>
+      <c r="BG182">
+        <v>1.27</v>
+      </c>
+      <c r="BH182">
+        <v>3.3</v>
+      </c>
+      <c r="BI182">
+        <v>1.47</v>
+      </c>
+      <c r="BJ182">
+        <v>2.48</v>
+      </c>
+      <c r="BK182">
+        <v>1.75</v>
+      </c>
+      <c r="BL182">
+        <v>1.95</v>
+      </c>
+      <c r="BM182">
+        <v>2.18</v>
+      </c>
+      <c r="BN182">
+        <v>1.58</v>
+      </c>
+      <c r="BO182">
+        <v>2.8</v>
+      </c>
+      <c r="BP182">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -903,6 +903,9 @@
   <si>
     <t>['16', '45+2', '65', '90+2', '90+8']</t>
   </si>
+  <si>
+    <t>['85', '90+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1263,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2630,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>2.09</v>
@@ -3045,7 +3048,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -7371,7 +7374,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -8192,7 +8195,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.89</v>
@@ -10461,7 +10464,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -12930,7 +12933,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -14372,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -17671,7 +17674,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ80">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -20967,7 +20970,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21994,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -27968,7 +27971,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -29413,7 +29416,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -32091,7 +32094,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ150">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32912,7 +32915,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
         <v>1.3</v>
@@ -33121,7 +33124,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR155">
         <v>1.38</v>
@@ -35181,7 +35184,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ165">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -37856,7 +37859,7 @@
         <v>0.44</v>
       </c>
       <c r="AP178">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
         <v>0.5</v>
@@ -38759,6 +38762,212 @@
       </c>
       <c r="BP182">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7465119</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45660.70833333334</v>
+      </c>
+      <c r="F183">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" t="s">
+        <v>84</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>90</v>
+      </c>
+      <c r="P183" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q183">
+        <v>7</v>
+      </c>
+      <c r="R183">
+        <v>2.3</v>
+      </c>
+      <c r="S183">
+        <v>2</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2.75</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>7</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>6.5</v>
+      </c>
+      <c r="AA183">
+        <v>4.33</v>
+      </c>
+      <c r="AB183">
+        <v>1.48</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>12.2</v>
+      </c>
+      <c r="AE183">
+        <v>1.28</v>
+      </c>
+      <c r="AF183">
+        <v>3.8</v>
+      </c>
+      <c r="AG183">
+        <v>1.8</v>
+      </c>
+      <c r="AH183">
+        <v>1.91</v>
+      </c>
+      <c r="AI183">
+        <v>2.05</v>
+      </c>
+      <c r="AJ183">
+        <v>1.7</v>
+      </c>
+      <c r="AK183">
+        <v>2.7</v>
+      </c>
+      <c r="AL183">
+        <v>1.17</v>
+      </c>
+      <c r="AM183">
+        <v>1.09</v>
+      </c>
+      <c r="AN183">
+        <v>1.13</v>
+      </c>
+      <c r="AO183">
+        <v>1.78</v>
+      </c>
+      <c r="AP183">
+        <v>1</v>
+      </c>
+      <c r="AQ183">
+        <v>1.9</v>
+      </c>
+      <c r="AR183">
+        <v>1.35</v>
+      </c>
+      <c r="AS183">
+        <v>1.57</v>
+      </c>
+      <c r="AT183">
+        <v>2.92</v>
+      </c>
+      <c r="AU183">
+        <v>6</v>
+      </c>
+      <c r="AV183">
+        <v>6</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>8</v>
+      </c>
+      <c r="AY183">
+        <v>9</v>
+      </c>
+      <c r="AZ183">
+        <v>18</v>
+      </c>
+      <c r="BA183">
+        <v>2</v>
+      </c>
+      <c r="BB183">
+        <v>5</v>
+      </c>
+      <c r="BC183">
+        <v>7</v>
+      </c>
+      <c r="BD183">
+        <v>3.3</v>
+      </c>
+      <c r="BE183">
+        <v>7</v>
+      </c>
+      <c r="BF183">
+        <v>1.41</v>
+      </c>
+      <c r="BG183">
+        <v>1.36</v>
+      </c>
+      <c r="BH183">
+        <v>2.8</v>
+      </c>
+      <c r="BI183">
+        <v>1.61</v>
+      </c>
+      <c r="BJ183">
+        <v>2.15</v>
+      </c>
+      <c r="BK183">
+        <v>1.98</v>
+      </c>
+      <c r="BL183">
+        <v>1.72</v>
+      </c>
+      <c r="BM183">
+        <v>2.55</v>
+      </c>
+      <c r="BN183">
+        <v>1.44</v>
+      </c>
+      <c r="BO183">
+        <v>3.3</v>
+      </c>
+      <c r="BP183">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,9 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['5', '63']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1266,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1528,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1937,7 +1940,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -2143,7 +2146,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2349,7 +2352,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2555,7 +2558,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2761,7 +2764,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2967,7 +2970,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3379,7 +3382,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3791,7 +3794,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -5027,7 +5030,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5645,7 +5648,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5726,7 +5729,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -6057,7 +6060,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6135,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>2.09</v>
@@ -6881,7 +6884,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -8117,7 +8120,7 @@
         <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>3.22</v>
@@ -8735,7 +8738,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8816,7 +8819,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8941,7 +8944,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9765,7 +9768,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9971,7 +9974,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10383,7 +10386,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10795,7 +10798,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11001,7 +11004,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11491,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>0.88</v>
@@ -11825,7 +11828,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12031,7 +12034,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12649,7 +12652,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13061,7 +13064,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13554,7 +13557,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13679,7 +13682,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13963,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -14091,7 +14094,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14503,7 +14506,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14709,7 +14712,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15327,7 +15330,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15533,7 +15536,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15945,7 +15948,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16435,7 +16438,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
         <v>0.89</v>
@@ -16769,7 +16772,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17181,7 +17184,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17593,7 +17596,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17799,7 +17802,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18704,7 +18707,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR85">
         <v>1.24</v>
@@ -18829,7 +18832,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19241,7 +19244,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19447,7 +19450,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19859,7 +19862,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20065,7 +20068,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20477,7 +20480,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20889,7 +20892,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21301,7 +21304,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21919,7 +21922,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22125,7 +22128,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22331,7 +22334,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22615,7 +22618,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>0.5</v>
@@ -22949,7 +22952,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23236,7 +23239,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ107">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR107">
         <v>1.1</v>
@@ -23773,7 +23776,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24597,7 +24600,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25009,7 +25012,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25215,7 +25218,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25421,7 +25424,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25833,7 +25836,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25911,7 +25914,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
         <v>1.11</v>
@@ -26657,7 +26660,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -26738,7 +26741,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ124">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR124">
         <v>1.82</v>
@@ -27893,7 +27896,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28305,7 +28308,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28717,7 +28720,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -28923,7 +28926,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29335,7 +29338,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29747,7 +29750,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29953,7 +29956,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30446,7 +30449,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -30571,7 +30574,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -30777,7 +30780,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31189,7 +31192,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31267,7 +31270,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ146">
         <v>1.67</v>
@@ -31807,7 +31810,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32013,7 +32016,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32631,7 +32634,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33043,7 +33046,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33249,7 +33252,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33661,7 +33664,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33867,7 +33870,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34978,7 +34981,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ164">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR164">
         <v>1.37</v>
@@ -35103,7 +35106,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35181,7 +35184,7 @@
         <v>1.88</v>
       </c>
       <c r="AP165">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ165">
         <v>1.9</v>
@@ -35515,7 +35518,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -35927,7 +35930,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36339,7 +36342,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -37369,7 +37372,7 @@
         <v>214</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q176">
         <v>4.33</v>
@@ -37575,7 +37578,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -37781,7 +37784,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -37987,7 +37990,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38193,7 +38196,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -38811,7 +38814,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -38968,6 +38971,212 @@
       </c>
       <c r="BP183">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7465181</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45667.70833333334</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>88</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>220</v>
+      </c>
+      <c r="P184" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q184">
+        <v>3.25</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>3.6</v>
+      </c>
+      <c r="T184">
+        <v>1.5</v>
+      </c>
+      <c r="U184">
+        <v>2.5</v>
+      </c>
+      <c r="V184">
+        <v>3.4</v>
+      </c>
+      <c r="W184">
+        <v>1.3</v>
+      </c>
+      <c r="X184">
+        <v>10</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>2.6</v>
+      </c>
+      <c r="AA184">
+        <v>3</v>
+      </c>
+      <c r="AB184">
+        <v>2.9</v>
+      </c>
+      <c r="AC184">
+        <v>1.09</v>
+      </c>
+      <c r="AD184">
+        <v>8</v>
+      </c>
+      <c r="AE184">
+        <v>1.42</v>
+      </c>
+      <c r="AF184">
+        <v>2.9</v>
+      </c>
+      <c r="AG184">
+        <v>2.2</v>
+      </c>
+      <c r="AH184">
+        <v>1.67</v>
+      </c>
+      <c r="AI184">
+        <v>1.91</v>
+      </c>
+      <c r="AJ184">
+        <v>1.91</v>
+      </c>
+      <c r="AK184">
+        <v>1.47</v>
+      </c>
+      <c r="AL184">
+        <v>1.36</v>
+      </c>
+      <c r="AM184">
+        <v>1.41</v>
+      </c>
+      <c r="AN184">
+        <v>1.13</v>
+      </c>
+      <c r="AO184">
+        <v>0.5</v>
+      </c>
+      <c r="AP184">
+        <v>1.33</v>
+      </c>
+      <c r="AQ184">
+        <v>0.44</v>
+      </c>
+      <c r="AR184">
+        <v>1.61</v>
+      </c>
+      <c r="AS184">
+        <v>1.26</v>
+      </c>
+      <c r="AT184">
+        <v>2.87</v>
+      </c>
+      <c r="AU184">
+        <v>6</v>
+      </c>
+      <c r="AV184">
+        <v>8</v>
+      </c>
+      <c r="AW184">
+        <v>3</v>
+      </c>
+      <c r="AX184">
+        <v>16</v>
+      </c>
+      <c r="AY184">
+        <v>10</v>
+      </c>
+      <c r="AZ184">
+        <v>32</v>
+      </c>
+      <c r="BA184">
+        <v>3</v>
+      </c>
+      <c r="BB184">
+        <v>3</v>
+      </c>
+      <c r="BC184">
+        <v>6</v>
+      </c>
+      <c r="BD184">
+        <v>1.64</v>
+      </c>
+      <c r="BE184">
+        <v>6.75</v>
+      </c>
+      <c r="BF184">
+        <v>2.55</v>
+      </c>
+      <c r="BG184">
+        <v>1.3</v>
+      </c>
+      <c r="BH184">
+        <v>3.15</v>
+      </c>
+      <c r="BI184">
+        <v>1.52</v>
+      </c>
+      <c r="BJ184">
+        <v>2.33</v>
+      </c>
+      <c r="BK184">
+        <v>1.84</v>
+      </c>
+      <c r="BL184">
+        <v>1.84</v>
+      </c>
+      <c r="BM184">
+        <v>2.32</v>
+      </c>
+      <c r="BN184">
+        <v>1.53</v>
+      </c>
+      <c r="BO184">
+        <v>2.95</v>
+      </c>
+      <c r="BP184">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
